--- a/QuantLibXL/Data2/XLS/USD_YC6MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YC6MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="24540" windowHeight="7620"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="24540" windowHeight="7620" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="190">
   <si>
     <t>60Y</t>
   </si>
@@ -785,6 +785,9 @@
   </si>
   <si>
     <t>USD_YCRH_SwapsFromBasis</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1421,7 +1424,7 @@
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1848,6 +1851,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="10" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2187,7 +2191,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2211,19 +2215,19 @@
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="195" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="196"/>
-      <c r="K2" s="194" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="197"/>
+      <c r="K2" s="195" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="197"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="198"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="59"/>
@@ -2364,12 +2368,12 @@
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="55"/>
-      <c r="K9" s="194" t="s">
+      <c r="K9" s="195" t="s">
         <v>163</v>
       </c>
-      <c r="L9" s="195"/>
-      <c r="M9" s="195"/>
-      <c r="N9" s="197"/>
+      <c r="L9" s="196"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="198"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="59"/>
@@ -2392,7 +2396,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="84">
-        <v>41655.687175925923</v>
+        <v>41655.710428240738</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="55"/>
@@ -2446,7 +2450,7 @@
       </c>
       <c r="D14" s="81" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYC6M#0003</v>
+        <v>_USDYC6M#0002</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="55"/>
@@ -2468,7 +2472,9 @@
         <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
         <v/>
       </c>
-      <c r="E15" s="56"/>
+      <c r="E15" s="194" t="s">
+        <v>189</v>
+      </c>
       <c r="F15" s="55"/>
       <c r="K15" s="118"/>
       <c r="L15" s="117" t="s">
@@ -2652,7 +2658,7 @@
       </c>
       <c r="D29" s="57" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(Selected!I1)</f>
-        <v>qlPiecewiseYieldCurveData - 11th instrument (maturity: August 20th, 2014) has an invalid quote</v>
+        <v>qlPiecewiseYieldCurveData - 14th instrument (maturity: January 20th, 2016) has an invalid quote</v>
       </c>
       <c r="E29" s="56"/>
       <c r="F29" s="55"/>
@@ -2732,11 +2738,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="199" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="201"/>
       <c r="E1" s="31" t="s">
         <v>74</v>
       </c>
@@ -3295,13 +3301,13 @@
       <c r="J16" s="20">
         <v>1</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="19" t="e">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41659</v>
-      </c>
-      <c r="L16" s="18">
+        <v>#NUM!</v>
+      </c>
+      <c r="L16" s="18" t="e">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>41841</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -3333,13 +3339,13 @@
       <c r="J17" s="5">
         <v>1</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="4" t="e">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>41660</v>
-      </c>
-      <c r="L17" s="3">
+        <v>#NUM!</v>
+      </c>
+      <c r="L17" s="3" t="e">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>41841</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
@@ -3357,9 +3363,9 @@
         <f t="shared" si="0"/>
         <v>USD_YC6MRH_1x7F</v>
       </c>
-      <c r="F18" s="13" t="e">
+      <c r="F18" s="13">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="12" t="b">
@@ -3395,9 +3401,9 @@
         <f t="shared" si="0"/>
         <v>USD_YC6MRH_2x8F</v>
       </c>
-      <c r="F19" s="13" t="e">
+      <c r="F19" s="13">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.7599999999999999E-3</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="12" t="b">
@@ -3433,9 +3439,9 @@
         <f t="shared" si="0"/>
         <v>USD_YC6MRH_3x9F</v>
       </c>
-      <c r="F20" s="13" t="e">
+      <c r="F20" s="13">
         <f>_xll.qlRateHelperQuoteValue($E20,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.9000000000000003E-3</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="12" t="b">
@@ -3471,9 +3477,9 @@
         <f t="shared" si="0"/>
         <v>USD_YC6MRH_4x10F</v>
       </c>
-      <c r="F21" s="13" t="e">
+      <c r="F21" s="13">
         <f>_xll.qlRateHelperQuoteValue($E21,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.0400000000000002E-3</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="12" t="b">
@@ -3509,9 +3515,9 @@
         <f t="shared" si="0"/>
         <v>USD_YC6MRH_5x11F</v>
       </c>
-      <c r="F22" s="13" t="e">
+      <c r="F22" s="13">
         <f>_xll.qlRateHelperQuoteValue($E22,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.2000000000000006E-3</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="12" t="b">
@@ -3547,9 +3553,9 @@
         <f t="shared" si="0"/>
         <v>USD_YC6MRH_6x12F</v>
       </c>
-      <c r="F23" s="13" t="e">
+      <c r="F23" s="13">
         <f>_xll.qlRateHelperQuoteValue($E23,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.3800000000000002E-3</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="12" t="b">
@@ -3599,13 +3605,13 @@
       <c r="J24" s="12">
         <v>1</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E24,Trigger)</f>
-        <v>41871</v>
-      </c>
-      <c r="L24" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="L24" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E24,Trigger)</f>
-        <v>42055</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
@@ -3637,13 +3643,13 @@
       <c r="J25" s="12">
         <v>1</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E25,Trigger)</f>
-        <v>41904</v>
-      </c>
-      <c r="L25" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="L25" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E25,Trigger)</f>
-        <v>42086</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
@@ -3675,13 +3681,13 @@
       <c r="J26" s="12">
         <v>1</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E26,Trigger)</f>
-        <v>41932</v>
-      </c>
-      <c r="L26" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="L26" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E26,Trigger)</f>
-        <v>42114</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
@@ -3713,13 +3719,13 @@
       <c r="J27" s="12">
         <v>1</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E27,Trigger)</f>
-        <v>41963</v>
-      </c>
-      <c r="L27" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="L27" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E27,Trigger)</f>
-        <v>42144</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
@@ -3751,13 +3757,13 @@
       <c r="J28" s="12">
         <v>1</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E28,Trigger)</f>
-        <v>41995</v>
-      </c>
-      <c r="L28" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="L28" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E28,Trigger)</f>
-        <v>42177</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
@@ -3827,13 +3833,13 @@
       <c r="J30" s="12">
         <v>1</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E30,Trigger)</f>
-        <v>42055</v>
-      </c>
-      <c r="L30" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="L30" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E30,Trigger)</f>
-        <v>42236</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
@@ -3865,13 +3871,13 @@
       <c r="J31" s="12">
         <v>1</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E31,Trigger)</f>
-        <v>42083</v>
-      </c>
-      <c r="L31" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="L31" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E31,Trigger)</f>
-        <v>42268</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
@@ -3903,13 +3909,13 @@
       <c r="J32" s="12">
         <v>1</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E32,Trigger)</f>
-        <v>42114</v>
-      </c>
-      <c r="L32" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="L32" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E32,Trigger)</f>
-        <v>42297</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -3941,13 +3947,13 @@
       <c r="J33" s="12">
         <v>1</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E33,Trigger)</f>
-        <v>42144</v>
-      </c>
-      <c r="L33" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="L33" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E33,Trigger)</f>
-        <v>42328</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -3979,13 +3985,13 @@
       <c r="J34" s="12">
         <v>1</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E34,Trigger)</f>
-        <v>42177</v>
-      </c>
-      <c r="L34" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="L34" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E34,Trigger)</f>
-        <v>42360</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -9771,10 +9777,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="202" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="202"/>
+      <c r="B1" s="203"/>
       <c r="D1" s="51" t="s">
         <v>83</v>
       </c>
@@ -9978,7 +9984,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_RateHelpersSelected#0003</v>
+        <v>USD_YC6MRH_RateHelpersSelected#0002</v>
       </c>
       <c r="B7" s="41" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -10137,9 +10143,9 @@
       <c r="D12" s="40" t="str">
         <v>USD_YC6MRH_1x7F</v>
       </c>
-      <c r="E12" s="39" t="e">
+      <c r="E12" s="39">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>#NUM!</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="F12" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -10167,9 +10173,9 @@
       <c r="D13" s="40" t="str">
         <v>USD_YC6MRH_3x9F</v>
       </c>
-      <c r="E13" s="39" t="e">
+      <c r="E13" s="39">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>#NUM!</v>
+        <v>3.9000000000000003E-3</v>
       </c>
       <c r="F13" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -10197,9 +10203,9 @@
       <c r="D14" s="40" t="str">
         <v>USD_YC6MRH_6x12F</v>
       </c>
-      <c r="E14" s="39" t="e">
+      <c r="E14" s="39">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>#NUM!</v>
+        <v>4.3800000000000002E-3</v>
       </c>
       <c r="F14" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -13105,7 +13111,7 @@
       </c>
       <c r="F3" s="101" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_SND#0005</v>
+        <v>USD_YC6MRH_SND#0002</v>
       </c>
       <c r="G3" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -13132,7 +13138,7 @@
       </c>
       <c r="F4" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_SWD#0005</v>
+        <v>USD_YC6MRH_SWD#0002</v>
       </c>
       <c r="G4" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13159,7 +13165,7 @@
       </c>
       <c r="F5" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_2WD#0005</v>
+        <v>USD_YC6MRH_2WD#0002</v>
       </c>
       <c r="G5" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13186,7 +13192,7 @@
       </c>
       <c r="F6" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_3WD#0005</v>
+        <v>USD_YC6MRH_3WD#0002</v>
       </c>
       <c r="G6" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13213,7 +13219,7 @@
       </c>
       <c r="F7" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_1MD#0005</v>
+        <v>USD_YC6MRH_1MD#0002</v>
       </c>
       <c r="G7" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13240,7 +13246,7 @@
       </c>
       <c r="F8" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_2MD#0005</v>
+        <v>USD_YC6MRH_2MD#0002</v>
       </c>
       <c r="G8" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13267,7 +13273,7 @@
       </c>
       <c r="F9" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_3MD#0005</v>
+        <v>USD_YC6MRH_3MD#0002</v>
       </c>
       <c r="G9" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13294,7 +13300,7 @@
       </c>
       <c r="F10" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_4MD#0005</v>
+        <v>USD_YC6MRH_4MD#0002</v>
       </c>
       <c r="G10" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -13321,7 +13327,7 @@
       </c>
       <c r="F11" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_5MD#0005</v>
+        <v>USD_YC6MRH_5MD#0002</v>
       </c>
       <c r="G11" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -13348,7 +13354,7 @@
       </c>
       <c r="F12" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_6MD#0005</v>
+        <v>USD_YC6MRH_6MD#0002</v>
       </c>
       <c r="G12" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -13435,13 +13441,13 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>USD_YC6MRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="148">
+      <c r="I2" s="148" t="e">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>20</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="147" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
       </c>
       <c r="K2" s="93"/>
     </row>
@@ -13472,13 +13478,13 @@
         <f t="shared" ref="H3:H22" si="2">$H$1&amp;"_"&amp;$C3&amp;$D3</f>
         <v>USD_YC6MRH_T6F1</v>
       </c>
-      <c r="I3" s="139" t="str">
+      <c r="I3" s="139" t="e">
         <f>_xll.qlFraRateHelper(H3,G3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_T6F1#0005</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" s="147" t="str">
-        <f>_xll.ohRangeRetrieveError(I3)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I3)</f>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDT6F1_Quote'</v>
       </c>
       <c r="K3" s="93"/>
     </row>
@@ -13509,13 +13515,13 @@
         <f t="shared" si="2"/>
         <v>USD_YC6MRH_TOM6F1</v>
       </c>
-      <c r="I4" s="144" t="str">
+      <c r="I4" s="144" t="e">
         <f>_xll.qlFraRateHelper(H4,G4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_TOM6F1#0005</v>
+        <v>#NUM!</v>
       </c>
       <c r="J4" s="143" t="str">
-        <f>_xll.ohRangeRetrieveError(I4)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I4)</f>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDTOM6F1_Quote'</v>
       </c>
       <c r="K4" s="93"/>
     </row>
@@ -13549,7 +13555,7 @@
       </c>
       <c r="I5" s="139" t="str">
         <f>_xll.qlFraRateHelper(H5,G5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_1x7F#0005</v>
+        <v>USD_YC6MRH_1x7F#0002</v>
       </c>
       <c r="J5" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13587,7 +13593,7 @@
       </c>
       <c r="I6" s="134" t="str">
         <f>_xll.qlFraRateHelper(H6,G6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_2x8F#0005</v>
+        <v>USD_YC6MRH_2x8F#0002</v>
       </c>
       <c r="J6" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13625,7 +13631,7 @@
       </c>
       <c r="I7" s="134" t="str">
         <f>_xll.qlFraRateHelper(H7,G7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_3x9F#0005</v>
+        <v>USD_YC6MRH_3x9F#0002</v>
       </c>
       <c r="J7" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -13663,7 +13669,7 @@
       </c>
       <c r="I8" s="134" t="str">
         <f>_xll.qlFraRateHelper(H8,G8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_4x10F#0005</v>
+        <v>USD_YC6MRH_4x10F#0002</v>
       </c>
       <c r="J8" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -13701,7 +13707,7 @@
       </c>
       <c r="I9" s="134" t="str">
         <f>_xll.qlFraRateHelper(H9,G9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_5x11F#0005</v>
+        <v>USD_YC6MRH_5x11F#0002</v>
       </c>
       <c r="J9" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -13739,7 +13745,7 @@
       </c>
       <c r="I10" s="134" t="str">
         <f>_xll.qlFraRateHelper(H10,G10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_6x12F#0005</v>
+        <v>USD_YC6MRH_6x12F#0002</v>
       </c>
       <c r="J10" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -13775,13 +13781,13 @@
         <f t="shared" si="2"/>
         <v>USD_YC6MRH_7x13F</v>
       </c>
-      <c r="I11" s="134" t="str">
+      <c r="I11" s="134" t="e">
         <f>_xll.qlFraRateHelper(H11,G11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_7x13F#0005</v>
+        <v>#NUM!</v>
       </c>
       <c r="J11" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I11)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I11)</f>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD7x13F_Quote'</v>
       </c>
       <c r="K11" s="93"/>
     </row>
@@ -13813,13 +13819,13 @@
         <f t="shared" si="2"/>
         <v>USD_YC6MRH_8x14F</v>
       </c>
-      <c r="I12" s="134" t="str">
+      <c r="I12" s="134" t="e">
         <f>_xll.qlFraRateHelper(H12,G12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_8x14F#0005</v>
+        <v>#NUM!</v>
       </c>
       <c r="J12" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I12)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I12)</f>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD8x14F_Quote'</v>
       </c>
       <c r="K12" s="93"/>
     </row>
@@ -13851,13 +13857,13 @@
         <f t="shared" si="2"/>
         <v>USD_YC6MRH_9x15F</v>
       </c>
-      <c r="I13" s="134" t="str">
+      <c r="I13" s="134" t="e">
         <f>_xll.qlFraRateHelper(H13,G13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_9x15F#0005</v>
+        <v>#NUM!</v>
       </c>
       <c r="J13" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I13)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I13)</f>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD9x15F_Quote'</v>
       </c>
       <c r="K13" s="93"/>
     </row>
@@ -13889,13 +13895,13 @@
         <f t="shared" si="2"/>
         <v>USD_YC6MRH_10x16F</v>
       </c>
-      <c r="I14" s="134" t="str">
+      <c r="I14" s="134" t="e">
         <f>_xll.qlFraRateHelper(H14,G14,B14,E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_10x16F#0005</v>
+        <v>#NUM!</v>
       </c>
       <c r="J14" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I14)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I14)</f>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD10x16F_Quote'</v>
       </c>
       <c r="K14" s="93"/>
     </row>
@@ -13927,13 +13933,13 @@
         <f t="shared" si="2"/>
         <v>USD_YC6MRH_11x17F</v>
       </c>
-      <c r="I15" s="134" t="str">
+      <c r="I15" s="134" t="e">
         <f>_xll.qlFraRateHelper(H15,G15,B15,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_11x17F#0005</v>
+        <v>#NUM!</v>
       </c>
       <c r="J15" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I15)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I15)</f>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD11x17F_Quote'</v>
       </c>
       <c r="K15" s="93"/>
     </row>
@@ -13967,7 +13973,7 @@
       </c>
       <c r="I16" s="134" t="str">
         <f>_xll.qlFraRateHelper(H16,G16,B16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_12x18F#0005</v>
+        <v>USD_YC6MRH_12x18F#0002</v>
       </c>
       <c r="J16" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -14003,13 +14009,13 @@
         <f t="shared" si="2"/>
         <v>USD_YC6MRH_13x19F</v>
       </c>
-      <c r="I17" s="134" t="str">
+      <c r="I17" s="134" t="e">
         <f>_xll.qlFraRateHelper(H17,G17,B17,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_13x19F#0005</v>
+        <v>#NUM!</v>
       </c>
       <c r="J17" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I17)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I17)</f>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD13x19F_Quote'</v>
       </c>
       <c r="K17" s="93"/>
     </row>
@@ -14041,13 +14047,13 @@
         <f t="shared" si="2"/>
         <v>USD_YC6MRH_14x20F</v>
       </c>
-      <c r="I18" s="134" t="str">
+      <c r="I18" s="134" t="e">
         <f>_xll.qlFraRateHelper(H18,G18,B18,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_14x20F#0005</v>
+        <v>#NUM!</v>
       </c>
       <c r="J18" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I18)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I18)</f>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD14x20F_Quote'</v>
       </c>
       <c r="K18" s="93"/>
     </row>
@@ -14079,13 +14085,13 @@
         <f t="shared" si="2"/>
         <v>USD_YC6MRH_15x21F</v>
       </c>
-      <c r="I19" s="134" t="str">
+      <c r="I19" s="134" t="e">
         <f>_xll.qlFraRateHelper(H19,G19,B19,E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_15x21F#0005</v>
+        <v>#NUM!</v>
       </c>
       <c r="J19" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I19)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I19)</f>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD15x21F_Quote'</v>
       </c>
       <c r="K19" s="93"/>
     </row>
@@ -14117,13 +14123,13 @@
         <f t="shared" si="2"/>
         <v>USD_YC6MRH_16x22F</v>
       </c>
-      <c r="I20" s="134" t="str">
+      <c r="I20" s="134" t="e">
         <f>_xll.qlFraRateHelper(H20,G20,B20,E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_16x22F#0005</v>
+        <v>#NUM!</v>
       </c>
       <c r="J20" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I20)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I20)</f>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD16x22F_Quote'</v>
       </c>
       <c r="K20" s="93"/>
     </row>
@@ -14155,13 +14161,13 @@
         <f t="shared" si="2"/>
         <v>USD_YC6MRH_17x23F</v>
       </c>
-      <c r="I21" s="134" t="str">
+      <c r="I21" s="134" t="e">
         <f>_xll.qlFraRateHelper(H21,G21,B21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_17x23F#0005</v>
+        <v>#NUM!</v>
       </c>
       <c r="J21" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I21)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I21)</f>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD17x23F_Quote'</v>
       </c>
       <c r="K21" s="93"/>
     </row>
@@ -14195,7 +14201,7 @@
       </c>
       <c r="I22" s="134" t="str">
         <f>_xll.qlFraRateHelper(H22,G22,B22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_18x24F#0005</v>
+        <v>USD_YC6MRH_18x24F#0002</v>
       </c>
       <c r="J22" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -14232,9 +14238,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AB43"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14245,11 +14253,11 @@
     <col min="5" max="5" width="2.7109375" style="108" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.85546875" style="108" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="108" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="108" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.140625" style="108" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" style="108" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="130" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.5703125" style="130" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5703125" style="108" customWidth="1"/>
     <col min="14" max="14" width="3.85546875" style="108" customWidth="1"/>
     <col min="15" max="15" width="2.5703125" style="108" customWidth="1"/>
@@ -14259,7 +14267,7 @@
     <col min="19" max="16384" width="9.140625" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="185" t="s">
         <v>188</v>
       </c>
@@ -14277,7 +14285,7 @@
       <c r="M1" s="159"/>
       <c r="N1" s="184"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="100"/>
       <c r="B2" s="110"/>
       <c r="C2" s="110"/>
@@ -14303,7 +14311,7 @@
       <c r="M2" s="110"/>
       <c r="N2" s="162"/>
     </row>
-    <row r="3" spans="1:28" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="100"/>
       <c r="B3" s="107" t="s">
         <v>178</v>
@@ -14340,7 +14348,7 @@
       </c>
       <c r="N3" s="162"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="111"/>
       <c r="B4" s="110"/>
       <c r="C4" s="110"/>
@@ -14357,7 +14365,7 @@
       </c>
       <c r="L4" s="180" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>USD_YC6MRH_AM6LBASIS_Libor6M#0005</v>
+        <v>USD_YC6MRH_AM6LBASIS_Libor6M#0002</v>
       </c>
       <c r="M4" s="179" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -14365,7 +14373,7 @@
       </c>
       <c r="N4" s="162"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="111"/>
       <c r="B5" s="110"/>
       <c r="C5" s="110"/>
@@ -14381,7 +14389,7 @@
       <c r="M5" s="110"/>
       <c r="N5" s="162"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="100"/>
       <c r="B6" s="178" t="s">
         <v>169</v>
@@ -14421,7 +14429,7 @@
       </c>
       <c r="L6" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS1Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS1Y#0002</v>
       </c>
       <c r="M6" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -14429,7 +14437,7 @@
       </c>
       <c r="N6" s="162"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="100"/>
       <c r="B7" s="168" t="str">
         <f t="shared" ref="B7:B42" si="4">B6</f>
@@ -14475,7 +14483,7 @@
       </c>
       <c r="N7" s="162"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="100"/>
       <c r="B8" s="168" t="str">
         <f t="shared" si="4"/>
@@ -14521,7 +14529,7 @@
       </c>
       <c r="N8" s="162"/>
     </row>
-    <row r="9" spans="1:28" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="168" t="str">
         <f t="shared" si="4"/>
@@ -14567,7 +14575,7 @@
       </c>
       <c r="N9" s="162"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="100"/>
       <c r="B10" s="168" t="str">
         <f t="shared" si="4"/>
@@ -14608,7 +14616,7 @@
       </c>
       <c r="L10" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS2Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS2Y#0002</v>
       </c>
       <c r="M10" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -14624,12 +14632,12 @@
       <c r="R10" s="175" t="s">
         <v>172</v>
       </c>
-      <c r="AB10" s="108" t="str">
-        <f>_xll.ohObjectCallerAddress(J10)</f>
-        <v>'[USD_Market.xlsm]6M (2)'!R4C11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="T10" s="108" t="e">
+        <f>_xll.qlQuoteValue(J10)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="100"/>
       <c r="B11" s="168" t="str">
         <f t="shared" si="4"/>
@@ -14670,7 +14678,7 @@
       </c>
       <c r="L11" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS3Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS3Y#0002</v>
       </c>
       <c r="M11" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -14687,7 +14695,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="100"/>
       <c r="B12" s="168" t="str">
         <f t="shared" si="4"/>
@@ -14728,7 +14736,7 @@
       </c>
       <c r="L12" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS4Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS4Y#0002</v>
       </c>
       <c r="M12" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -14745,7 +14753,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="100"/>
       <c r="B13" s="168" t="str">
         <f t="shared" si="4"/>
@@ -14786,7 +14794,7 @@
       </c>
       <c r="L13" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS5Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS5Y#0002</v>
       </c>
       <c r="M13" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -14803,7 +14811,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="100"/>
       <c r="B14" s="168" t="str">
         <f t="shared" si="4"/>
@@ -14844,7 +14852,7 @@
       </c>
       <c r="L14" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS6Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS6Y#0002</v>
       </c>
       <c r="M14" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -14861,7 +14869,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="100"/>
       <c r="B15" s="168" t="str">
         <f t="shared" si="4"/>
@@ -14902,7 +14910,7 @@
       </c>
       <c r="L15" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS7Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS7Y#0002</v>
       </c>
       <c r="M15" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -14913,7 +14921,7 @@
       <c r="Q15" s="169"/>
       <c r="R15" s="169"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="100"/>
       <c r="B16" s="168" t="str">
         <f t="shared" si="4"/>
@@ -14954,7 +14962,7 @@
       </c>
       <c r="L16" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS8Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS8Y#0002</v>
       </c>
       <c r="M16" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -15003,7 +15011,7 @@
       </c>
       <c r="L17" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS9Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS9Y#0002</v>
       </c>
       <c r="M17" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -15052,7 +15060,7 @@
       </c>
       <c r="L18" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS10Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS10Y#0002</v>
       </c>
       <c r="M18" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -15101,7 +15109,7 @@
       </c>
       <c r="L19" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS11Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS11Y#0002</v>
       </c>
       <c r="M19" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -15150,7 +15158,7 @@
       </c>
       <c r="L20" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS12Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS12Y#0002</v>
       </c>
       <c r="M20" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -15199,7 +15207,7 @@
       </c>
       <c r="L21" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS13Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS13Y#0002</v>
       </c>
       <c r="M21" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -15248,7 +15256,7 @@
       </c>
       <c r="L22" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS14Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS14Y#0002</v>
       </c>
       <c r="M22" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -15297,7 +15305,7 @@
       </c>
       <c r="L23" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS15Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS15Y#0002</v>
       </c>
       <c r="M23" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -15346,7 +15354,7 @@
       </c>
       <c r="L24" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS16Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS16Y#0002</v>
       </c>
       <c r="M24" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -15395,7 +15403,7 @@
       </c>
       <c r="L25" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS17Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS17Y#0002</v>
       </c>
       <c r="M25" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -15444,7 +15452,7 @@
       </c>
       <c r="L26" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS18Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS18Y#0002</v>
       </c>
       <c r="M26" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -15493,7 +15501,7 @@
       </c>
       <c r="L27" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS19Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS19Y#0002</v>
       </c>
       <c r="M27" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -15542,7 +15550,7 @@
       </c>
       <c r="L28" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS20Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS20Y#0002</v>
       </c>
       <c r="M28" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -15591,7 +15599,7 @@
       </c>
       <c r="L29" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS21Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS21Y#0002</v>
       </c>
       <c r="M29" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -15640,7 +15648,7 @@
       </c>
       <c r="L30" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS22Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS22Y#0002</v>
       </c>
       <c r="M30" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -15689,7 +15697,7 @@
       </c>
       <c r="L31" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS23Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS23Y#0002</v>
       </c>
       <c r="M31" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -15738,7 +15746,7 @@
       </c>
       <c r="L32" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS24Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS24Y#0002</v>
       </c>
       <c r="M32" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -15787,7 +15795,7 @@
       </c>
       <c r="L33" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS25Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS25Y#0002</v>
       </c>
       <c r="M33" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -15836,7 +15844,7 @@
       </c>
       <c r="L34" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS26Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS26Y#0002</v>
       </c>
       <c r="M34" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -15885,7 +15893,7 @@
       </c>
       <c r="L35" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS27Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS27Y#0002</v>
       </c>
       <c r="M35" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -15934,7 +15942,7 @@
       </c>
       <c r="L36" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS28Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS28Y#0002</v>
       </c>
       <c r="M36" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -15983,7 +15991,7 @@
       </c>
       <c r="L37" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS29Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS29Y#0002</v>
       </c>
       <c r="M37" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -16032,7 +16040,7 @@
       </c>
       <c r="L38" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS30Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS30Y#0002</v>
       </c>
       <c r="M38" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -16081,7 +16089,7 @@
       </c>
       <c r="L39" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS35Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS35Y#0002</v>
       </c>
       <c r="M39" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -16130,7 +16138,7 @@
       </c>
       <c r="L40" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS40Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS40Y#0002</v>
       </c>
       <c r="M40" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -16179,7 +16187,7 @@
       </c>
       <c r="L41" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS50Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS50Y#0002</v>
       </c>
       <c r="M41" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -16228,7 +16236,7 @@
       </c>
       <c r="L42" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS60Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS60Y#0002</v>
       </c>
       <c r="M42" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/USD_YC6MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YC6MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="24540" windowHeight="7620" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="24540" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -2191,7 +2191,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2211,7 +2211,7 @@
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="186" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 15 2014 16:53:36</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="M5" s="127" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\erik\repos\quantlib\QuantLibXL\Data2\XML\</v>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
       </c>
       <c r="N5" s="124"/>
     </row>
@@ -2396,7 +2396,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="84">
-        <v>41655.710428240738</v>
+        <v>41666.693993055553</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="55"/>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="D14" s="81" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYC6M#0002</v>
+        <v>_USDYC6M#0000</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="55"/>
@@ -2629,7 +2629,7 @@
       <c r="B27" s="59"/>
       <c r="C27" s="63">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="D27" s="62" t="e">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="D29" s="57" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(Selected!I1)</f>
-        <v>qlPiecewiseYieldCurveData - 14th instrument (maturity: January 20th, 2016) has an invalid quote</v>
+        <v>qlPiecewiseYieldCurveData - 14th instrument (maturity: January 21st, 2016) has an invalid quote</v>
       </c>
       <c r="E29" s="56"/>
       <c r="F29" s="55"/>
@@ -2872,11 +2872,11 @@
       </c>
       <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -2911,11 +2911,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -2950,11 +2950,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="M6" s="1">
         <v>50</v>
@@ -2989,11 +2989,11 @@
       </c>
       <c r="K7" s="11">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L7" s="10">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="M7" s="1">
         <v>60</v>
@@ -3028,11 +3028,11 @@
       </c>
       <c r="K8" s="11">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L8" s="10">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="M8" s="1">
         <v>70</v>
@@ -3067,11 +3067,11 @@
       </c>
       <c r="K9" s="11">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L9" s="10">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41718</v>
+        <v>41719</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="K10" s="11">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L10" s="10">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
@@ -3133,11 +3133,11 @@
       </c>
       <c r="K11" s="11">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L11" s="10">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41779</v>
+        <v>41780</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
@@ -3166,11 +3166,11 @@
       </c>
       <c r="K12" s="11">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L12" s="10">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41810</v>
+        <v>41813</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="K13" s="11">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L13" s="10">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="F18" s="13">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
-        <v>3.5999999999999999E-3</v>
+        <v>3.4699999999999996E-3</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="12" t="b">
@@ -3379,11 +3379,11 @@
       </c>
       <c r="K18" s="11">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="L18" s="10">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>41871</v>
+        <v>41872</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="F19" s="13">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>3.7599999999999999E-3</v>
+        <v>3.5899999999999999E-3</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="12" t="b">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="K19" s="11">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="L19" s="10">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="F20" s="13">
         <f>_xll.qlRateHelperQuoteValue($E20,Trigger)</f>
-        <v>3.9000000000000003E-3</v>
+        <v>3.79E-3</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="12" t="b">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="F21" s="13">
         <f>_xll.qlRateHelperQuoteValue($E21,Trigger)</f>
-        <v>4.0400000000000002E-3</v>
+        <v>3.96E-3</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="12" t="b">
@@ -3493,11 +3493,11 @@
       </c>
       <c r="K21" s="11">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="L21" s="10">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>41963</v>
+        <v>41964</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F22" s="13">
         <f>_xll.qlRateHelperQuoteValue($E22,Trigger)</f>
-        <v>4.2000000000000006E-3</v>
+        <v>4.13E-3</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="12" t="b">
@@ -3531,11 +3531,11 @@
       </c>
       <c r="K22" s="11">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>41810</v>
+        <v>41813</v>
       </c>
       <c r="L22" s="10">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="F23" s="13">
         <f>_xll.qlRateHelperQuoteValue($E23,Trigger)</f>
-        <v>4.3800000000000002E-3</v>
+        <v>4.3899999999999998E-3</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="12" t="b">
@@ -3797,11 +3797,11 @@
       </c>
       <c r="K29" s="11">
         <f>_xll.qlRateHelperEarliestDate($E29,Trigger)</f>
-        <v>42024</v>
+        <v>42025</v>
       </c>
       <c r="L29" s="10">
         <f>_xll.qlRateHelperLatestDate($E29,Trigger)</f>
-        <v>42205</v>
+        <v>42206</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
@@ -4025,11 +4025,11 @@
       </c>
       <c r="K35" s="4">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>42205</v>
+        <v>42206</v>
       </c>
       <c r="L35" s="3">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>42389</v>
+        <v>42390</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8221,11 +8221,11 @@
       </c>
       <c r="K133" s="11">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L133" s="10">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>42024</v>
+        <v>42025</v>
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.2">
@@ -8389,11 +8389,11 @@
       </c>
       <c r="K137" s="11">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L137" s="10">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>42389</v>
+        <v>42390</v>
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.2">
@@ -8431,11 +8431,11 @@
       </c>
       <c r="K138" s="11">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L138" s="10">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>42755</v>
+        <v>42758</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.2">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="K139" s="11">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L139" s="10">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="K140" s="11">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L140" s="10">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
@@ -8557,11 +8557,11 @@
       </c>
       <c r="K141" s="11">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L141" s="10">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>43850</v>
+        <v>43851</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.2">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="K142" s="11">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L142" s="10">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>44216</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.2">
@@ -8641,11 +8641,11 @@
       </c>
       <c r="K143" s="11">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L143" s="10">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>44581</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.2">
@@ -8683,11 +8683,11 @@
       </c>
       <c r="K144" s="11">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L144" s="10">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>44946</v>
+        <v>44949</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8725,7 +8725,7 @@
       </c>
       <c r="K145" s="11">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L145" s="10">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
@@ -8767,11 +8767,11 @@
       </c>
       <c r="K146" s="11">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L146" s="10">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>45677</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8809,11 +8809,11 @@
       </c>
       <c r="K147" s="11">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L147" s="10">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>46042</v>
+        <v>46043</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8851,11 +8851,11 @@
       </c>
       <c r="K148" s="11">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L148" s="10">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>46407</v>
+        <v>46408</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8893,11 +8893,11 @@
       </c>
       <c r="K149" s="11">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L149" s="10">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>46772</v>
+        <v>46773</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="K150" s="11">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L150" s="10">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
@@ -8977,7 +8977,7 @@
       </c>
       <c r="K151" s="11">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L151" s="10">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
@@ -9019,11 +9019,11 @@
       </c>
       <c r="K152" s="11">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L152" s="10">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>47868</v>
+        <v>47869</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -9061,11 +9061,11 @@
       </c>
       <c r="K153" s="11">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L153" s="10">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>48233</v>
+        <v>48234</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -9103,11 +9103,11 @@
       </c>
       <c r="K154" s="11">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L154" s="10">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>48599</v>
+        <v>48600</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9145,11 +9145,11 @@
       </c>
       <c r="K155" s="11">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L155" s="10">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>48964</v>
+        <v>48967</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9187,7 +9187,7 @@
       </c>
       <c r="K156" s="11">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L156" s="10">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
@@ -9229,7 +9229,7 @@
       </c>
       <c r="K157" s="11">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L157" s="10">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
@@ -9271,11 +9271,11 @@
       </c>
       <c r="K158" s="11">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L158" s="10">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>50060</v>
+        <v>50061</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9313,11 +9313,11 @@
       </c>
       <c r="K159" s="11">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L159" s="10">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>50425</v>
+        <v>50426</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -9355,11 +9355,11 @@
       </c>
       <c r="K160" s="11">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L160" s="10">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>50790</v>
+        <v>50791</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9397,11 +9397,11 @@
       </c>
       <c r="K161" s="11">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L161" s="10">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>51155</v>
+        <v>51158</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="K162" s="11">
         <f>_xll.qlRateHelperEarliestDate($E162,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L162" s="10">
         <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
@@ -9481,11 +9481,11 @@
       </c>
       <c r="K163" s="11">
         <f>_xll.qlRateHelperEarliestDate($E163,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L163" s="10">
         <f>_xll.qlRateHelperLatestDate($E163,Trigger)</f>
-        <v>51886</v>
+        <v>51887</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.2">
@@ -9523,11 +9523,11 @@
       </c>
       <c r="K164" s="11">
         <f>_xll.qlRateHelperEarliestDate($E164,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L164" s="10">
         <f>_xll.qlRateHelperLatestDate($E164,Trigger)</f>
-        <v>52251</v>
+        <v>52252</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.2">
@@ -9565,11 +9565,11 @@
       </c>
       <c r="K165" s="11">
         <f>_xll.qlRateHelperEarliestDate($E165,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L165" s="10">
         <f>_xll.qlRateHelperLatestDate($E165,Trigger)</f>
-        <v>52616</v>
+        <v>52617</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.2">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="K166" s="11">
         <f>_xll.qlRateHelperEarliestDate($E166,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L166" s="10">
         <f>_xll.qlRateHelperLatestDate($E166,Trigger)</f>
-        <v>54443</v>
+        <v>54444</v>
       </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.2">
@@ -9649,11 +9649,11 @@
       </c>
       <c r="K167" s="11">
         <f>_xll.qlRateHelperEarliestDate($E167,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L167" s="10">
         <f>_xll.qlRateHelperLatestDate($E167,Trigger)</f>
-        <v>56269</v>
+        <v>56270</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.2">
@@ -9691,7 +9691,7 @@
       </c>
       <c r="K168" s="11">
         <f>_xll.qlRateHelperEarliestDate($E168,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L168" s="10">
         <f>_xll.qlRateHelperLatestDate($E168,Trigger)</f>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="K169" s="4">
         <f>_xll.qlRateHelperEarliestDate($E169,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="L169" s="3">
         <f>_xll.qlRateHelperLatestDate($E169,Trigger)</f>
@@ -9820,11 +9820,11 @@
       </c>
       <c r="G2" s="38">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H2" s="37">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="I2" s="32" t="e">
         <v>#NUM!</v>
@@ -9856,11 +9856,11 @@
       </c>
       <c r="G3" s="38">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H3" s="37">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="I3" s="32" t="e">
         <v>#NUM!</v>
@@ -9892,11 +9892,11 @@
       </c>
       <c r="G4" s="38">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H4" s="37">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="I4" s="32" t="e">
         <v>#NUM!</v>
@@ -9928,11 +9928,11 @@
       </c>
       <c r="G5" s="38">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H5" s="37">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="I5" s="32" t="e">
         <v>#NUM!</v>
@@ -9965,11 +9965,11 @@
       </c>
       <c r="G6" s="38">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H6" s="37">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="I6" s="32" t="e">
         <v>#NUM!</v>
@@ -9984,7 +9984,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_RateHelpersSelected#0002</v>
+        <v>USD_YC6MRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="41" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -10003,11 +10003,11 @@
       </c>
       <c r="G7" s="38">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H7" s="37">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="I7" s="32" t="e">
         <v>#NUM!</v>
@@ -10033,7 +10033,7 @@
       </c>
       <c r="G8" s="38">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H8" s="37">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
@@ -10063,11 +10063,11 @@
       </c>
       <c r="G9" s="38">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H9" s="37">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="I9" s="32" t="e">
         <v>#NUM!</v>
@@ -10093,11 +10093,11 @@
       </c>
       <c r="G10" s="38">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H10" s="37">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41810</v>
+        <v>41813</v>
       </c>
       <c r="I10" s="32" t="e">
         <v>#NUM!</v>
@@ -10123,7 +10123,7 @@
       </c>
       <c r="G11" s="38">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H11" s="37">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
@@ -10145,7 +10145,7 @@
       </c>
       <c r="E12" s="39">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>3.5999999999999999E-3</v>
+        <v>3.4699999999999996E-3</v>
       </c>
       <c r="F12" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -10153,11 +10153,11 @@
       </c>
       <c r="G12" s="38">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="H12" s="37">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41871</v>
+        <v>41872</v>
       </c>
       <c r="I12" s="32" t="e">
         <v>#NUM!</v>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="E13" s="39">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>3.9000000000000003E-3</v>
+        <v>3.79E-3</v>
       </c>
       <c r="F13" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="E14" s="39">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>4.3800000000000002E-3</v>
+        <v>4.3899999999999998E-3</v>
       </c>
       <c r="F14" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -10243,11 +10243,11 @@
       </c>
       <c r="G15" s="38">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H15" s="37">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42389</v>
+        <v>42390</v>
       </c>
       <c r="I15" s="32" t="e">
         <v>#NUM!</v>
@@ -10273,11 +10273,11 @@
       </c>
       <c r="G16" s="38">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H16" s="37">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42755</v>
+        <v>42758</v>
       </c>
       <c r="I16" s="32" t="e">
         <v>#NUM!</v>
@@ -10303,7 +10303,7 @@
       </c>
       <c r="G17" s="38">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H17" s="37">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
@@ -10333,7 +10333,7 @@
       </c>
       <c r="G18" s="38">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H18" s="37">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
@@ -10363,11 +10363,11 @@
       </c>
       <c r="G19" s="38">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H19" s="37">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>43850</v>
+        <v>43851</v>
       </c>
       <c r="I19" s="32" t="e">
         <v>#NUM!</v>
@@ -10393,11 +10393,11 @@
       </c>
       <c r="G20" s="38">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H20" s="37">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="I20" s="32" t="e">
         <v>#NUM!</v>
@@ -10423,11 +10423,11 @@
       </c>
       <c r="G21" s="38">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H21" s="37">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="I21" s="32" t="e">
         <v>#NUM!</v>
@@ -10453,11 +10453,11 @@
       </c>
       <c r="G22" s="38">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H22" s="37">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>44946</v>
+        <v>44949</v>
       </c>
       <c r="I22" s="32" t="e">
         <v>#NUM!</v>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="G23" s="38">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H23" s="37">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
@@ -10513,11 +10513,11 @@
       </c>
       <c r="G24" s="38">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H24" s="37">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="I24" s="32" t="e">
         <v>#NUM!</v>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="G25" s="38">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H25" s="37">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
@@ -10573,11 +10573,11 @@
       </c>
       <c r="G26" s="38">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H26" s="37">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>48964</v>
+        <v>48967</v>
       </c>
       <c r="I26" s="32" t="e">
         <v>#NUM!</v>
@@ -10603,11 +10603,11 @@
       </c>
       <c r="G27" s="38">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H27" s="37">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>50790</v>
+        <v>50791</v>
       </c>
       <c r="I27" s="32" t="e">
         <v>#NUM!</v>
@@ -10633,11 +10633,11 @@
       </c>
       <c r="G28" s="38">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H28" s="37">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>52616</v>
+        <v>52617</v>
       </c>
       <c r="I28" s="32" t="e">
         <v>#NUM!</v>
@@ -10663,11 +10663,11 @@
       </c>
       <c r="G29" s="38">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H29" s="37">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>54443</v>
+        <v>54444</v>
       </c>
       <c r="I29" s="32" t="e">
         <v>#NUM!</v>
@@ -10693,11 +10693,11 @@
       </c>
       <c r="G30" s="38">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H30" s="37">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>56269</v>
+        <v>56270</v>
       </c>
       <c r="I30" s="32" t="e">
         <v>#NUM!</v>
@@ -10723,7 +10723,7 @@
       </c>
       <c r="G31" s="38">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H31" s="37">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
@@ -13111,7 +13111,7 @@
       </c>
       <c r="F3" s="101" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_SND#0002</v>
+        <v>USD_YC6MRH_SND#0000</v>
       </c>
       <c r="G3" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="F4" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_SWD#0002</v>
+        <v>USD_YC6MRH_SWD#0000</v>
       </c>
       <c r="G4" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13165,7 +13165,7 @@
       </c>
       <c r="F5" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_2WD#0002</v>
+        <v>USD_YC6MRH_2WD#0000</v>
       </c>
       <c r="G5" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13192,7 +13192,7 @@
       </c>
       <c r="F6" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_3WD#0002</v>
+        <v>USD_YC6MRH_3WD#0000</v>
       </c>
       <c r="G6" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13219,7 +13219,7 @@
       </c>
       <c r="F7" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_1MD#0002</v>
+        <v>USD_YC6MRH_1MD#0000</v>
       </c>
       <c r="G7" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13246,7 +13246,7 @@
       </c>
       <c r="F8" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_2MD#0002</v>
+        <v>USD_YC6MRH_2MD#0000</v>
       </c>
       <c r="G8" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13273,7 +13273,7 @@
       </c>
       <c r="F9" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_3MD#0002</v>
+        <v>USD_YC6MRH_3MD#0000</v>
       </c>
       <c r="G9" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13300,7 +13300,7 @@
       </c>
       <c r="F10" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_4MD#0002</v>
+        <v>USD_YC6MRH_4MD#0000</v>
       </c>
       <c r="G10" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -13327,7 +13327,7 @@
       </c>
       <c r="F11" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_5MD#0002</v>
+        <v>USD_YC6MRH_5MD#0000</v>
       </c>
       <c r="G11" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -13354,7 +13354,7 @@
       </c>
       <c r="F12" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_6MD#0002</v>
+        <v>USD_YC6MRH_6MD#0000</v>
       </c>
       <c r="G12" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -13447,7 +13447,7 @@
       </c>
       <c r="J2" s="147" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
       <c r="K2" s="93"/>
     </row>
@@ -13484,7 +13484,7 @@
       </c>
       <c r="J3" s="147" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I3)</f>
-        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDT6F1_Quote'</v>
+        <v/>
       </c>
       <c r="K3" s="93"/>
     </row>
@@ -13521,7 +13521,7 @@
       </c>
       <c r="J4" s="143" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I4)</f>
-        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDTOM6F1_Quote'</v>
+        <v/>
       </c>
       <c r="K4" s="93"/>
     </row>
@@ -13555,7 +13555,7 @@
       </c>
       <c r="I5" s="139" t="str">
         <f>_xll.qlFraRateHelper(H5,G5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_1x7F#0002</v>
+        <v>USD_YC6MRH_1x7F#0000</v>
       </c>
       <c r="J5" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="I6" s="134" t="str">
         <f>_xll.qlFraRateHelper(H6,G6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_2x8F#0002</v>
+        <v>USD_YC6MRH_2x8F#0000</v>
       </c>
       <c r="J6" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13631,7 +13631,7 @@
       </c>
       <c r="I7" s="134" t="str">
         <f>_xll.qlFraRateHelper(H7,G7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_3x9F#0002</v>
+        <v>USD_YC6MRH_3x9F#0000</v>
       </c>
       <c r="J7" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -13669,7 +13669,7 @@
       </c>
       <c r="I8" s="134" t="str">
         <f>_xll.qlFraRateHelper(H8,G8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_4x10F#0002</v>
+        <v>USD_YC6MRH_4x10F#0000</v>
       </c>
       <c r="J8" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -13707,7 +13707,7 @@
       </c>
       <c r="I9" s="134" t="str">
         <f>_xll.qlFraRateHelper(H9,G9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_5x11F#0002</v>
+        <v>USD_YC6MRH_5x11F#0000</v>
       </c>
       <c r="J9" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -13745,7 +13745,7 @@
       </c>
       <c r="I10" s="134" t="str">
         <f>_xll.qlFraRateHelper(H10,G10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_6x12F#0002</v>
+        <v>USD_YC6MRH_6x12F#0000</v>
       </c>
       <c r="J10" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -13787,7 +13787,7 @@
       </c>
       <c r="J11" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I11)</f>
-        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD7x13F_Quote'</v>
+        <v/>
       </c>
       <c r="K11" s="93"/>
     </row>
@@ -13825,7 +13825,7 @@
       </c>
       <c r="J12" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I12)</f>
-        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD8x14F_Quote'</v>
+        <v/>
       </c>
       <c r="K12" s="93"/>
     </row>
@@ -13863,7 +13863,7 @@
       </c>
       <c r="J13" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I13)</f>
-        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD9x15F_Quote'</v>
+        <v/>
       </c>
       <c r="K13" s="93"/>
     </row>
@@ -13901,7 +13901,7 @@
       </c>
       <c r="J14" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I14)</f>
-        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD10x16F_Quote'</v>
+        <v/>
       </c>
       <c r="K14" s="93"/>
     </row>
@@ -13939,7 +13939,7 @@
       </c>
       <c r="J15" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I15)</f>
-        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD11x17F_Quote'</v>
+        <v/>
       </c>
       <c r="K15" s="93"/>
     </row>
@@ -13973,7 +13973,7 @@
       </c>
       <c r="I16" s="134" t="str">
         <f>_xll.qlFraRateHelper(H16,G16,B16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_12x18F#0002</v>
+        <v>USD_YC6MRH_12x18F#0000</v>
       </c>
       <c r="J16" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="J17" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I17)</f>
-        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD13x19F_Quote'</v>
+        <v/>
       </c>
       <c r="K17" s="93"/>
     </row>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="J18" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I18)</f>
-        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD14x20F_Quote'</v>
+        <v/>
       </c>
       <c r="K18" s="93"/>
     </row>
@@ -14091,7 +14091,7 @@
       </c>
       <c r="J19" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I19)</f>
-        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD15x21F_Quote'</v>
+        <v/>
       </c>
       <c r="K19" s="93"/>
     </row>
@@ -14129,7 +14129,7 @@
       </c>
       <c r="J20" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I20)</f>
-        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD16x22F_Quote'</v>
+        <v/>
       </c>
       <c r="K20" s="93"/>
     </row>
@@ -14167,7 +14167,7 @@
       </c>
       <c r="J21" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I21)</f>
-        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD17x23F_Quote'</v>
+        <v/>
       </c>
       <c r="K21" s="93"/>
     </row>
@@ -14201,7 +14201,7 @@
       </c>
       <c r="I22" s="134" t="str">
         <f>_xll.qlFraRateHelper(H22,G22,B22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_18x24F#0002</v>
+        <v>USD_YC6MRH_18x24F#0000</v>
       </c>
       <c r="J22" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -14240,7 +14240,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
@@ -14365,7 +14365,7 @@
       </c>
       <c r="L4" s="180" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>USD_YC6MRH_AM6LBASIS_Libor6M#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS_Libor6M#0000</v>
       </c>
       <c r="M4" s="179" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -14429,7 +14429,7 @@
       </c>
       <c r="L6" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS1Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS1Y#0000</v>
       </c>
       <c r="M6" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -14616,7 +14616,7 @@
       </c>
       <c r="L10" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS2Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS2Y#0000</v>
       </c>
       <c r="M10" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -14678,7 +14678,7 @@
       </c>
       <c r="L11" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS3Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS3Y#0000</v>
       </c>
       <c r="M11" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -14736,7 +14736,7 @@
       </c>
       <c r="L12" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS4Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS4Y#0000</v>
       </c>
       <c r="M12" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -14794,7 +14794,7 @@
       </c>
       <c r="L13" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS5Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS5Y#0000</v>
       </c>
       <c r="M13" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -14852,7 +14852,7 @@
       </c>
       <c r="L14" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS6Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS6Y#0000</v>
       </c>
       <c r="M14" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -14910,7 +14910,7 @@
       </c>
       <c r="L15" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS7Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS7Y#0000</v>
       </c>
       <c r="M15" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -14962,7 +14962,7 @@
       </c>
       <c r="L16" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS8Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS8Y#0000</v>
       </c>
       <c r="M16" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -15011,7 +15011,7 @@
       </c>
       <c r="L17" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS9Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS9Y#0000</v>
       </c>
       <c r="M17" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -15060,7 +15060,7 @@
       </c>
       <c r="L18" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS10Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS10Y#0000</v>
       </c>
       <c r="M18" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -15109,7 +15109,7 @@
       </c>
       <c r="L19" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS11Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS11Y#0000</v>
       </c>
       <c r="M19" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="L20" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS12Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS12Y#0000</v>
       </c>
       <c r="M20" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -15207,7 +15207,7 @@
       </c>
       <c r="L21" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS13Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS13Y#0000</v>
       </c>
       <c r="M21" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -15256,7 +15256,7 @@
       </c>
       <c r="L22" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS14Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS14Y#0000</v>
       </c>
       <c r="M22" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -15305,7 +15305,7 @@
       </c>
       <c r="L23" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS15Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS15Y#0000</v>
       </c>
       <c r="M23" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -15354,7 +15354,7 @@
       </c>
       <c r="L24" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS16Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS16Y#0000</v>
       </c>
       <c r="M24" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -15403,7 +15403,7 @@
       </c>
       <c r="L25" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS17Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS17Y#0000</v>
       </c>
       <c r="M25" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -15452,7 +15452,7 @@
       </c>
       <c r="L26" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS18Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS18Y#0000</v>
       </c>
       <c r="M26" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -15501,7 +15501,7 @@
       </c>
       <c r="L27" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS19Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS19Y#0000</v>
       </c>
       <c r="M27" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -15550,7 +15550,7 @@
       </c>
       <c r="L28" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS20Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS20Y#0000</v>
       </c>
       <c r="M28" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -15599,7 +15599,7 @@
       </c>
       <c r="L29" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS21Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS21Y#0000</v>
       </c>
       <c r="M29" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -15648,7 +15648,7 @@
       </c>
       <c r="L30" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS22Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS22Y#0000</v>
       </c>
       <c r="M30" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -15697,7 +15697,7 @@
       </c>
       <c r="L31" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS23Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS23Y#0000</v>
       </c>
       <c r="M31" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -15746,7 +15746,7 @@
       </c>
       <c r="L32" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS24Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS24Y#0000</v>
       </c>
       <c r="M32" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -15795,7 +15795,7 @@
       </c>
       <c r="L33" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS25Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS25Y#0000</v>
       </c>
       <c r="M33" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -15844,7 +15844,7 @@
       </c>
       <c r="L34" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS26Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS26Y#0000</v>
       </c>
       <c r="M34" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -15893,7 +15893,7 @@
       </c>
       <c r="L35" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS27Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS27Y#0000</v>
       </c>
       <c r="M35" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -15942,7 +15942,7 @@
       </c>
       <c r="L36" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS28Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS28Y#0000</v>
       </c>
       <c r="M36" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -15991,7 +15991,7 @@
       </c>
       <c r="L37" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS29Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS29Y#0000</v>
       </c>
       <c r="M37" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -16040,7 +16040,7 @@
       </c>
       <c r="L38" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS30Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS30Y#0000</v>
       </c>
       <c r="M38" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -16089,7 +16089,7 @@
       </c>
       <c r="L39" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS35Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS35Y#0000</v>
       </c>
       <c r="M39" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -16138,7 +16138,7 @@
       </c>
       <c r="L40" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS40Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS40Y#0000</v>
       </c>
       <c r="M40" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -16187,7 +16187,7 @@
       </c>
       <c r="L41" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS50Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS50Y#0000</v>
       </c>
       <c r="M41" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -16236,7 +16236,7 @@
       </c>
       <c r="L42" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS60Y#0002</v>
+        <v>USD_YC6MRH_AM6LBASIS60Y#0000</v>
       </c>
       <c r="M42" s="163" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/USD_YC6MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YC6MBootstrapping.xlsx
@@ -910,7 +910,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -968,6 +968,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1844,12 +1850,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="10" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1877,6 +1877,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2203,7 +2209,7 @@
     <col min="8" max="9" width="8" style="186"/>
     <col min="10" max="11" width="2.7109375" style="186" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" style="186" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35" style="186" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.42578125" style="186" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.7109375" style="186" customWidth="1"/>
     <col min="15" max="16384" width="8" style="186"/>
   </cols>
@@ -2211,23 +2217,23 @@
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="186" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Feb  7 2014 15:33:58</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="189" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="197"/>
-      <c r="K2" s="195" t="s">
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="191"/>
+      <c r="K2" s="189" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="198"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="192"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="59"/>
@@ -2250,10 +2256,10 @@
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="55"/>
-      <c r="H4" s="189" t="s">
+      <c r="H4" s="198" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="190"/>
+      <c r="I4" s="199"/>
       <c r="K4" s="126"/>
       <c r="L4" s="125" t="s">
         <v>166</v>
@@ -2273,10 +2279,10 @@
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="55"/>
-      <c r="H5" s="187" t="s">
+      <c r="H5" s="200" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="188" t="s">
+      <c r="I5" s="201" t="s">
         <v>111</v>
       </c>
       <c r="K5" s="126"/>
@@ -2285,7 +2291,7 @@
       </c>
       <c r="M5" s="127" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
+        <v>C:\Users\erik\Documents\repos\quantlib\QuantLibXL\Data2\XML\</v>
       </c>
       <c r="N5" s="124"/>
     </row>
@@ -2300,10 +2306,10 @@
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="55"/>
-      <c r="H6" s="187" t="s">
+      <c r="H6" s="200" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="188" t="s">
+      <c r="I6" s="201" t="s">
         <v>108</v>
       </c>
       <c r="K6" s="126"/>
@@ -2326,10 +2332,10 @@
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="55"/>
-      <c r="H7" s="187" t="s">
+      <c r="H7" s="200" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="188"/>
+      <c r="I7" s="201"/>
       <c r="K7" s="123"/>
       <c r="L7" s="122"/>
       <c r="M7" s="122"/>
@@ -2346,16 +2352,16 @@
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="55"/>
-      <c r="H8" s="191" t="s">
+      <c r="H8" s="202" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="192" t="s">
+      <c r="I8" s="203" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="193"/>
-      <c r="L8" s="193"/>
-      <c r="M8" s="193"/>
-      <c r="N8" s="193"/>
+      <c r="K8" s="187"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="187"/>
+      <c r="N8" s="187"/>
     </row>
     <row r="9" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="59"/>
@@ -2368,12 +2374,12 @@
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="55"/>
-      <c r="K9" s="195" t="s">
+      <c r="K9" s="189" t="s">
         <v>163</v>
       </c>
-      <c r="L9" s="196"/>
-      <c r="M9" s="196"/>
-      <c r="N9" s="198"/>
+      <c r="L9" s="190"/>
+      <c r="M9" s="190"/>
+      <c r="N9" s="192"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="59"/>
@@ -2396,7 +2402,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="84">
-        <v>41666.693993055553</v>
+        <v>41684.590717592589</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="55"/>
@@ -2472,7 +2478,7 @@
         <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
         <v/>
       </c>
-      <c r="E15" s="194" t="s">
+      <c r="E15" s="188" t="s">
         <v>189</v>
       </c>
       <c r="F15" s="55"/>
@@ -2629,7 +2635,7 @@
       <c r="B27" s="59"/>
       <c r="C27" s="63">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="D27" s="62" t="e">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2642,7 +2648,7 @@
       <c r="B28" s="59"/>
       <c r="C28" s="61">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>59922</v>
+        <v>59950</v>
       </c>
       <c r="D28" s="60" t="e">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
@@ -2658,7 +2664,7 @@
       </c>
       <c r="D29" s="57" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(Selected!I1)</f>
-        <v>qlPiecewiseYieldCurveData - 14th instrument (maturity: January 21st, 2016) has an invalid quote</v>
+        <v>qlPiecewiseYieldCurveData - 14th instrument (maturity: February 18th, 2016) has an invalid quote</v>
       </c>
       <c r="E29" s="56"/>
       <c r="F29" s="55"/>
@@ -2738,11 +2744,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="193" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="200"/>
-      <c r="D1" s="201"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="195"/>
       <c r="E1" s="31" t="s">
         <v>74</v>
       </c>
@@ -2872,11 +2878,11 @@
       </c>
       <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41661</v>
+        <v>41689</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -2911,11 +2917,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41667</v>
+        <v>41695</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -2950,11 +2956,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41674</v>
+        <v>41702</v>
       </c>
       <c r="M6" s="1">
         <v>50</v>
@@ -2989,11 +2995,11 @@
       </c>
       <c r="K7" s="11">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L7" s="10">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41681</v>
+        <v>41709</v>
       </c>
       <c r="M7" s="1">
         <v>60</v>
@@ -3028,11 +3034,11 @@
       </c>
       <c r="K8" s="11">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L8" s="10">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41691</v>
+        <v>41716</v>
       </c>
       <c r="M8" s="1">
         <v>70</v>
@@ -3067,11 +3073,11 @@
       </c>
       <c r="K9" s="11">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L9" s="10">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41719</v>
+        <v>41751</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -3100,11 +3106,11 @@
       </c>
       <c r="K10" s="11">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L10" s="10">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -3133,11 +3139,11 @@
       </c>
       <c r="K11" s="11">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L11" s="10">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
@@ -3166,11 +3172,11 @@
       </c>
       <c r="K12" s="11">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L12" s="10">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41813</v>
+        <v>41838</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
@@ -3199,11 +3205,11 @@
       </c>
       <c r="K13" s="11">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L13" s="10">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41841</v>
+        <v>41869</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
@@ -3379,11 +3385,11 @@
       </c>
       <c r="K18" s="11">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>41691</v>
+        <v>41716</v>
       </c>
       <c r="L18" s="10">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
@@ -3417,11 +3423,11 @@
       </c>
       <c r="K19" s="11">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41719</v>
+        <v>41751</v>
       </c>
       <c r="L19" s="10">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>41904</v>
+        <v>41934</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -3455,11 +3461,11 @@
       </c>
       <c r="K20" s="11">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
       <c r="L20" s="10">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>41934</v>
+        <v>41962</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -3493,11 +3499,11 @@
       </c>
       <c r="K21" s="11">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
       <c r="L21" s="10">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>41964</v>
+        <v>41991</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -3531,11 +3537,11 @@
       </c>
       <c r="K22" s="11">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>41813</v>
+        <v>41838</v>
       </c>
       <c r="L22" s="10">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>41996</v>
+        <v>42024</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -3569,11 +3575,11 @@
       </c>
       <c r="K23" s="11">
         <f>_xll.qlRateHelperEarliestDate($E23,Trigger)</f>
-        <v>41841</v>
+        <v>41869</v>
       </c>
       <c r="L23" s="10">
         <f>_xll.qlRateHelperLatestDate($E23,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -3797,11 +3803,11 @@
       </c>
       <c r="K29" s="11">
         <f>_xll.qlRateHelperEarliestDate($E29,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="L29" s="10">
         <f>_xll.qlRateHelperLatestDate($E29,Trigger)</f>
-        <v>42206</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
@@ -4025,11 +4031,11 @@
       </c>
       <c r="K35" s="4">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>42206</v>
+        <v>42234</v>
       </c>
       <c r="L35" s="3">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>42390</v>
+        <v>42418</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8221,11 +8227,11 @@
       </c>
       <c r="K133" s="11">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L133" s="10">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.2">
@@ -8389,11 +8395,11 @@
       </c>
       <c r="K137" s="11">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L137" s="10">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>42390</v>
+        <v>42418</v>
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.2">
@@ -8431,11 +8437,11 @@
       </c>
       <c r="K138" s="11">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L138" s="10">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>42758</v>
+        <v>42786</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.2">
@@ -8473,11 +8479,11 @@
       </c>
       <c r="K139" s="11">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L139" s="10">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>43122</v>
+        <v>43150</v>
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.2">
@@ -8515,11 +8521,11 @@
       </c>
       <c r="K140" s="11">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L140" s="10">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>43486</v>
+        <v>43514</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.2">
@@ -8557,11 +8563,11 @@
       </c>
       <c r="K141" s="11">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L141" s="10">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>43851</v>
+        <v>43879</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.2">
@@ -8599,11 +8605,11 @@
       </c>
       <c r="K142" s="11">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L142" s="10">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>44217</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.2">
@@ -8641,11 +8647,11 @@
       </c>
       <c r="K143" s="11">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L143" s="10">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>44582</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.2">
@@ -8683,11 +8689,11 @@
       </c>
       <c r="K144" s="11">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L144" s="10">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>44949</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8725,11 +8731,11 @@
       </c>
       <c r="K145" s="11">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L145" s="10">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>45313</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8767,11 +8773,11 @@
       </c>
       <c r="K146" s="11">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L146" s="10">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>45678</v>
+        <v>45706</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8809,11 +8815,11 @@
       </c>
       <c r="K147" s="11">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L147" s="10">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>46043</v>
+        <v>46071</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8851,11 +8857,11 @@
       </c>
       <c r="K148" s="11">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L148" s="10">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>46408</v>
+        <v>46436</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8893,11 +8899,11 @@
       </c>
       <c r="K149" s="11">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L149" s="10">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>46773</v>
+        <v>46801</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8935,11 +8941,11 @@
       </c>
       <c r="K150" s="11">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L150" s="10">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>47140</v>
+        <v>47168</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -8977,11 +8983,11 @@
       </c>
       <c r="K151" s="11">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L151" s="10">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>47504</v>
+        <v>47532</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -9019,11 +9025,11 @@
       </c>
       <c r="K152" s="11">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L152" s="10">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>47869</v>
+        <v>47897</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -9061,11 +9067,11 @@
       </c>
       <c r="K153" s="11">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L153" s="10">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>48234</v>
+        <v>48262</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -9103,11 +9109,11 @@
       </c>
       <c r="K154" s="11">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L154" s="10">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>48600</v>
+        <v>48628</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9145,11 +9151,11 @@
       </c>
       <c r="K155" s="11">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L155" s="10">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>48967</v>
+        <v>48995</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9187,11 +9193,11 @@
       </c>
       <c r="K156" s="11">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L156" s="10">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>49331</v>
+        <v>49359</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9229,11 +9235,11 @@
       </c>
       <c r="K157" s="11">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L157" s="10">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>49695</v>
+        <v>49723</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
@@ -9271,11 +9277,11 @@
       </c>
       <c r="K158" s="11">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L158" s="10">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>50061</v>
+        <v>50089</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9313,11 +9319,11 @@
       </c>
       <c r="K159" s="11">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L159" s="10">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>50426</v>
+        <v>50454</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -9355,11 +9361,11 @@
       </c>
       <c r="K160" s="11">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L160" s="10">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>50791</v>
+        <v>50819</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9397,11 +9403,11 @@
       </c>
       <c r="K161" s="11">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L161" s="10">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>51158</v>
+        <v>51186</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
@@ -9439,11 +9445,11 @@
       </c>
       <c r="K162" s="11">
         <f>_xll.qlRateHelperEarliestDate($E162,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L162" s="10">
         <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
-        <v>51522</v>
+        <v>51550</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.2">
@@ -9481,11 +9487,11 @@
       </c>
       <c r="K163" s="11">
         <f>_xll.qlRateHelperEarliestDate($E163,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L163" s="10">
         <f>_xll.qlRateHelperLatestDate($E163,Trigger)</f>
-        <v>51887</v>
+        <v>51915</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.2">
@@ -9523,11 +9529,11 @@
       </c>
       <c r="K164" s="11">
         <f>_xll.qlRateHelperEarliestDate($E164,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L164" s="10">
         <f>_xll.qlRateHelperLatestDate($E164,Trigger)</f>
-        <v>52252</v>
+        <v>52280</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.2">
@@ -9565,11 +9571,11 @@
       </c>
       <c r="K165" s="11">
         <f>_xll.qlRateHelperEarliestDate($E165,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L165" s="10">
         <f>_xll.qlRateHelperLatestDate($E165,Trigger)</f>
-        <v>52617</v>
+        <v>52645</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.2">
@@ -9607,11 +9613,11 @@
       </c>
       <c r="K166" s="11">
         <f>_xll.qlRateHelperEarliestDate($E166,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L166" s="10">
         <f>_xll.qlRateHelperLatestDate($E166,Trigger)</f>
-        <v>54444</v>
+        <v>54472</v>
       </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.2">
@@ -9649,11 +9655,11 @@
       </c>
       <c r="K167" s="11">
         <f>_xll.qlRateHelperEarliestDate($E167,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L167" s="10">
         <f>_xll.qlRateHelperLatestDate($E167,Trigger)</f>
-        <v>56270</v>
+        <v>56298</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.2">
@@ -9691,11 +9697,11 @@
       </c>
       <c r="K168" s="11">
         <f>_xll.qlRateHelperEarliestDate($E168,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L168" s="10">
         <f>_xll.qlRateHelperLatestDate($E168,Trigger)</f>
-        <v>59922</v>
+        <v>59950</v>
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.2">
@@ -9733,11 +9739,11 @@
       </c>
       <c r="K169" s="4">
         <f>_xll.qlRateHelperEarliestDate($E169,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L169" s="3">
         <f>_xll.qlRateHelperLatestDate($E169,Trigger)</f>
-        <v>63576</v>
+        <v>63604</v>
       </c>
     </row>
   </sheetData>
@@ -9777,10 +9783,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="196" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="203"/>
+      <c r="B1" s="197"/>
       <c r="D1" s="51" t="s">
         <v>83</v>
       </c>
@@ -9820,11 +9826,11 @@
       </c>
       <c r="G2" s="38">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H2" s="37">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41661</v>
+        <v>41689</v>
       </c>
       <c r="I2" s="32" t="e">
         <v>#NUM!</v>
@@ -9856,11 +9862,11 @@
       </c>
       <c r="G3" s="38">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H3" s="37">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41667</v>
+        <v>41695</v>
       </c>
       <c r="I3" s="32" t="e">
         <v>#NUM!</v>
@@ -9892,11 +9898,11 @@
       </c>
       <c r="G4" s="38">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H4" s="37">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41674</v>
+        <v>41702</v>
       </c>
       <c r="I4" s="32" t="e">
         <v>#NUM!</v>
@@ -9928,11 +9934,11 @@
       </c>
       <c r="G5" s="38">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H5" s="37">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41681</v>
+        <v>41709</v>
       </c>
       <c r="I5" s="32" t="e">
         <v>#NUM!</v>
@@ -9965,11 +9971,11 @@
       </c>
       <c r="G6" s="38">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H6" s="37">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41691</v>
+        <v>41716</v>
       </c>
       <c r="I6" s="32" t="e">
         <v>#NUM!</v>
@@ -10003,11 +10009,11 @@
       </c>
       <c r="G7" s="38">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H7" s="37">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41719</v>
+        <v>41751</v>
       </c>
       <c r="I7" s="32" t="e">
         <v>#NUM!</v>
@@ -10033,11 +10039,11 @@
       </c>
       <c r="G8" s="38">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H8" s="37">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
       <c r="I8" s="32" t="e">
         <v>#NUM!</v>
@@ -10063,11 +10069,11 @@
       </c>
       <c r="G9" s="38">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H9" s="37">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
       <c r="I9" s="32" t="e">
         <v>#NUM!</v>
@@ -10093,11 +10099,11 @@
       </c>
       <c r="G10" s="38">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H10" s="37">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41813</v>
+        <v>41838</v>
       </c>
       <c r="I10" s="32" t="e">
         <v>#NUM!</v>
@@ -10123,11 +10129,11 @@
       </c>
       <c r="G11" s="38">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H11" s="37">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41841</v>
+        <v>41869</v>
       </c>
       <c r="I11" s="32" t="e">
         <v>#NUM!</v>
@@ -10153,11 +10159,11 @@
       </c>
       <c r="G12" s="38">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41691</v>
+        <v>41716</v>
       </c>
       <c r="H12" s="37">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
       <c r="I12" s="32" t="e">
         <v>#NUM!</v>
@@ -10183,11 +10189,11 @@
       </c>
       <c r="G13" s="38">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
       <c r="H13" s="37">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>41934</v>
+        <v>41962</v>
       </c>
       <c r="I13" s="32" t="e">
         <v>#NUM!</v>
@@ -10213,11 +10219,11 @@
       </c>
       <c r="G14" s="38">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41841</v>
+        <v>41869</v>
       </c>
       <c r="H14" s="37">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="I14" s="32" t="e">
         <v>#NUM!</v>
@@ -10243,11 +10249,11 @@
       </c>
       <c r="G15" s="38">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H15" s="37">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42390</v>
+        <v>42418</v>
       </c>
       <c r="I15" s="32" t="e">
         <v>#NUM!</v>
@@ -10273,11 +10279,11 @@
       </c>
       <c r="G16" s="38">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H16" s="37">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42758</v>
+        <v>42786</v>
       </c>
       <c r="I16" s="32" t="e">
         <v>#NUM!</v>
@@ -10303,11 +10309,11 @@
       </c>
       <c r="G17" s="38">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H17" s="37">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43122</v>
+        <v>43150</v>
       </c>
       <c r="I17" s="32" t="e">
         <v>#NUM!</v>
@@ -10333,11 +10339,11 @@
       </c>
       <c r="G18" s="38">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H18" s="37">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>43486</v>
+        <v>43514</v>
       </c>
       <c r="I18" s="32" t="e">
         <v>#NUM!</v>
@@ -10363,11 +10369,11 @@
       </c>
       <c r="G19" s="38">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H19" s="37">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>43851</v>
+        <v>43879</v>
       </c>
       <c r="I19" s="32" t="e">
         <v>#NUM!</v>
@@ -10393,11 +10399,11 @@
       </c>
       <c r="G20" s="38">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H20" s="37">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44217</v>
+        <v>44245</v>
       </c>
       <c r="I20" s="32" t="e">
         <v>#NUM!</v>
@@ -10423,11 +10429,11 @@
       </c>
       <c r="G21" s="38">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H21" s="37">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>44582</v>
+        <v>44610</v>
       </c>
       <c r="I21" s="32" t="e">
         <v>#NUM!</v>
@@ -10453,11 +10459,11 @@
       </c>
       <c r="G22" s="38">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H22" s="37">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>44949</v>
+        <v>44977</v>
       </c>
       <c r="I22" s="32" t="e">
         <v>#NUM!</v>
@@ -10483,11 +10489,11 @@
       </c>
       <c r="G23" s="38">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H23" s="37">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>45313</v>
+        <v>45341</v>
       </c>
       <c r="I23" s="32" t="e">
         <v>#NUM!</v>
@@ -10513,11 +10519,11 @@
       </c>
       <c r="G24" s="38">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H24" s="37">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>46043</v>
+        <v>46071</v>
       </c>
       <c r="I24" s="32" t="e">
         <v>#NUM!</v>
@@ -10543,11 +10549,11 @@
       </c>
       <c r="G25" s="38">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H25" s="37">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>47140</v>
+        <v>47168</v>
       </c>
       <c r="I25" s="32" t="e">
         <v>#NUM!</v>
@@ -10573,11 +10579,11 @@
       </c>
       <c r="G26" s="38">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H26" s="37">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>48967</v>
+        <v>48995</v>
       </c>
       <c r="I26" s="32" t="e">
         <v>#NUM!</v>
@@ -10603,11 +10609,11 @@
       </c>
       <c r="G27" s="38">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H27" s="37">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>50791</v>
+        <v>50819</v>
       </c>
       <c r="I27" s="32" t="e">
         <v>#NUM!</v>
@@ -10633,11 +10639,11 @@
       </c>
       <c r="G28" s="38">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H28" s="37">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>52617</v>
+        <v>52645</v>
       </c>
       <c r="I28" s="32" t="e">
         <v>#NUM!</v>
@@ -10663,11 +10669,11 @@
       </c>
       <c r="G29" s="38">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H29" s="37">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>54444</v>
+        <v>54472</v>
       </c>
       <c r="I29" s="32" t="e">
         <v>#NUM!</v>
@@ -10693,11 +10699,11 @@
       </c>
       <c r="G30" s="38">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H30" s="37">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>56270</v>
+        <v>56298</v>
       </c>
       <c r="I30" s="32" t="e">
         <v>#NUM!</v>
@@ -10723,11 +10729,11 @@
       </c>
       <c r="G31" s="38">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H31" s="37">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>59922</v>
+        <v>59950</v>
       </c>
       <c r="I31" s="32" t="e">
         <v>#NUM!</v>
@@ -13447,7 +13453,7 @@
       </c>
       <c r="J2" s="147" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
       </c>
       <c r="K2" s="93"/>
     </row>
@@ -13484,7 +13490,7 @@
       </c>
       <c r="J3" s="147" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I3)</f>
-        <v/>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDT6F1_Quote'</v>
       </c>
       <c r="K3" s="93"/>
     </row>
@@ -13521,7 +13527,7 @@
       </c>
       <c r="J4" s="143" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I4)</f>
-        <v/>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDTOM6F1_Quote'</v>
       </c>
       <c r="K4" s="93"/>
     </row>
@@ -13787,7 +13793,7 @@
       </c>
       <c r="J11" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I11)</f>
-        <v/>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD7x13F_Quote'</v>
       </c>
       <c r="K11" s="93"/>
     </row>
@@ -13825,7 +13831,7 @@
       </c>
       <c r="J12" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I12)</f>
-        <v/>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD8x14F_Quote'</v>
       </c>
       <c r="K12" s="93"/>
     </row>
@@ -13863,7 +13869,7 @@
       </c>
       <c r="J13" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I13)</f>
-        <v/>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD9x15F_Quote'</v>
       </c>
       <c r="K13" s="93"/>
     </row>
@@ -13901,7 +13907,7 @@
       </c>
       <c r="J14" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I14)</f>
-        <v/>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD10x16F_Quote'</v>
       </c>
       <c r="K14" s="93"/>
     </row>
@@ -13939,7 +13945,7 @@
       </c>
       <c r="J15" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I15)</f>
-        <v/>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD11x17F_Quote'</v>
       </c>
       <c r="K15" s="93"/>
     </row>
@@ -14015,7 +14021,7 @@
       </c>
       <c r="J17" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I17)</f>
-        <v/>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD13x19F_Quote'</v>
       </c>
       <c r="K17" s="93"/>
     </row>
@@ -14053,7 +14059,7 @@
       </c>
       <c r="J18" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I18)</f>
-        <v/>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD14x20F_Quote'</v>
       </c>
       <c r="K18" s="93"/>
     </row>
@@ -14091,7 +14097,7 @@
       </c>
       <c r="J19" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I19)</f>
-        <v/>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD15x21F_Quote'</v>
       </c>
       <c r="K19" s="93"/>
     </row>
@@ -14129,7 +14135,7 @@
       </c>
       <c r="J20" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I20)</f>
-        <v/>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD16x22F_Quote'</v>
       </c>
       <c r="K20" s="93"/>
     </row>
@@ -14167,7 +14173,7 @@
       </c>
       <c r="J21" s="133" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I21)</f>
-        <v/>
+        <v>qlFraRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USD17x23F_Quote'</v>
       </c>
       <c r="K21" s="93"/>
     </row>

--- a/QuantLibXL/Data2/XLS/USD_YC6MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YC6MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15300" windowHeight="7995" tabRatio="694"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15300" windowHeight="7695" tabRatio="694" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="147">
   <si>
     <t>60Y</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>label</t>
+  </si>
+  <si>
+    <t>Ibor Index</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1318,7 @@
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1687,6 +1690,53 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="19" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="19" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="19" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="19" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1711,50 +1761,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2070,8 +2076,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2092,23 +2098,23 @@
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="157" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 18 2014 11:20:01</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 29 2014 14:47:17</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="171"/>
-      <c r="K2" s="169" t="s">
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="194"/>
+      <c r="K2" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="172"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="195"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="38"/>
@@ -2246,12 +2252,12 @@
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="35"/>
-      <c r="K9" s="169" t="s">
+      <c r="K9" s="192" t="s">
         <v>119</v>
       </c>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="172"/>
+      <c r="L9" s="193"/>
+      <c r="M9" s="193"/>
+      <c r="N9" s="195"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="38"/>
@@ -2326,7 +2332,7 @@
       </c>
       <c r="D14" s="60" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYC6M#0006</v>
+        <v>_USDYC6M#0001</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="35"/>
@@ -2505,7 +2511,7 @@
       <c r="B27" s="38"/>
       <c r="C27" s="42">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="D27" s="41">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2518,11 +2524,11 @@
       <c r="B28" s="38"/>
       <c r="C28" s="40">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>60022</v>
+        <v>60029</v>
       </c>
       <c r="D28" s="39">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.16542362258094925</v>
+        <v>0.16687027512719005</v>
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="35"/>
@@ -2627,11 +2633,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="175"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="198"/>
       <c r="E1" s="31" t="s">
         <v>65</v>
       </c>
@@ -2747,7 +2753,7 @@
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>3.2750000000000001E-3</v>
+        <v>3.3960000000000001E-3</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12" t="b">
@@ -2761,11 +2767,11 @@
       </c>
       <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41766</v>
+        <v>41773</v>
       </c>
       <c r="M4" s="1">
         <v>40</v>
@@ -2786,7 +2792,7 @@
       </c>
       <c r="F5" s="13">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>3.176E-3</v>
+        <v>3.3310000000000002E-3</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12" t="b">
@@ -2800,11 +2806,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41789</v>
+        <v>41799</v>
       </c>
       <c r="M5" s="1">
         <v>70</v>
@@ -2825,7 +2831,7 @@
       </c>
       <c r="F6" s="13">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>3.166E-3</v>
+        <v>3.29E-3</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12" t="b">
@@ -2839,11 +2845,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41820</v>
+        <v>41827</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -2858,7 +2864,7 @@
       </c>
       <c r="F7" s="13">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>3.166E-3</v>
+        <v>3.2439999999999999E-3</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="12" t="b">
@@ -2872,11 +2878,11 @@
       </c>
       <c r="K7" s="11">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L7" s="10">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41851</v>
+        <v>41858</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -2891,7 +2897,7 @@
       </c>
       <c r="F8" s="13">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>3.2299999999999998E-3</v>
+        <v>3.2160000000000001E-3</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="12" t="b">
@@ -2905,11 +2911,11 @@
       </c>
       <c r="K8" s="11">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L8" s="10">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41943</v>
+        <v>41950</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -3038,7 +3044,7 @@
       </c>
       <c r="F12" s="13">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
-        <v>3.2699999999999995E-3</v>
+        <v>3.2199999999999993E-3</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="12" t="b">
@@ -3052,11 +3058,11 @@
       </c>
       <c r="K12" s="11">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41789</v>
+        <v>41799</v>
       </c>
       <c r="L12" s="10">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41971</v>
+        <v>41982</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
@@ -3076,11 +3082,11 @@
       </c>
       <c r="F13" s="13">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
-        <v>3.3199999999999996E-3</v>
+        <v>3.2599999999999994E-3</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="12">
         <v>20</v>
@@ -3090,11 +3096,11 @@
       </c>
       <c r="K13" s="11">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41820</v>
+        <v>41827</v>
       </c>
       <c r="L13" s="10">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>42004</v>
+        <v>42011</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
@@ -3114,7 +3120,7 @@
       </c>
       <c r="F14" s="13">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
-        <v>3.3899999999999998E-3</v>
+        <v>3.3199999999999996E-3</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="12" t="b">
@@ -3128,11 +3134,11 @@
       </c>
       <c r="K14" s="11">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41851</v>
+        <v>41858</v>
       </c>
       <c r="L14" s="10">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>42034</v>
+        <v>42044</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
@@ -3152,7 +3158,7 @@
       </c>
       <c r="F15" s="13">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
-        <v>3.4799999999999996E-3</v>
+        <v>3.4299999999999999E-3</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="12" t="b">
@@ -3166,11 +3172,11 @@
       </c>
       <c r="K15" s="11">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>41880</v>
+        <v>41890</v>
       </c>
       <c r="L15" s="10">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>42062</v>
+        <v>42072</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
@@ -3190,7 +3196,7 @@
       </c>
       <c r="F16" s="13">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>3.62E-3</v>
+        <v>3.5799999999999998E-3</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="12" t="b">
@@ -3204,11 +3210,11 @@
       </c>
       <c r="K16" s="11">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="L16" s="10">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>42094</v>
+        <v>42101</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3228,7 +3234,7 @@
       </c>
       <c r="F17" s="13">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
-        <v>3.8E-3</v>
+        <v>3.7799999999999999E-3</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="12" t="b">
@@ -3242,11 +3248,11 @@
       </c>
       <c r="K17" s="11">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>41943</v>
+        <v>41950</v>
       </c>
       <c r="L17" s="10">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>42124</v>
+        <v>42131</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -3280,11 +3286,11 @@
       </c>
       <c r="K18" s="11">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>42124</v>
+        <v>42131</v>
       </c>
       <c r="L18" s="10">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>42307</v>
+        <v>42317</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -3318,11 +3324,11 @@
       </c>
       <c r="K19" s="4">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>42307</v>
+        <v>42317</v>
       </c>
       <c r="L19" s="3">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42489</v>
+        <v>42499</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7497,7 +7503,7 @@
       </c>
       <c r="F117" s="13">
         <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
-        <v>3.5181555504846724E-3</v>
+        <v>3.4996780522336107E-3</v>
       </c>
       <c r="G117" s="13">
         <f>_xll.qlSwapRateHelperSpread($E117,Trigger)</f>
@@ -7514,11 +7520,11 @@
       </c>
       <c r="K117" s="11">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L117" s="10">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>42124</v>
+        <v>42131</v>
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.2">
@@ -7665,7 +7671,7 @@
       </c>
       <c r="F121" s="13">
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
-        <v>6.2684064029289721E-3</v>
+        <v>6.2747361800808438E-3</v>
       </c>
       <c r="G121" s="13">
         <f>_xll.qlSwapRateHelperSpread($E121,Trigger)</f>
@@ -7682,11 +7688,11 @@
       </c>
       <c r="K121" s="11">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L121" s="10">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>42489</v>
+        <v>42499</v>
       </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.2">
@@ -7707,7 +7713,7 @@
       </c>
       <c r="F122" s="13">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
-        <v>1.0745105038998762E-2</v>
+        <v>1.0613243752659226E-2</v>
       </c>
       <c r="G122" s="13">
         <f>_xll.qlSwapRateHelperSpread($E122,Trigger)</f>
@@ -7724,11 +7730,11 @@
       </c>
       <c r="K122" s="11">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L122" s="10">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>42853</v>
+        <v>42863</v>
       </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.2">
@@ -7749,7 +7755,7 @@
       </c>
       <c r="F123" s="13">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
-        <v>1.5184330870153525E-2</v>
+        <v>1.4794610454705709E-2</v>
       </c>
       <c r="G123" s="13">
         <f>_xll.qlSwapRateHelperSpread($E123,Trigger)</f>
@@ -7766,11 +7772,11 @@
       </c>
       <c r="K123" s="11">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L123" s="10">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>43220</v>
+        <v>43228</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.2">
@@ -7791,7 +7797,7 @@
       </c>
       <c r="F124" s="13">
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
-        <v>1.8835475497485689E-2</v>
+        <v>1.8305761003297498E-2</v>
       </c>
       <c r="G124" s="13">
         <f>_xll.qlSwapRateHelperSpread($E124,Trigger)</f>
@@ -7808,11 +7814,11 @@
       </c>
       <c r="K124" s="11">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L124" s="10">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>43585</v>
+        <v>43592</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.2">
@@ -7833,7 +7839,7 @@
       </c>
       <c r="F125" s="13">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
-        <v>2.1736454974116855E-2</v>
+        <v>2.1186812438221476E-2</v>
       </c>
       <c r="G125" s="13">
         <f>_xll.qlSwapRateHelperSpread($E125,Trigger)</f>
@@ -7850,11 +7856,11 @@
       </c>
       <c r="K125" s="11">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L125" s="10">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>43951</v>
+        <v>43958</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.2">
@@ -7875,7 +7881,7 @@
       </c>
       <c r="F126" s="13">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
-        <v>2.4037415831686601E-2</v>
+        <v>2.3537708839040911E-2</v>
       </c>
       <c r="G126" s="13">
         <f>_xll.qlSwapRateHelperSpread($E126,Trigger)</f>
@@ -7892,11 +7898,11 @@
       </c>
       <c r="K126" s="11">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L126" s="10">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>44316</v>
+        <v>44323</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.2">
@@ -7917,7 +7923,7 @@
       </c>
       <c r="F127" s="13">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
-        <v>2.583773077790465E-2</v>
+        <v>2.5438483006057507E-2</v>
       </c>
       <c r="G127" s="13">
         <f>_xll.qlSwapRateHelperSpread($E127,Trigger)</f>
@@ -7934,11 +7940,11 @@
       </c>
       <c r="K127" s="11">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L127" s="10">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>44680</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.2">
@@ -7959,7 +7965,7 @@
       </c>
       <c r="F128" s="13">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
-        <v>2.7340836092050836E-2</v>
+        <v>2.6979198810427259E-2</v>
       </c>
       <c r="G128" s="13">
         <f>_xll.qlSwapRateHelperSpread($E128,Trigger)</f>
@@ -7976,11 +7982,11 @@
       </c>
       <c r="K128" s="11">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L128" s="10">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>45044</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.2">
@@ -8001,7 +8007,7 @@
       </c>
       <c r="F129" s="13">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
-        <v>2.8629410516258804E-2</v>
+        <v>2.8249732506665421E-2</v>
       </c>
       <c r="G129" s="13">
         <f>_xll.qlSwapRateHelperSpread($E129,Trigger)</f>
@@ -8018,11 +8024,11 @@
       </c>
       <c r="K129" s="11">
         <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L129" s="10">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>45412</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.2">
@@ -8043,7 +8049,7 @@
       </c>
       <c r="F130" s="13">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
-        <v>2.9714745330734989E-2</v>
+        <v>2.9349134286989945E-2</v>
       </c>
       <c r="G130" s="13">
         <f>_xll.qlSwapRateHelperSpread($E130,Trigger)</f>
@@ -8060,11 +8066,11 @@
       </c>
       <c r="K130" s="11">
         <f>_xll.qlRateHelperEarliestDate($E130,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L130" s="10">
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
-        <v>45777</v>
+        <v>45784</v>
       </c>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.2">
@@ -8085,7 +8091,7 @@
       </c>
       <c r="F131" s="13">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
-        <v>3.0640310570962857E-2</v>
+        <v>3.0290627208507091E-2</v>
       </c>
       <c r="G131" s="13">
         <f>_xll.qlSwapRateHelperSpread($E131,Trigger)</f>
@@ -8102,11 +8108,11 @@
       </c>
       <c r="K131" s="11">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L131" s="10">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>46142</v>
+        <v>46149</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.2">
@@ -8127,7 +8133,7 @@
       </c>
       <c r="F132" s="13">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
-        <v>3.1403090672670872E-2</v>
+        <v>3.1073365321440942E-2</v>
       </c>
       <c r="G132" s="13">
         <f>_xll.qlSwapRateHelperSpread($E132,Trigger)</f>
@@ -8144,11 +8150,11 @@
       </c>
       <c r="K132" s="11">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L132" s="10">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>46507</v>
+        <v>46514</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.2">
@@ -8169,7 +8175,7 @@
       </c>
       <c r="F133" s="13">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
-        <v>3.2013073808261426E-2</v>
+        <v>3.1727417616574861E-2</v>
       </c>
       <c r="G133" s="13">
         <f>_xll.qlSwapRateHelperSpread($E133,Trigger)</f>
@@ -8186,11 +8192,11 @@
       </c>
       <c r="K133" s="11">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L133" s="10">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>46871</v>
+        <v>46881</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.2">
@@ -8211,7 +8217,7 @@
       </c>
       <c r="F134" s="13">
         <f>_xll.qlRateHelperQuoteValue($E134,Trigger)</f>
-        <v>3.2561272919857852E-2</v>
+        <v>3.2271464080777863E-2</v>
       </c>
       <c r="G134" s="13">
         <f>_xll.qlSwapRateHelperSpread($E134,Trigger)</f>
@@ -8228,11 +8234,11 @@
       </c>
       <c r="K134" s="11">
         <f>_xll.qlRateHelperEarliestDate($E134,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L134" s="10">
         <f>_xll.qlRateHelperLatestDate($E134,Trigger)</f>
-        <v>47238</v>
+        <v>47246</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.2">
@@ -8253,7 +8259,7 @@
       </c>
       <c r="F135" s="13">
         <f>_xll.qlRateHelperQuoteValue($E135,Trigger)</f>
-        <v>3.3006473081719431E-2</v>
+        <v>3.2728774275314128E-2</v>
       </c>
       <c r="G135" s="13">
         <f>_xll.qlSwapRateHelperSpread($E135,Trigger)</f>
@@ -8270,11 +8276,11 @@
       </c>
       <c r="K135" s="11">
         <f>_xll.qlRateHelperEarliestDate($E135,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L135" s="10">
         <f>_xll.qlRateHelperLatestDate($E135,Trigger)</f>
-        <v>47603</v>
+        <v>47610</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.2">
@@ -8295,7 +8301,7 @@
       </c>
       <c r="F136" s="13">
         <f>_xll.qlRateHelperQuoteValue($E136,Trigger)</f>
-        <v>3.3386831994493112E-2</v>
+        <v>3.3117733680418024E-2</v>
       </c>
       <c r="G136" s="13">
         <f>_xll.qlSwapRateHelperSpread($E136,Trigger)</f>
@@ -8312,11 +8318,11 @@
       </c>
       <c r="K136" s="11">
         <f>_xll.qlRateHelperEarliestDate($E136,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L136" s="10">
         <f>_xll.qlRateHelperLatestDate($E136,Trigger)</f>
-        <v>47968</v>
+        <v>47975</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.2">
@@ -8337,7 +8343,7 @@
       </c>
       <c r="F137" s="13">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
-        <v>3.3712521975681288E-2</v>
+        <v>3.3449482659635862E-2</v>
       </c>
       <c r="G137" s="13">
         <f>_xll.qlSwapRateHelperSpread($E137,Trigger)</f>
@@ -8354,11 +8360,11 @@
       </c>
       <c r="K137" s="11">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L137" s="10">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>48334</v>
+        <v>48341</v>
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.2">
@@ -8379,7 +8385,7 @@
       </c>
       <c r="F138" s="13">
         <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
-        <v>3.3975011963438349E-2</v>
+        <v>3.3732807138619661E-2</v>
       </c>
       <c r="G138" s="13">
         <f>_xll.qlSwapRateHelperSpread($E138,Trigger)</f>
@@ -8396,11 +8402,11 @@
       </c>
       <c r="K138" s="11">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L138" s="10">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>48698</v>
+        <v>48708</v>
       </c>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.2">
@@ -8421,7 +8427,7 @@
       </c>
       <c r="F139" s="13">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
-        <v>3.4209514634172017E-2</v>
+        <v>3.3972069216463611E-2</v>
       </c>
       <c r="G139" s="13">
         <f>_xll.qlSwapRateHelperSpread($E139,Trigger)</f>
@@ -8438,11 +8444,11 @@
       </c>
       <c r="K139" s="11">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L139" s="10">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>49062</v>
+        <v>49072</v>
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.2">
@@ -8463,7 +8469,7 @@
       </c>
       <c r="F140" s="13">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
-        <v>3.4420358010220371E-2</v>
+        <v>3.4176478697520732E-2</v>
       </c>
       <c r="G140" s="13">
         <f>_xll.qlSwapRateHelperSpread($E140,Trigger)</f>
@@ -8480,11 +8486,11 @@
       </c>
       <c r="K140" s="11">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L140" s="10">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>49429</v>
+        <v>49437</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.2">
@@ -8505,7 +8511,7 @@
       </c>
       <c r="F141" s="13">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
-        <v>3.4586668766096916E-2</v>
+        <v>3.4350554196420059E-2</v>
       </c>
       <c r="G141" s="13">
         <f>_xll.qlSwapRateHelperSpread($E141,Trigger)</f>
@@ -8522,11 +8528,11 @@
       </c>
       <c r="K141" s="11">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L141" s="10">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>49795</v>
+        <v>49802</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.2">
@@ -8547,7 +8553,7 @@
       </c>
       <c r="F142" s="13">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
-        <v>3.4726189366871052E-2</v>
+        <v>3.449875452708618E-2</v>
       </c>
       <c r="G142" s="13">
         <f>_xll.qlSwapRateHelperSpread($E142,Trigger)</f>
@@ -8564,11 +8570,11 @@
       </c>
       <c r="K142" s="11">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L142" s="10">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>50160</v>
+        <v>50167</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.2">
@@ -8589,7 +8595,7 @@
       </c>
       <c r="F143" s="13">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
-        <v>3.484363760780141E-2</v>
+        <v>3.4624778498375502E-2</v>
       </c>
       <c r="G143" s="13">
         <f>_xll.qlSwapRateHelperSpread($E143,Trigger)</f>
@@ -8606,11 +8612,11 @@
       </c>
       <c r="K143" s="11">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L143" s="10">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>50525</v>
+        <v>50532</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.2">
@@ -8631,7 +8637,7 @@
       </c>
       <c r="F144" s="13">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
-        <v>3.4933025197579105E-2</v>
+        <v>3.4732339873564673E-2</v>
       </c>
       <c r="G144" s="13">
         <f>_xll.qlSwapRateHelperSpread($E144,Trigger)</f>
@@ -8648,11 +8654,11 @@
       </c>
       <c r="K144" s="11">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L144" s="10">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>50889</v>
+        <v>50899</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8673,7 +8679,7 @@
       </c>
       <c r="F145" s="13">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
-        <v>3.5025321894412369E-2</v>
+        <v>3.4822199027607532E-2</v>
       </c>
       <c r="G145" s="13">
         <f>_xll.qlSwapRateHelperSpread($E145,Trigger)</f>
@@ -8690,11 +8696,11 @@
       </c>
       <c r="K145" s="11">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L145" s="10">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>51256</v>
+        <v>51264</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8715,7 +8721,7 @@
       </c>
       <c r="F146" s="13">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
-        <v>3.5093995171247137E-2</v>
+        <v>3.4897234820014535E-2</v>
       </c>
       <c r="G146" s="13">
         <f>_xll.qlSwapRateHelperSpread($E146,Trigger)</f>
@@ -8732,11 +8738,11 @@
       </c>
       <c r="K146" s="11">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L146" s="10">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>51621</v>
+        <v>51628</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8757,7 +8763,7 @@
       </c>
       <c r="F147" s="13">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
-        <v>3.5151514855108944E-2</v>
+        <v>3.4960751536675987E-2</v>
       </c>
       <c r="G147" s="13">
         <f>_xll.qlSwapRateHelperSpread($E147,Trigger)</f>
@@ -8774,11 +8780,11 @@
       </c>
       <c r="K147" s="11">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L147" s="10">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>51986</v>
+        <v>51993</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8799,7 +8805,7 @@
       </c>
       <c r="F148" s="13">
         <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
-        <v>3.5200227224689309E-2</v>
+        <v>3.5014913866305321E-2</v>
       </c>
       <c r="G148" s="13">
         <f>_xll.qlSwapRateHelperSpread($E148,Trigger)</f>
@@ -8816,11 +8822,11 @@
       </c>
       <c r="K148" s="11">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L148" s="10">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>52351</v>
+        <v>52358</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8841,7 +8847,7 @@
       </c>
       <c r="F149" s="13">
         <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
-        <v>3.5235149125908777E-2</v>
+        <v>3.5062310789737594E-2</v>
       </c>
       <c r="G149" s="13">
         <f>_xll.qlSwapRateHelperSpread($E149,Trigger)</f>
@@ -8858,11 +8864,11 @@
       </c>
       <c r="K149" s="11">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L149" s="10">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>52716</v>
+        <v>52726</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8883,7 +8889,7 @@
       </c>
       <c r="F150" s="13">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
-        <v>3.5387740971153894E-2</v>
+        <v>3.5224373942773161E-2</v>
       </c>
       <c r="G150" s="13">
         <f>_xll.qlSwapRateHelperSpread($E150,Trigger)</f>
@@ -8900,11 +8906,11 @@
       </c>
       <c r="K150" s="11">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L150" s="10">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>54543</v>
+        <v>54550</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -8925,7 +8931,7 @@
       </c>
       <c r="F151" s="13">
         <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
-        <v>3.5412225748580245E-2</v>
+        <v>3.5252338428872362E-2</v>
       </c>
       <c r="G151" s="13">
         <f>_xll.qlSwapRateHelperSpread($E151,Trigger)</f>
@@ -8942,11 +8948,11 @@
       </c>
       <c r="K151" s="11">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L151" s="10">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>56369</v>
+        <v>56376</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -8967,7 +8973,7 @@
       </c>
       <c r="F152" s="13">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
-        <v>3.5242159896122179E-2</v>
+        <v>3.5062254589268552E-2</v>
       </c>
       <c r="G152" s="13">
         <f>_xll.qlSwapRateHelperSpread($E152,Trigger)</f>
@@ -8984,11 +8990,11 @@
       </c>
       <c r="K152" s="11">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L152" s="10">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>60022</v>
+        <v>60029</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -9026,11 +9032,11 @@
       </c>
       <c r="K153" s="4">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L153" s="3">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>63674</v>
+        <v>63682</v>
       </c>
     </row>
   </sheetData>
@@ -9049,719 +9055,721 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="178" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="178" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="178" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="199" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="199" customWidth="1"/>
-    <col min="6" max="6" width="8" style="199" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.28515625" style="199" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="178" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="178"/>
+    <col min="1" max="1" width="36.85546875" style="169" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="169" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="169" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="186" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="186" customWidth="1"/>
+    <col min="6" max="6" width="8" style="186" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.28515625" style="186" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="169" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="169"/>
+    <col min="11" max="11" width="12" style="169" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="169"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="176" t="s">
+    <row r="1" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="199" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="D1" s="179" t="s">
+      <c r="B1" s="200"/>
+      <c r="D1" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="180" t="s">
+      <c r="E1" s="171" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180" t="s">
+      <c r="F1" s="171"/>
+      <c r="G1" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="181" t="s">
+      <c r="H1" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="182">
+      <c r="I1" s="173">
         <f t="array" ref="I1:I126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="184">
+      <c r="B2" s="175">
         <v>8</v>
       </c>
-      <c r="D2" s="185" t="str">
+      <c r="D2" s="176" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
         <v>USD_YC6MRH_SWD</v>
       </c>
-      <c r="E2" s="186">
+      <c r="E2" s="177">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>3.2750000000000001E-3</v>
-      </c>
-      <c r="F2" s="186" t="str">
+        <v>3.3960000000000001E-3</v>
+      </c>
+      <c r="F2" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
         <v>--</v>
       </c>
       <c r="G2" s="187">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H2" s="188">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41766</v>
-      </c>
-      <c r="I2" s="182">
-        <v>0.9999363234993992</v>
+        <v>41773</v>
+      </c>
+      <c r="I2" s="173">
+        <v>0.99993397102677961</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="178" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="190">
-        <v>0</v>
-      </c>
-      <c r="D3" s="185" t="str">
+      <c r="B3" s="179">
+        <v>0</v>
+      </c>
+      <c r="D3" s="176" t="str">
         <v>USD_YC6MRH_1MD</v>
       </c>
-      <c r="E3" s="186">
+      <c r="E3" s="177">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>3.176E-3</v>
-      </c>
-      <c r="F3" s="186" t="str">
+        <v>3.3310000000000002E-3</v>
+      </c>
+      <c r="F3" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
         <v>--</v>
       </c>
       <c r="G3" s="187">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H3" s="188">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41789</v>
-      </c>
-      <c r="I3" s="182">
-        <v>0.99973540336324329</v>
+        <v>41799</v>
+      </c>
+      <c r="I3" s="173">
+        <v>0.99969475153840737</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="178" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="190">
-        <v>1</v>
-      </c>
-      <c r="D4" s="185" t="str">
+      <c r="B4" s="179">
+        <v>1</v>
+      </c>
+      <c r="D4" s="176" t="str">
         <v>USD_YC6MRH_2MD</v>
       </c>
-      <c r="E4" s="186">
+      <c r="E4" s="177">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>3.166E-3</v>
-      </c>
-      <c r="F4" s="186" t="str">
+        <v>3.29E-3</v>
+      </c>
+      <c r="F4" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
         <v>--</v>
       </c>
       <c r="G4" s="187">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H4" s="188">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41820</v>
-      </c>
-      <c r="I4" s="182">
-        <v>0.99946382652488397</v>
+        <v>41827</v>
+      </c>
+      <c r="I4" s="173">
+        <v>0.99944283837990422</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="191" t="s">
+      <c r="B5" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="185" t="str">
+      <c r="D5" s="176" t="str">
         <v>USD_YC6MRH_3MD</v>
       </c>
-      <c r="E5" s="186">
+      <c r="E5" s="177">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>3.166E-3</v>
-      </c>
-      <c r="F5" s="186" t="str">
+        <v>3.2439999999999999E-3</v>
+      </c>
+      <c r="F5" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
         <v>--</v>
       </c>
       <c r="G5" s="187">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H5" s="188">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41851</v>
-      </c>
-      <c r="I5" s="182">
-        <v>0.99919156520672081</v>
+        <v>41858</v>
+      </c>
+      <c r="I5" s="173">
+        <v>0.99917166448632611</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="189" t="s">
+      <c r="A6" s="178" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="192" t="str">
+      <c r="B6" s="181" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!D2)</f>
         <v/>
       </c>
-      <c r="D6" s="185" t="str">
+      <c r="D6" s="176" t="str">
         <v>USD_YC6MRH_6MD</v>
       </c>
-      <c r="E6" s="186">
+      <c r="E6" s="177">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>3.2299999999999998E-3</v>
-      </c>
-      <c r="F6" s="186" t="str">
+        <v>3.2160000000000001E-3</v>
+      </c>
+      <c r="F6" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
         <v>--</v>
       </c>
       <c r="G6" s="187">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H6" s="188">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41943</v>
-      </c>
-      <c r="I6" s="182">
-        <v>0.99835183205326183</v>
+        <v>41950</v>
+      </c>
+      <c r="I6" s="173">
+        <v>0.9983589640920898</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="193" t="str">
+      <c r="A7" s="182" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_RateHelpersSelected#0006</v>
-      </c>
-      <c r="B7" s="194" t="str">
+        <v>USD_YC6MRH_RateHelpersSelected#0001</v>
+      </c>
+      <c r="B7" s="183" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
-      <c r="D7" s="185" t="str">
+      <c r="D7" s="176" t="str">
         <v>USD_YC6MRH_1x7F</v>
       </c>
-      <c r="E7" s="186">
+      <c r="E7" s="177">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>3.2699999999999995E-3</v>
-      </c>
-      <c r="F7" s="186" t="str">
+        <v>3.2199999999999993E-3</v>
+      </c>
+      <c r="F7" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
         <v>--</v>
       </c>
       <c r="G7" s="187">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41789</v>
+        <v>41799</v>
       </c>
       <c r="H7" s="188">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41971</v>
-      </c>
-      <c r="I7" s="182">
-        <v>0.99808540184642403</v>
+        <v>41982</v>
+      </c>
+      <c r="I7" s="173">
+        <v>0.99806109187452419</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D8" s="185" t="str">
-        <v>USD_YC6MRH_3x9F</v>
-      </c>
-      <c r="E8" s="186">
+      <c r="D8" s="176" t="str">
+        <v>USD_YC6MRH_2x8F</v>
+      </c>
+      <c r="E8" s="177">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>3.3899999999999998E-3</v>
-      </c>
-      <c r="F8" s="186" t="str">
+        <v>3.2599999999999994E-3</v>
+      </c>
+      <c r="F8" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
         <v>--</v>
       </c>
       <c r="G8" s="187">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41851</v>
+        <v>41827</v>
       </c>
       <c r="H8" s="188">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42034</v>
-      </c>
-      <c r="I8" s="182">
-        <v>0.99747267042740706</v>
+        <v>42011</v>
+      </c>
+      <c r="I8" s="173">
+        <v>0.99778031464674399</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D9" s="185" t="str">
-        <v>USD_YC6MRH_6x12F</v>
-      </c>
-      <c r="E9" s="186">
+      <c r="D9" s="176" t="str">
+        <v>USD_YC6MRH_3x9F</v>
+      </c>
+      <c r="E9" s="177">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>3.8E-3</v>
-      </c>
-      <c r="F9" s="186" t="str">
+        <v>3.3199999999999996E-3</v>
+      </c>
+      <c r="F9" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
         <v>--</v>
       </c>
       <c r="G9" s="187">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41943</v>
+        <v>41858</v>
       </c>
       <c r="H9" s="188">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42124</v>
-      </c>
-      <c r="I9" s="182">
-        <v>0.9964480626713843</v>
+        <v>42044</v>
+      </c>
+      <c r="I9" s="173">
+        <v>0.99746068692136036</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D10" s="185" t="str">
-        <v>USD_YC6MRH_AM6LBASIS2Y</v>
-      </c>
-      <c r="E10" s="186">
+      <c r="D10" s="176" t="str">
+        <v>USD_YC6MRH_6x12F</v>
+      </c>
+      <c r="E10" s="177">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>6.2684064029289721E-3</v>
-      </c>
-      <c r="F10" s="186">
+        <v>3.7799999999999999E-3</v>
+      </c>
+      <c r="F10" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
-        <v>0</v>
+        <v>--</v>
       </c>
       <c r="G10" s="187">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41759</v>
+        <v>41950</v>
       </c>
       <c r="H10" s="188">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42489</v>
-      </c>
-      <c r="I10" s="182">
-        <v>0.98739352203801212</v>
+        <v>42131</v>
+      </c>
+      <c r="I10" s="173">
+        <v>0.99646518201375134</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D11" s="185" t="str">
-        <v>USD_YC6MRH_AM6LBASIS3Y</v>
-      </c>
-      <c r="E11" s="186">
+      <c r="D11" s="176" t="str">
+        <v>USD_YC6MRH_AM6LBASIS2Y</v>
+      </c>
+      <c r="E11" s="177">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>1.0745105038998762E-2</v>
-      </c>
-      <c r="F11" s="186">
+        <v>6.2747361800808438E-3</v>
+      </c>
+      <c r="F11" s="177">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
         <v>0</v>
       </c>
       <c r="G11" s="187">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H11" s="188">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42853</v>
-      </c>
-      <c r="I11" s="182">
-        <v>0.96783875372592154</v>
+        <v>42499</v>
+      </c>
+      <c r="I11" s="173">
+        <v>0.98732887452401463</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D12" s="185" t="str">
-        <v>USD_YC6MRH_AM6LBASIS4Y</v>
-      </c>
-      <c r="E12" s="186">
+      <c r="D12" s="176" t="str">
+        <v>USD_YC6MRH_AM6LBASIS3Y</v>
+      </c>
+      <c r="E12" s="177">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>1.5184330870153525E-2</v>
-      </c>
-      <c r="F12" s="186">
+        <v>1.0613243752659226E-2</v>
+      </c>
+      <c r="F12" s="177">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
         <v>0</v>
       </c>
       <c r="G12" s="187">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H12" s="188">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>43220</v>
-      </c>
-      <c r="I12" s="182">
-        <v>0.94005393875088672</v>
+        <v>42863</v>
+      </c>
+      <c r="I12" s="173">
+        <v>0.96820284502495424</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D13" s="185" t="str">
-        <v>USD_YC6MRH_AM6LBASIS5Y</v>
-      </c>
-      <c r="E13" s="186">
+      <c r="D13" s="176" t="str">
+        <v>USD_YC6MRH_AM6LBASIS4Y</v>
+      </c>
+      <c r="E13" s="177">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>1.8835475497485689E-2</v>
-      </c>
-      <c r="F13" s="186">
+        <v>1.4794610454705709E-2</v>
+      </c>
+      <c r="F13" s="177">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
         <v>0</v>
       </c>
       <c r="G13" s="187">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H13" s="188">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>43585</v>
-      </c>
-      <c r="I13" s="182">
-        <v>0.9084088945908152</v>
+        <v>43228</v>
+      </c>
+      <c r="I13" s="173">
+        <v>0.94159807380577742</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D14" s="185" t="str">
-        <v>USD_YC6MRH_AM6LBASIS6Y</v>
-      </c>
-      <c r="E14" s="186">
+      <c r="D14" s="176" t="str">
+        <v>USD_YC6MRH_AM6LBASIS5Y</v>
+      </c>
+      <c r="E14" s="177">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>2.1736454974116855E-2</v>
-      </c>
-      <c r="F14" s="186">
+        <v>1.8305761003297498E-2</v>
+      </c>
+      <c r="F14" s="177">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
         <v>0</v>
       </c>
       <c r="G14" s="187">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H14" s="188">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>43951</v>
-      </c>
-      <c r="I14" s="182">
-        <v>0.87504578296808755</v>
+        <v>43592</v>
+      </c>
+      <c r="I14" s="173">
+        <v>0.91094212762016824</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D15" s="185" t="str">
-        <v>USD_YC6MRH_AM6LBASIS7Y</v>
-      </c>
-      <c r="E15" s="186">
+      <c r="D15" s="176" t="str">
+        <v>USD_YC6MRH_AM6LBASIS6Y</v>
+      </c>
+      <c r="E15" s="177">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>2.4037415831686601E-2</v>
-      </c>
-      <c r="F15" s="186">
+        <v>2.1186812438221476E-2</v>
+      </c>
+      <c r="F15" s="177">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
         <v>0</v>
       </c>
       <c r="G15" s="187">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H15" s="188">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>44316</v>
-      </c>
-      <c r="I15" s="182">
-        <v>0.84140729167989792</v>
+        <v>43958</v>
+      </c>
+      <c r="I15" s="173">
+        <v>0.87809357359703066</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D16" s="185" t="str">
-        <v>USD_YC6MRH_AM6LBASIS8Y</v>
-      </c>
-      <c r="E16" s="186">
+      <c r="D16" s="176" t="str">
+        <v>USD_YC6MRH_AM6LBASIS7Y</v>
+      </c>
+      <c r="E16" s="177">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>2.583773077790465E-2</v>
-      </c>
-      <c r="F16" s="186">
+        <v>2.3537708839040911E-2</v>
+      </c>
+      <c r="F16" s="177">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
         <v>0</v>
       </c>
       <c r="G16" s="187">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H16" s="188">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>44680</v>
-      </c>
-      <c r="I16" s="182">
-        <v>0.80850965243697936</v>
+        <v>44323</v>
+      </c>
+      <c r="I16" s="173">
+        <v>0.84451440191262006</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D17" s="185" t="str">
-        <v>USD_YC6MRH_AM6LBASIS9Y</v>
-      </c>
-      <c r="E17" s="186">
+      <c r="D17" s="176" t="str">
+        <v>USD_YC6MRH_AM6LBASIS8Y</v>
+      </c>
+      <c r="E17" s="177">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>2.7340836092050836E-2</v>
-      </c>
-      <c r="F17" s="186">
+        <v>2.5438483006057507E-2</v>
+      </c>
+      <c r="F17" s="177">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
         <v>0</v>
       </c>
       <c r="G17" s="187">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H17" s="188">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>45044</v>
-      </c>
-      <c r="I17" s="182">
-        <v>0.77594983339682544</v>
+        <v>44690</v>
+      </c>
+      <c r="I17" s="173">
+        <v>0.81104605311442002</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D18" s="185" t="str">
-        <v>USD_YC6MRH_AM6LBASIS10Y</v>
-      </c>
-      <c r="E18" s="186">
+      <c r="D18" s="176" t="str">
+        <v>USD_YC6MRH_AM6LBASIS9Y</v>
+      </c>
+      <c r="E18" s="177">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>2.8629410516258804E-2</v>
-      </c>
-      <c r="F18" s="186">
+        <v>2.6979198810427259E-2</v>
+      </c>
+      <c r="F18" s="177">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
         <v>0</v>
       </c>
       <c r="G18" s="187">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H18" s="188">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>45412</v>
-      </c>
-      <c r="I18" s="182">
-        <v>0.74375051899492972</v>
+        <v>45054</v>
+      </c>
+      <c r="I18" s="173">
+        <v>0.77849784829758994</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D19" s="185" t="str">
-        <v>USD_YC6MRH_AM6LBASIS12Y</v>
-      </c>
-      <c r="E19" s="186">
+      <c r="D19" s="176" t="str">
+        <v>USD_YC6MRH_AM6LBASIS10Y</v>
+      </c>
+      <c r="E19" s="177">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>3.0640310570962857E-2</v>
-      </c>
-      <c r="F19" s="186">
+        <v>2.8249732506665421E-2</v>
+      </c>
+      <c r="F19" s="177">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
         <v>0</v>
       </c>
       <c r="G19" s="187">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H19" s="188">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>46142</v>
-      </c>
-      <c r="I19" s="182">
-        <v>0.68269366733557502</v>
+        <v>45419</v>
+      </c>
+      <c r="I19" s="173">
+        <v>0.74680760505476762</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D20" s="185" t="str">
-        <v>USD_YC6MRH_AM6LBASIS15Y</v>
-      </c>
-      <c r="E20" s="186">
+      <c r="D20" s="176" t="str">
+        <v>USD_YC6MRH_AM6LBASIS12Y</v>
+      </c>
+      <c r="E20" s="177">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>3.2561272919857852E-2</v>
-      </c>
-      <c r="F20" s="186">
+        <v>3.0290627208507091E-2</v>
+      </c>
+      <c r="F20" s="177">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
         <v>0</v>
       </c>
       <c r="G20" s="187">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H20" s="188">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>47238</v>
-      </c>
-      <c r="I20" s="182">
-        <v>0.60112137408543753</v>
+        <v>46149</v>
+      </c>
+      <c r="I20" s="173">
+        <v>0.68576675921983199</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D21" s="185" t="str">
-        <v>USD_YC6MRH_AM6LBASIS20Y</v>
-      </c>
-      <c r="E21" s="186">
+      <c r="D21" s="176" t="str">
+        <v>USD_YC6MRH_AM6LBASIS15Y</v>
+      </c>
+      <c r="E21" s="177">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>3.4209514634172017E-2</v>
-      </c>
-      <c r="F21" s="186">
+        <v>3.2271464080777863E-2</v>
+      </c>
+      <c r="F21" s="177">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
         <v>0</v>
       </c>
       <c r="G21" s="187">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H21" s="188">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>49062</v>
-      </c>
-      <c r="I21" s="182">
-        <v>0.48913934009256377</v>
+        <v>47246</v>
+      </c>
+      <c r="I21" s="173">
+        <v>0.60368322528885365</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D22" s="185" t="str">
-        <v>USD_YC6MRH_AM6LBASIS25Y</v>
-      </c>
-      <c r="E22" s="186">
+      <c r="D22" s="176" t="str">
+        <v>USD_YC6MRH_AM6LBASIS20Y</v>
+      </c>
+      <c r="E22" s="177">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>3.4933025197579105E-2</v>
-      </c>
-      <c r="F22" s="186">
+        <v>3.3972069216463611E-2</v>
+      </c>
+      <c r="F22" s="177">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
         <v>0</v>
       </c>
       <c r="G22" s="187">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H22" s="188">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>50889</v>
-      </c>
-      <c r="I22" s="182">
-        <v>0.40156740855448181</v>
+        <v>49072</v>
+      </c>
+      <c r="I22" s="173">
+        <v>0.49134057508181761</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D23" s="185" t="str">
-        <v>USD_YC6MRH_AM6LBASIS30Y</v>
-      </c>
-      <c r="E23" s="186">
+      <c r="D23" s="176" t="str">
+        <v>USD_YC6MRH_AM6LBASIS25Y</v>
+      </c>
+      <c r="E23" s="177">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>3.5235149125908777E-2</v>
-      </c>
-      <c r="F23" s="186">
+        <v>3.4732339873564673E-2</v>
+      </c>
+      <c r="F23" s="177">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
         <v>0</v>
       </c>
       <c r="G23" s="187">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H23" s="188">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>52716</v>
-      </c>
-      <c r="I23" s="182">
-        <v>0.33255066441163583</v>
+        <v>50899</v>
+      </c>
+      <c r="I23" s="173">
+        <v>0.40335185004636431</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D24" s="185" t="str">
-        <v>USD_YC6MRH_AM6LBASIS35Y</v>
-      </c>
-      <c r="E24" s="186">
+      <c r="D24" s="176" t="str">
+        <v>USD_YC6MRH_AM6LBASIS30Y</v>
+      </c>
+      <c r="E24" s="177">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>3.5387740971153894E-2</v>
-      </c>
-      <c r="F24" s="186">
+        <v>3.5062310789737594E-2</v>
+      </c>
+      <c r="F24" s="177">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
         <v>0</v>
       </c>
       <c r="G24" s="187">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H24" s="188">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>54543</v>
-      </c>
-      <c r="I24" s="182">
-        <v>0.27631192138199484</v>
+        <v>52726</v>
+      </c>
+      <c r="I24" s="173">
+        <v>0.33378244759846137</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D25" s="185" t="str">
-        <v>USD_YC6MRH_AM6LBASIS40Y</v>
-      </c>
-      <c r="E25" s="186">
+      <c r="D25" s="176" t="str">
+        <v>USD_YC6MRH_AM6LBASIS35Y</v>
+      </c>
+      <c r="E25" s="177">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>3.5412225748580245E-2</v>
-      </c>
-      <c r="F25" s="186">
+        <v>3.5224373942773161E-2</v>
+      </c>
+      <c r="F25" s="177">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
         <v>0</v>
       </c>
       <c r="G25" s="187">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H25" s="188">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>56369</v>
-      </c>
-      <c r="I25" s="182">
-        <v>0.23114861645550541</v>
+        <v>54550</v>
+      </c>
+      <c r="I25" s="173">
+        <v>0.27747528577617941</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D26" s="185" t="str">
-        <v>USD_YC6MRH_AM6LBASIS50Y</v>
-      </c>
-      <c r="E26" s="186">
+      <c r="D26" s="176" t="str">
+        <v>USD_YC6MRH_AM6LBASIS40Y</v>
+      </c>
+      <c r="E26" s="177">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>3.5242159896122179E-2</v>
-      </c>
-      <c r="F26" s="186">
+        <v>3.5252338428872362E-2</v>
+      </c>
+      <c r="F26" s="177">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
         <v>0</v>
       </c>
       <c r="G26" s="187">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H26" s="188">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>60022</v>
-      </c>
-      <c r="I26" s="182">
-        <v>0.16542362258094925</v>
+        <v>56376</v>
+      </c>
+      <c r="I26" s="173">
+        <v>0.23228669292935578</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D27" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E27" s="186" t="e">
+      <c r="D27" s="176" t="str">
+        <v>USD_YC6MRH_AM6LBASIS50Y</v>
+      </c>
+      <c r="E27" s="177">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F27" s="186" t="str">
+        <v>3.5062254589268552E-2</v>
+      </c>
+      <c r="F27" s="177">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
-        <v>--</v>
-      </c>
-      <c r="G27" s="187" t="e">
+        <v>0</v>
+      </c>
+      <c r="G27" s="187">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H27" s="188" t="e">
+        <v>41766</v>
+      </c>
+      <c r="H27" s="188">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I27" s="182" t="e">
-        <v>#N/A</v>
+        <v>60029</v>
+      </c>
+      <c r="I27" s="173">
+        <v>0.16687027512719005</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D28" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E28" s="186" t="e">
+      <c r="D28" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E28" s="177" t="e">
         <f>_xll.qlRateHelperRate($D28)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F28" s="186" t="str">
+      <c r="F28" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
         <v>--</v>
       </c>
@@ -9773,19 +9781,19 @@
         <f>_xll.qlRateHelperLatestDate($D28)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I28" s="182" t="e">
+      <c r="I28" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D29" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E29" s="186" t="e">
+      <c r="D29" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="177" t="e">
         <f>_xll.qlRateHelperRate($D29)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F29" s="186" t="str">
+      <c r="F29" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
         <v>--</v>
       </c>
@@ -9797,19 +9805,19 @@
         <f>_xll.qlRateHelperLatestDate($D29)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I29" s="182" t="e">
+      <c r="I29" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D30" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E30" s="186" t="e">
+      <c r="D30" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="177" t="e">
         <f>_xll.qlRateHelperRate($D30)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F30" s="186" t="str">
+      <c r="F30" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
         <v>--</v>
       </c>
@@ -9821,19 +9829,19 @@
         <f>_xll.qlRateHelperLatestDate($D30)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I30" s="182" t="e">
+      <c r="I30" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D31" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E31" s="186" t="e">
+      <c r="D31" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E31" s="177" t="e">
         <f>_xll.qlRateHelperRate($D31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F31" s="186" t="str">
+      <c r="F31" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
         <v>--</v>
       </c>
@@ -9845,19 +9853,19 @@
         <f>_xll.qlRateHelperLatestDate($D31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I31" s="182" t="e">
+      <c r="I31" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D32" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E32" s="186" t="e">
+      <c r="D32" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E32" s="177" t="e">
         <f>_xll.qlRateHelperRate($D32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F32" s="186" t="str">
+      <c r="F32" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
         <v>--</v>
       </c>
@@ -9869,19 +9877,19 @@
         <f>_xll.qlRateHelperLatestDate($D32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I32" s="182" t="e">
+      <c r="I32" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D33" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E33" s="186" t="e">
+      <c r="D33" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E33" s="177" t="e">
         <f>_xll.qlRateHelperRate($D33)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F33" s="186" t="str">
+      <c r="F33" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
         <v>--</v>
       </c>
@@ -9893,19 +9901,19 @@
         <f>_xll.qlRateHelperLatestDate($D33)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I33" s="182" t="e">
+      <c r="I33" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D34" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E34" s="186" t="e">
+      <c r="D34" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E34" s="177" t="e">
         <f>_xll.qlRateHelperRate($D34)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F34" s="186" t="str">
+      <c r="F34" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
         <v>--</v>
       </c>
@@ -9917,19 +9925,19 @@
         <f>_xll.qlRateHelperLatestDate($D34)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I34" s="182" t="e">
+      <c r="I34" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D35" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E35" s="186" t="e">
+      <c r="D35" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E35" s="177" t="e">
         <f>_xll.qlRateHelperRate($D35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F35" s="186" t="str">
+      <c r="F35" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
         <v>--</v>
       </c>
@@ -9941,19 +9949,19 @@
         <f>_xll.qlRateHelperLatestDate($D35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I35" s="182" t="e">
+      <c r="I35" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D36" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E36" s="186" t="e">
+      <c r="D36" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E36" s="177" t="e">
         <f>_xll.qlRateHelperRate($D36)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F36" s="186" t="str">
+      <c r="F36" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
         <v>--</v>
       </c>
@@ -9965,19 +9973,19 @@
         <f>_xll.qlRateHelperLatestDate($D36)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I36" s="182" t="e">
+      <c r="I36" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D37" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E37" s="186" t="e">
+      <c r="D37" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E37" s="177" t="e">
         <f>_xll.qlRateHelperRate($D37)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F37" s="186" t="str">
+      <c r="F37" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
         <v>--</v>
       </c>
@@ -9989,19 +9997,19 @@
         <f>_xll.qlRateHelperLatestDate($D37)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I37" s="182" t="e">
+      <c r="I37" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D38" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E38" s="186" t="e">
+      <c r="D38" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E38" s="177" t="e">
         <f>_xll.qlRateHelperRate($D38)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F38" s="186" t="str">
+      <c r="F38" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
         <v>--</v>
       </c>
@@ -10013,19 +10021,19 @@
         <f>_xll.qlRateHelperLatestDate($D38)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I38" s="182" t="e">
+      <c r="I38" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D39" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E39" s="186" t="e">
+      <c r="D39" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E39" s="177" t="e">
         <f>_xll.qlRateHelperRate($D39)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F39" s="186" t="str">
+      <c r="F39" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
         <v>--</v>
       </c>
@@ -10037,19 +10045,19 @@
         <f>_xll.qlRateHelperLatestDate($D39)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I39" s="182" t="e">
+      <c r="I39" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D40" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E40" s="186" t="e">
+      <c r="D40" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E40" s="177" t="e">
         <f>_xll.qlRateHelperRate($D40)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F40" s="186" t="str">
+      <c r="F40" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
         <v>--</v>
       </c>
@@ -10061,19 +10069,19 @@
         <f>_xll.qlRateHelperLatestDate($D40)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I40" s="182" t="e">
+      <c r="I40" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D41" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E41" s="186" t="e">
+      <c r="D41" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E41" s="177" t="e">
         <f>_xll.qlRateHelperRate($D41)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F41" s="186" t="str">
+      <c r="F41" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
         <v>--</v>
       </c>
@@ -10085,19 +10093,19 @@
         <f>_xll.qlRateHelperLatestDate($D41)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I41" s="182" t="e">
+      <c r="I41" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D42" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E42" s="186" t="e">
+      <c r="D42" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E42" s="177" t="e">
         <f>_xll.qlRateHelperRate($D42)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F42" s="186" t="str">
+      <c r="F42" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
         <v>--</v>
       </c>
@@ -10109,19 +10117,19 @@
         <f>_xll.qlRateHelperLatestDate($D42)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I42" s="182" t="e">
+      <c r="I42" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D43" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E43" s="186" t="e">
+      <c r="D43" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E43" s="177" t="e">
         <f>_xll.qlRateHelperRate($D43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F43" s="186" t="str">
+      <c r="F43" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
         <v>--</v>
       </c>
@@ -10133,19 +10141,19 @@
         <f>_xll.qlRateHelperLatestDate($D43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I43" s="182" t="e">
+      <c r="I43" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D44" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E44" s="186" t="e">
+      <c r="D44" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E44" s="177" t="e">
         <f>_xll.qlRateHelperRate($D44)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F44" s="186" t="str">
+      <c r="F44" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
         <v>--</v>
       </c>
@@ -10157,19 +10165,19 @@
         <f>_xll.qlRateHelperLatestDate($D44)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I44" s="182" t="e">
+      <c r="I44" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D45" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E45" s="186" t="e">
+      <c r="D45" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E45" s="177" t="e">
         <f>_xll.qlRateHelperRate($D45)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F45" s="186" t="str">
+      <c r="F45" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
         <v>--</v>
       </c>
@@ -10181,19 +10189,19 @@
         <f>_xll.qlRateHelperLatestDate($D45)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I45" s="182" t="e">
+      <c r="I45" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D46" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E46" s="186" t="e">
+      <c r="D46" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E46" s="177" t="e">
         <f>_xll.qlRateHelperRate($D46)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F46" s="186" t="str">
+      <c r="F46" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
         <v>--</v>
       </c>
@@ -10205,19 +10213,19 @@
         <f>_xll.qlRateHelperLatestDate($D46)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I46" s="182" t="e">
+      <c r="I46" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D47" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E47" s="186" t="e">
+      <c r="D47" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E47" s="177" t="e">
         <f>_xll.qlRateHelperRate($D47)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F47" s="186" t="str">
+      <c r="F47" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
         <v>--</v>
       </c>
@@ -10229,19 +10237,19 @@
         <f>_xll.qlRateHelperLatestDate($D47)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I47" s="182" t="e">
+      <c r="I47" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D48" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E48" s="186" t="e">
+      <c r="D48" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E48" s="177" t="e">
         <f>_xll.qlRateHelperRate($D48)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="186" t="str">
+      <c r="F48" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
         <v>--</v>
       </c>
@@ -10253,19 +10261,19 @@
         <f>_xll.qlRateHelperLatestDate($D48)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" s="182" t="e">
+      <c r="I48" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D49" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E49" s="186" t="e">
+      <c r="D49" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E49" s="177" t="e">
         <f>_xll.qlRateHelperRate($D49)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F49" s="186" t="str">
+      <c r="F49" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
         <v>--</v>
       </c>
@@ -10277,19 +10285,19 @@
         <f>_xll.qlRateHelperLatestDate($D49)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I49" s="182" t="e">
+      <c r="I49" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D50" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E50" s="186" t="e">
+      <c r="D50" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E50" s="177" t="e">
         <f>_xll.qlRateHelperRate($D50)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F50" s="186" t="str">
+      <c r="F50" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
         <v>--</v>
       </c>
@@ -10301,19 +10309,19 @@
         <f>_xll.qlRateHelperLatestDate($D50)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I50" s="182" t="e">
+      <c r="I50" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D51" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E51" s="186" t="e">
+      <c r="D51" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E51" s="177" t="e">
         <f>_xll.qlRateHelperRate($D51)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="186" t="str">
+      <c r="F51" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
         <v>--</v>
       </c>
@@ -10325,19 +10333,19 @@
         <f>_xll.qlRateHelperLatestDate($D51)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I51" s="182" t="e">
+      <c r="I51" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D52" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E52" s="186" t="e">
+      <c r="D52" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E52" s="177" t="e">
         <f>_xll.qlRateHelperRate($D52)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F52" s="186" t="str">
+      <c r="F52" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
         <v>--</v>
       </c>
@@ -10349,19 +10357,19 @@
         <f>_xll.qlRateHelperLatestDate($D52)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I52" s="182" t="e">
+      <c r="I52" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D53" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E53" s="186" t="e">
+      <c r="D53" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E53" s="177" t="e">
         <f>_xll.qlRateHelperRate($D53)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F53" s="186" t="str">
+      <c r="F53" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
         <v>--</v>
       </c>
@@ -10373,19 +10381,19 @@
         <f>_xll.qlRateHelperLatestDate($D53)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I53" s="182" t="e">
+      <c r="I53" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D54" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E54" s="186" t="e">
+      <c r="D54" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E54" s="177" t="e">
         <f>_xll.qlRateHelperRate($D54)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F54" s="186" t="str">
+      <c r="F54" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D54)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D54)),_xll.qlSwapRateHelperSpread($D54))</f>
         <v>--</v>
       </c>
@@ -10397,19 +10405,19 @@
         <f>_xll.qlRateHelperLatestDate($D54)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I54" s="182" t="e">
+      <c r="I54" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D55" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E55" s="186" t="e">
+      <c r="D55" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E55" s="177" t="e">
         <f>_xll.qlRateHelperRate($D55)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F55" s="186" t="str">
+      <c r="F55" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D55)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D55)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D55)),_xll.qlSwapRateHelperSpread($D55))</f>
         <v>--</v>
       </c>
@@ -10421,19 +10429,19 @@
         <f>_xll.qlRateHelperLatestDate($D55)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I55" s="182" t="e">
+      <c r="I55" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D56" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E56" s="186" t="e">
+      <c r="D56" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E56" s="177" t="e">
         <f>_xll.qlRateHelperRate($D56)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F56" s="186" t="str">
+      <c r="F56" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D56)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D56)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D56)),_xll.qlSwapRateHelperSpread($D56))</f>
         <v>--</v>
       </c>
@@ -10445,19 +10453,19 @@
         <f>_xll.qlRateHelperLatestDate($D56)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I56" s="182" t="e">
+      <c r="I56" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D57" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E57" s="186" t="e">
+      <c r="D57" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E57" s="177" t="e">
         <f>_xll.qlRateHelperRate($D57)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F57" s="186" t="str">
+      <c r="F57" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D57)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D57)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D57)),_xll.qlSwapRateHelperSpread($D57))</f>
         <v>--</v>
       </c>
@@ -10469,19 +10477,19 @@
         <f>_xll.qlRateHelperLatestDate($D57)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I57" s="182" t="e">
+      <c r="I57" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D58" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E58" s="186" t="e">
+      <c r="D58" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E58" s="177" t="e">
         <f>_xll.qlRateHelperRate($D58)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="186" t="str">
+      <c r="F58" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D58)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D58)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D58)),_xll.qlSwapRateHelperSpread($D58))</f>
         <v>--</v>
       </c>
@@ -10493,19 +10501,19 @@
         <f>_xll.qlRateHelperLatestDate($D58)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="182" t="e">
+      <c r="I58" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D59" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E59" s="186" t="e">
+      <c r="D59" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E59" s="177" t="e">
         <f>_xll.qlRateHelperRate($D59)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="186" t="str">
+      <c r="F59" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D59)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D59)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D59)),_xll.qlSwapRateHelperSpread($D59))</f>
         <v>--</v>
       </c>
@@ -10517,19 +10525,19 @@
         <f>_xll.qlRateHelperLatestDate($D59)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="182" t="e">
+      <c r="I59" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D60" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E60" s="186" t="e">
+      <c r="D60" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E60" s="177" t="e">
         <f>_xll.qlRateHelperRate($D60)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F60" s="186" t="str">
+      <c r="F60" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D60)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D60)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D60)),_xll.qlSwapRateHelperSpread($D60))</f>
         <v>--</v>
       </c>
@@ -10541,19 +10549,19 @@
         <f>_xll.qlRateHelperLatestDate($D60)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I60" s="182" t="e">
+      <c r="I60" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D61" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E61" s="186" t="e">
+      <c r="D61" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E61" s="177" t="e">
         <f>_xll.qlRateHelperRate($D61)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F61" s="186" t="str">
+      <c r="F61" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D61)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D61)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D61)),_xll.qlSwapRateHelperSpread($D61))</f>
         <v>--</v>
       </c>
@@ -10565,19 +10573,19 @@
         <f>_xll.qlRateHelperLatestDate($D61)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I61" s="182" t="e">
+      <c r="I61" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D62" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E62" s="186" t="e">
+      <c r="D62" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E62" s="177" t="e">
         <f>_xll.qlRateHelperRate($D62)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F62" s="186" t="str">
+      <c r="F62" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D62)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D62)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D62)),_xll.qlSwapRateHelperSpread($D62))</f>
         <v>--</v>
       </c>
@@ -10589,19 +10597,19 @@
         <f>_xll.qlRateHelperLatestDate($D62)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I62" s="182" t="e">
+      <c r="I62" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D63" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E63" s="186" t="e">
+      <c r="D63" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E63" s="177" t="e">
         <f>_xll.qlRateHelperRate($D63)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F63" s="186" t="str">
+      <c r="F63" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D63)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D63)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D63)),_xll.qlSwapRateHelperSpread($D63))</f>
         <v>--</v>
       </c>
@@ -10613,19 +10621,19 @@
         <f>_xll.qlRateHelperLatestDate($D63)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I63" s="182" t="e">
+      <c r="I63" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D64" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E64" s="186" t="e">
+      <c r="D64" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E64" s="177" t="e">
         <f>_xll.qlRateHelperRate($D64)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F64" s="186" t="str">
+      <c r="F64" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D64)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D64)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D64)),_xll.qlSwapRateHelperSpread($D64))</f>
         <v>--</v>
       </c>
@@ -10637,19 +10645,19 @@
         <f>_xll.qlRateHelperLatestDate($D64)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I64" s="182" t="e">
+      <c r="I64" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D65" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E65" s="186" t="e">
+      <c r="D65" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E65" s="177" t="e">
         <f>_xll.qlRateHelperRate($D65)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F65" s="186" t="str">
+      <c r="F65" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D65)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D65)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D65)),_xll.qlSwapRateHelperSpread($D65))</f>
         <v>--</v>
       </c>
@@ -10661,19 +10669,19 @@
         <f>_xll.qlRateHelperLatestDate($D65)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I65" s="182" t="e">
+      <c r="I65" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D66" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E66" s="186" t="e">
+      <c r="D66" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E66" s="177" t="e">
         <f>_xll.qlRateHelperRate($D66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F66" s="186" t="str">
+      <c r="F66" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D66)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D66)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D66)),_xll.qlSwapRateHelperSpread($D66))</f>
         <v>--</v>
       </c>
@@ -10685,19 +10693,19 @@
         <f>_xll.qlRateHelperLatestDate($D66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I66" s="182" t="e">
+      <c r="I66" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D67" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E67" s="186" t="e">
+      <c r="D67" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E67" s="177" t="e">
         <f>_xll.qlRateHelperRate($D67)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F67" s="186" t="str">
+      <c r="F67" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D67)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D67)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D67)),_xll.qlSwapRateHelperSpread($D67))</f>
         <v>--</v>
       </c>
@@ -10709,19 +10717,19 @@
         <f>_xll.qlRateHelperLatestDate($D67)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I67" s="182" t="e">
+      <c r="I67" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D68" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E68" s="186" t="e">
+      <c r="D68" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E68" s="177" t="e">
         <f>_xll.qlRateHelperRate($D68)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F68" s="186" t="str">
+      <c r="F68" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D68)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D68)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D68)),_xll.qlSwapRateHelperSpread($D68))</f>
         <v>--</v>
       </c>
@@ -10733,19 +10741,19 @@
         <f>_xll.qlRateHelperLatestDate($D68)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I68" s="182" t="e">
+      <c r="I68" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D69" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E69" s="186" t="e">
+      <c r="D69" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E69" s="177" t="e">
         <f>_xll.qlRateHelperRate($D69)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F69" s="186" t="str">
+      <c r="F69" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D69)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D69)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D69)),_xll.qlSwapRateHelperSpread($D69))</f>
         <v>--</v>
       </c>
@@ -10757,19 +10765,19 @@
         <f>_xll.qlRateHelperLatestDate($D69)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I69" s="182" t="e">
+      <c r="I69" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D70" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E70" s="186" t="e">
+      <c r="D70" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E70" s="177" t="e">
         <f>_xll.qlRateHelperRate($D70)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F70" s="186" t="str">
+      <c r="F70" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D70)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D70)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D70)),_xll.qlSwapRateHelperSpread($D70))</f>
         <v>--</v>
       </c>
@@ -10781,19 +10789,19 @@
         <f>_xll.qlRateHelperLatestDate($D70)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I70" s="182" t="e">
+      <c r="I70" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D71" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E71" s="186" t="e">
+      <c r="D71" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E71" s="177" t="e">
         <f>_xll.qlRateHelperRate($D71)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F71" s="186" t="str">
+      <c r="F71" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D71)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D71)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D71)),_xll.qlSwapRateHelperSpread($D71))</f>
         <v>--</v>
       </c>
@@ -10805,19 +10813,19 @@
         <f>_xll.qlRateHelperLatestDate($D71)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I71" s="182" t="e">
+      <c r="I71" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D72" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E72" s="186" t="e">
+      <c r="D72" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E72" s="177" t="e">
         <f>_xll.qlRateHelperRate($D72)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F72" s="186" t="str">
+      <c r="F72" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D72)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D72)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D72)),_xll.qlSwapRateHelperSpread($D72))</f>
         <v>--</v>
       </c>
@@ -10829,19 +10837,19 @@
         <f>_xll.qlRateHelperLatestDate($D72)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I72" s="182" t="e">
+      <c r="I72" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D73" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E73" s="186" t="e">
+      <c r="D73" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E73" s="177" t="e">
         <f>_xll.qlRateHelperRate($D73)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F73" s="186" t="str">
+      <c r="F73" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D73)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D73)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D73)),_xll.qlSwapRateHelperSpread($D73))</f>
         <v>--</v>
       </c>
@@ -10853,19 +10861,19 @@
         <f>_xll.qlRateHelperLatestDate($D73)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I73" s="182" t="e">
+      <c r="I73" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D74" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E74" s="186" t="e">
+      <c r="D74" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E74" s="177" t="e">
         <f>_xll.qlRateHelperRate($D74)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F74" s="186" t="str">
+      <c r="F74" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D74)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D74)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D74)),_xll.qlSwapRateHelperSpread($D74))</f>
         <v>--</v>
       </c>
@@ -10877,19 +10885,19 @@
         <f>_xll.qlRateHelperLatestDate($D74)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I74" s="182" t="e">
+      <c r="I74" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D75" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E75" s="186" t="e">
+      <c r="D75" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E75" s="177" t="e">
         <f>_xll.qlRateHelperRate($D75)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F75" s="186" t="str">
+      <c r="F75" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D75)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D75)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D75)),_xll.qlSwapRateHelperSpread($D75))</f>
         <v>--</v>
       </c>
@@ -10901,19 +10909,19 @@
         <f>_xll.qlRateHelperLatestDate($D75)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I75" s="182" t="e">
+      <c r="I75" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D76" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E76" s="186" t="e">
+      <c r="D76" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E76" s="177" t="e">
         <f>_xll.qlRateHelperRate($D76)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F76" s="186" t="str">
+      <c r="F76" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D76)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D76)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D76)),_xll.qlSwapRateHelperSpread($D76))</f>
         <v>--</v>
       </c>
@@ -10925,19 +10933,19 @@
         <f>_xll.qlRateHelperLatestDate($D76)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I76" s="182" t="e">
+      <c r="I76" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D77" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E77" s="186" t="e">
+      <c r="D77" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E77" s="177" t="e">
         <f>_xll.qlRateHelperRate($D77)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F77" s="186" t="str">
+      <c r="F77" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D77)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D77)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D77)),_xll.qlSwapRateHelperSpread($D77))</f>
         <v>--</v>
       </c>
@@ -10949,19 +10957,19 @@
         <f>_xll.qlRateHelperLatestDate($D77)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I77" s="182" t="e">
+      <c r="I77" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D78" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E78" s="186" t="e">
+      <c r="D78" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E78" s="177" t="e">
         <f>_xll.qlRateHelperRate($D78)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F78" s="186" t="str">
+      <c r="F78" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D78)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D78)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D78)),_xll.qlSwapRateHelperSpread($D78))</f>
         <v>--</v>
       </c>
@@ -10973,19 +10981,19 @@
         <f>_xll.qlRateHelperLatestDate($D78)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I78" s="182" t="e">
+      <c r="I78" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D79" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E79" s="186" t="e">
+      <c r="D79" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E79" s="177" t="e">
         <f>_xll.qlRateHelperRate($D79)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F79" s="186" t="str">
+      <c r="F79" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D79)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D79)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D79)),_xll.qlSwapRateHelperSpread($D79))</f>
         <v>--</v>
       </c>
@@ -10997,19 +11005,19 @@
         <f>_xll.qlRateHelperLatestDate($D79)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I79" s="182" t="e">
+      <c r="I79" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D80" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E80" s="186" t="e">
+      <c r="D80" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E80" s="177" t="e">
         <f>_xll.qlRateHelperRate($D80)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F80" s="186" t="str">
+      <c r="F80" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D80)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D80)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D80)),_xll.qlSwapRateHelperSpread($D80))</f>
         <v>--</v>
       </c>
@@ -11021,19 +11029,19 @@
         <f>_xll.qlRateHelperLatestDate($D80)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I80" s="182" t="e">
+      <c r="I80" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D81" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E81" s="186" t="e">
+      <c r="D81" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E81" s="177" t="e">
         <f>_xll.qlRateHelperRate($D81)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F81" s="186" t="str">
+      <c r="F81" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D81)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D81)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D81)),_xll.qlSwapRateHelperSpread($D81))</f>
         <v>--</v>
       </c>
@@ -11045,19 +11053,19 @@
         <f>_xll.qlRateHelperLatestDate($D81)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I81" s="182" t="e">
+      <c r="I81" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D82" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E82" s="186" t="e">
+      <c r="D82" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E82" s="177" t="e">
         <f>_xll.qlRateHelperRate($D82)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F82" s="186" t="str">
+      <c r="F82" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D82)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D82)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D82)),_xll.qlSwapRateHelperSpread($D82))</f>
         <v>--</v>
       </c>
@@ -11069,19 +11077,19 @@
         <f>_xll.qlRateHelperLatestDate($D82)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I82" s="182" t="e">
+      <c r="I82" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D83" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E83" s="186" t="e">
+      <c r="D83" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E83" s="177" t="e">
         <f>_xll.qlRateHelperRate($D83)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F83" s="186" t="str">
+      <c r="F83" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D83)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D83)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D83)),_xll.qlSwapRateHelperSpread($D83))</f>
         <v>--</v>
       </c>
@@ -11093,19 +11101,19 @@
         <f>_xll.qlRateHelperLatestDate($D83)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I83" s="182" t="e">
+      <c r="I83" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D84" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E84" s="186" t="e">
+      <c r="D84" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E84" s="177" t="e">
         <f>_xll.qlRateHelperRate($D84)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F84" s="186" t="str">
+      <c r="F84" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D84)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D84)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D84)),_xll.qlSwapRateHelperSpread($D84))</f>
         <v>--</v>
       </c>
@@ -11117,19 +11125,19 @@
         <f>_xll.qlRateHelperLatestDate($D84)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I84" s="182" t="e">
+      <c r="I84" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D85" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E85" s="186" t="e">
+      <c r="D85" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E85" s="177" t="e">
         <f>_xll.qlRateHelperRate($D85)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F85" s="186" t="str">
+      <c r="F85" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D85)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D85)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D85)),_xll.qlSwapRateHelperSpread($D85))</f>
         <v>--</v>
       </c>
@@ -11141,19 +11149,19 @@
         <f>_xll.qlRateHelperLatestDate($D85)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I85" s="182" t="e">
+      <c r="I85" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D86" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E86" s="186" t="e">
+      <c r="D86" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E86" s="177" t="e">
         <f>_xll.qlRateHelperRate($D86)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F86" s="186" t="str">
+      <c r="F86" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D86)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D86)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D86)),_xll.qlSwapRateHelperSpread($D86))</f>
         <v>--</v>
       </c>
@@ -11165,19 +11173,19 @@
         <f>_xll.qlRateHelperLatestDate($D86)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I86" s="182" t="e">
+      <c r="I86" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D87" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E87" s="186" t="e">
+      <c r="D87" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E87" s="177" t="e">
         <f>_xll.qlRateHelperRate($D87)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F87" s="186" t="str">
+      <c r="F87" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D87)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D87)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D87)),_xll.qlSwapRateHelperSpread($D87))</f>
         <v>--</v>
       </c>
@@ -11189,19 +11197,19 @@
         <f>_xll.qlRateHelperLatestDate($D87)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I87" s="182" t="e">
+      <c r="I87" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D88" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E88" s="186" t="e">
+      <c r="D88" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E88" s="177" t="e">
         <f>_xll.qlRateHelperRate($D88)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F88" s="186" t="str">
+      <c r="F88" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D88)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D88)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D88)),_xll.qlSwapRateHelperSpread($D88))</f>
         <v>--</v>
       </c>
@@ -11213,19 +11221,19 @@
         <f>_xll.qlRateHelperLatestDate($D88)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I88" s="182" t="e">
+      <c r="I88" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D89" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E89" s="186" t="e">
+      <c r="D89" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E89" s="177" t="e">
         <f>_xll.qlRateHelperRate($D89)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F89" s="186" t="str">
+      <c r="F89" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D89)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D89)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D89)),_xll.qlSwapRateHelperSpread($D89))</f>
         <v>--</v>
       </c>
@@ -11237,19 +11245,19 @@
         <f>_xll.qlRateHelperLatestDate($D89)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I89" s="182" t="e">
+      <c r="I89" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D90" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E90" s="186" t="e">
+      <c r="D90" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E90" s="177" t="e">
         <f>_xll.qlRateHelperRate($D90)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F90" s="186" t="str">
+      <c r="F90" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D90)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D90)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D90)),_xll.qlSwapRateHelperSpread($D90))</f>
         <v>--</v>
       </c>
@@ -11261,19 +11269,19 @@
         <f>_xll.qlRateHelperLatestDate($D90)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I90" s="182" t="e">
+      <c r="I90" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D91" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E91" s="186" t="e">
+      <c r="D91" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E91" s="177" t="e">
         <f>_xll.qlRateHelperRate($D91)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F91" s="186" t="str">
+      <c r="F91" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D91)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D91)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D91)),_xll.qlSwapRateHelperSpread($D91))</f>
         <v>--</v>
       </c>
@@ -11285,19 +11293,19 @@
         <f>_xll.qlRateHelperLatestDate($D91)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I91" s="182" t="e">
+      <c r="I91" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D92" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E92" s="186" t="e">
+      <c r="D92" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E92" s="177" t="e">
         <f>_xll.qlRateHelperRate($D92)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F92" s="186" t="str">
+      <c r="F92" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D92)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D92)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D92)),_xll.qlSwapRateHelperSpread($D92))</f>
         <v>--</v>
       </c>
@@ -11309,19 +11317,19 @@
         <f>_xll.qlRateHelperLatestDate($D92)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I92" s="182" t="e">
+      <c r="I92" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D93" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E93" s="186" t="e">
+      <c r="D93" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E93" s="177" t="e">
         <f>_xll.qlRateHelperRate($D93)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F93" s="186" t="str">
+      <c r="F93" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D93)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D93)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D93)),_xll.qlSwapRateHelperSpread($D93))</f>
         <v>--</v>
       </c>
@@ -11333,19 +11341,19 @@
         <f>_xll.qlRateHelperLatestDate($D93)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I93" s="182" t="e">
+      <c r="I93" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D94" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E94" s="186" t="e">
+      <c r="D94" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E94" s="177" t="e">
         <f>_xll.qlRateHelperRate($D94)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F94" s="186" t="str">
+      <c r="F94" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D94)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D94)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D94)),_xll.qlSwapRateHelperSpread($D94))</f>
         <v>--</v>
       </c>
@@ -11357,19 +11365,19 @@
         <f>_xll.qlRateHelperLatestDate($D94)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I94" s="182" t="e">
+      <c r="I94" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D95" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E95" s="186" t="e">
+      <c r="D95" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E95" s="177" t="e">
         <f>_xll.qlRateHelperRate($D95)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F95" s="186" t="str">
+      <c r="F95" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D95)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D95)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D95)),_xll.qlSwapRateHelperSpread($D95))</f>
         <v>--</v>
       </c>
@@ -11381,19 +11389,19 @@
         <f>_xll.qlRateHelperLatestDate($D95)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I95" s="182" t="e">
+      <c r="I95" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D96" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E96" s="186" t="e">
+      <c r="D96" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E96" s="177" t="e">
         <f>_xll.qlRateHelperRate($D96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F96" s="186" t="str">
+      <c r="F96" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D96)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D96)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D96)),_xll.qlSwapRateHelperSpread($D96))</f>
         <v>--</v>
       </c>
@@ -11405,19 +11413,19 @@
         <f>_xll.qlRateHelperLatestDate($D96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I96" s="182" t="e">
+      <c r="I96" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D97" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E97" s="186" t="e">
+      <c r="D97" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E97" s="177" t="e">
         <f>_xll.qlRateHelperRate($D97)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F97" s="186" t="str">
+      <c r="F97" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D97)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D97)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D97)),_xll.qlSwapRateHelperSpread($D97))</f>
         <v>--</v>
       </c>
@@ -11429,19 +11437,19 @@
         <f>_xll.qlRateHelperLatestDate($D97)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I97" s="182" t="e">
+      <c r="I97" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D98" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E98" s="186" t="e">
+      <c r="D98" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E98" s="177" t="e">
         <f>_xll.qlRateHelperRate($D98)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F98" s="186" t="str">
+      <c r="F98" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D98)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D98)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D98)),_xll.qlSwapRateHelperSpread($D98))</f>
         <v>--</v>
       </c>
@@ -11453,19 +11461,19 @@
         <f>_xll.qlRateHelperLatestDate($D98)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I98" s="182" t="e">
+      <c r="I98" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D99" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E99" s="186" t="e">
+      <c r="D99" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E99" s="177" t="e">
         <f>_xll.qlRateHelperRate($D99)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F99" s="186" t="str">
+      <c r="F99" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D99)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D99)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D99)),_xll.qlSwapRateHelperSpread($D99))</f>
         <v>--</v>
       </c>
@@ -11477,19 +11485,19 @@
         <f>_xll.qlRateHelperLatestDate($D99)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I99" s="182" t="e">
+      <c r="I99" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D100" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E100" s="186" t="e">
+      <c r="D100" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E100" s="177" t="e">
         <f>_xll.qlRateHelperRate($D100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F100" s="186" t="str">
+      <c r="F100" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D100)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D100)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D100)),_xll.qlSwapRateHelperSpread($D100))</f>
         <v>--</v>
       </c>
@@ -11501,19 +11509,19 @@
         <f>_xll.qlRateHelperLatestDate($D100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I100" s="182" t="e">
+      <c r="I100" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D101" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E101" s="186" t="e">
+      <c r="D101" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E101" s="177" t="e">
         <f>_xll.qlRateHelperRate($D101)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F101" s="186" t="str">
+      <c r="F101" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D101)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D101)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D101)),_xll.qlSwapRateHelperSpread($D101))</f>
         <v>--</v>
       </c>
@@ -11525,19 +11533,19 @@
         <f>_xll.qlRateHelperLatestDate($D101)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I101" s="182" t="e">
+      <c r="I101" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D102" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E102" s="186" t="e">
+      <c r="D102" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E102" s="177" t="e">
         <f>_xll.qlRateHelperRate($D102)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F102" s="186" t="str">
+      <c r="F102" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D102)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D102)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D102)),_xll.qlSwapRateHelperSpread($D102))</f>
         <v>--</v>
       </c>
@@ -11549,19 +11557,19 @@
         <f>_xll.qlRateHelperLatestDate($D102)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I102" s="182" t="e">
+      <c r="I102" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D103" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E103" s="186" t="e">
+      <c r="D103" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E103" s="177" t="e">
         <f>_xll.qlRateHelperRate($D103)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F103" s="186" t="str">
+      <c r="F103" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D103)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D103)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D103)),_xll.qlSwapRateHelperSpread($D103))</f>
         <v>--</v>
       </c>
@@ -11573,19 +11581,19 @@
         <f>_xll.qlRateHelperLatestDate($D103)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I103" s="182" t="e">
+      <c r="I103" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D104" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E104" s="186" t="e">
+      <c r="D104" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E104" s="177" t="e">
         <f>_xll.qlRateHelperRate($D104)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F104" s="186" t="str">
+      <c r="F104" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D104)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D104)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D104)),_xll.qlSwapRateHelperSpread($D104))</f>
         <v>--</v>
       </c>
@@ -11597,19 +11605,19 @@
         <f>_xll.qlRateHelperLatestDate($D104)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I104" s="182" t="e">
+      <c r="I104" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D105" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E105" s="186" t="e">
+      <c r="D105" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E105" s="177" t="e">
         <f>_xll.qlRateHelperRate($D105)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F105" s="186" t="str">
+      <c r="F105" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D105)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D105)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D105)),_xll.qlSwapRateHelperSpread($D105))</f>
         <v>--</v>
       </c>
@@ -11621,19 +11629,19 @@
         <f>_xll.qlRateHelperLatestDate($D105)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I105" s="182" t="e">
+      <c r="I105" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D106" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E106" s="186" t="e">
+      <c r="D106" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E106" s="177" t="e">
         <f>_xll.qlRateHelperRate($D106)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F106" s="186" t="str">
+      <c r="F106" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D106)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D106)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D106)),_xll.qlSwapRateHelperSpread($D106))</f>
         <v>--</v>
       </c>
@@ -11645,19 +11653,19 @@
         <f>_xll.qlRateHelperLatestDate($D106)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I106" s="182" t="e">
+      <c r="I106" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D107" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E107" s="186" t="e">
+      <c r="D107" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E107" s="177" t="e">
         <f>_xll.qlRateHelperRate($D107)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F107" s="186" t="str">
+      <c r="F107" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D107)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D107)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D107)),_xll.qlSwapRateHelperSpread($D107))</f>
         <v>--</v>
       </c>
@@ -11669,19 +11677,19 @@
         <f>_xll.qlRateHelperLatestDate($D107)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I107" s="182" t="e">
+      <c r="I107" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D108" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E108" s="186" t="e">
+      <c r="D108" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E108" s="177" t="e">
         <f>_xll.qlRateHelperRate($D108)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F108" s="186" t="str">
+      <c r="F108" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D108)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D108)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D108)),_xll.qlSwapRateHelperSpread($D108))</f>
         <v>--</v>
       </c>
@@ -11693,19 +11701,19 @@
         <f>_xll.qlRateHelperLatestDate($D108)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I108" s="182" t="e">
+      <c r="I108" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D109" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E109" s="186" t="e">
+      <c r="D109" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E109" s="177" t="e">
         <f>_xll.qlRateHelperRate($D109)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F109" s="186" t="str">
+      <c r="F109" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D109)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D109)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D109)),_xll.qlSwapRateHelperSpread($D109))</f>
         <v>--</v>
       </c>
@@ -11717,19 +11725,19 @@
         <f>_xll.qlRateHelperLatestDate($D109)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I109" s="182" t="e">
+      <c r="I109" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D110" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E110" s="186" t="e">
+      <c r="D110" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E110" s="177" t="e">
         <f>_xll.qlRateHelperRate($D110)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F110" s="186" t="str">
+      <c r="F110" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D110)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D110)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D110)),_xll.qlSwapRateHelperSpread($D110))</f>
         <v>--</v>
       </c>
@@ -11741,19 +11749,19 @@
         <f>_xll.qlRateHelperLatestDate($D110)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I110" s="182" t="e">
+      <c r="I110" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D111" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E111" s="186" t="e">
+      <c r="D111" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E111" s="177" t="e">
         <f>_xll.qlRateHelperRate($D111)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F111" s="186" t="str">
+      <c r="F111" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D111)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D111)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D111)),_xll.qlSwapRateHelperSpread($D111))</f>
         <v>--</v>
       </c>
@@ -11765,19 +11773,19 @@
         <f>_xll.qlRateHelperLatestDate($D111)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I111" s="182" t="e">
+      <c r="I111" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D112" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E112" s="186" t="e">
+      <c r="D112" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E112" s="177" t="e">
         <f>_xll.qlRateHelperRate($D112)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F112" s="186" t="str">
+      <c r="F112" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D112)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D112)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D112)),_xll.qlSwapRateHelperSpread($D112))</f>
         <v>--</v>
       </c>
@@ -11789,19 +11797,19 @@
         <f>_xll.qlRateHelperLatestDate($D112)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I112" s="182" t="e">
+      <c r="I112" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D113" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E113" s="186" t="e">
+      <c r="D113" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E113" s="177" t="e">
         <f>_xll.qlRateHelperRate($D113)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F113" s="186" t="str">
+      <c r="F113" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D113)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D113)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D113)),_xll.qlSwapRateHelperSpread($D113))</f>
         <v>--</v>
       </c>
@@ -11813,19 +11821,19 @@
         <f>_xll.qlRateHelperLatestDate($D113)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I113" s="182" t="e">
+      <c r="I113" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D114" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E114" s="186" t="e">
+      <c r="D114" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E114" s="177" t="e">
         <f>_xll.qlRateHelperRate($D114)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F114" s="186" t="str">
+      <c r="F114" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D114)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D114)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D114)),_xll.qlSwapRateHelperSpread($D114))</f>
         <v>--</v>
       </c>
@@ -11837,19 +11845,19 @@
         <f>_xll.qlRateHelperLatestDate($D114)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I114" s="182" t="e">
+      <c r="I114" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D115" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E115" s="186" t="e">
+      <c r="D115" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E115" s="177" t="e">
         <f>_xll.qlRateHelperRate($D115)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F115" s="186" t="str">
+      <c r="F115" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D115)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D115)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D115)),_xll.qlSwapRateHelperSpread($D115))</f>
         <v>--</v>
       </c>
@@ -11861,19 +11869,19 @@
         <f>_xll.qlRateHelperLatestDate($D115)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I115" s="182" t="e">
+      <c r="I115" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D116" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E116" s="186" t="e">
+      <c r="D116" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E116" s="177" t="e">
         <f>_xll.qlRateHelperRate($D116)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F116" s="186" t="str">
+      <c r="F116" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D116)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D116)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D116)),_xll.qlSwapRateHelperSpread($D116))</f>
         <v>--</v>
       </c>
@@ -11885,19 +11893,19 @@
         <f>_xll.qlRateHelperLatestDate($D116)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I116" s="182" t="e">
+      <c r="I116" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D117" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E117" s="186" t="e">
+      <c r="D117" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E117" s="177" t="e">
         <f>_xll.qlRateHelperRate($D117)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F117" s="186" t="str">
+      <c r="F117" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D117)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D117)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D117)),_xll.qlSwapRateHelperSpread($D117))</f>
         <v>--</v>
       </c>
@@ -11909,19 +11917,19 @@
         <f>_xll.qlRateHelperLatestDate($D117)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I117" s="182" t="e">
+      <c r="I117" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D118" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E118" s="186" t="e">
+      <c r="D118" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E118" s="177" t="e">
         <f>_xll.qlRateHelperRate($D118)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F118" s="186" t="str">
+      <c r="F118" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D118)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D118)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D118)),_xll.qlSwapRateHelperSpread($D118))</f>
         <v>--</v>
       </c>
@@ -11933,19 +11941,19 @@
         <f>_xll.qlRateHelperLatestDate($D118)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I118" s="182" t="e">
+      <c r="I118" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D119" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E119" s="186" t="e">
+      <c r="D119" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E119" s="177" t="e">
         <f>_xll.qlRateHelperRate($D119)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F119" s="186" t="str">
+      <c r="F119" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D119)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D119)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D119)),_xll.qlSwapRateHelperSpread($D119))</f>
         <v>--</v>
       </c>
@@ -11957,19 +11965,19 @@
         <f>_xll.qlRateHelperLatestDate($D119)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I119" s="182" t="e">
+      <c r="I119" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D120" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E120" s="186" t="e">
+      <c r="D120" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E120" s="177" t="e">
         <f>_xll.qlRateHelperRate($D120)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F120" s="186" t="str">
+      <c r="F120" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D120)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D120)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D120)),_xll.qlSwapRateHelperSpread($D120))</f>
         <v>--</v>
       </c>
@@ -11981,19 +11989,19 @@
         <f>_xll.qlRateHelperLatestDate($D120)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I120" s="182" t="e">
+      <c r="I120" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D121" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E121" s="186" t="e">
+      <c r="D121" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E121" s="177" t="e">
         <f>_xll.qlRateHelperRate($D121)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F121" s="186" t="str">
+      <c r="F121" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D121)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D121)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D121)),_xll.qlSwapRateHelperSpread($D121))</f>
         <v>--</v>
       </c>
@@ -12005,19 +12013,19 @@
         <f>_xll.qlRateHelperLatestDate($D121)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I121" s="182" t="e">
+      <c r="I121" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D122" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E122" s="186" t="e">
+      <c r="D122" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E122" s="177" t="e">
         <f>_xll.qlRateHelperRate($D122)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F122" s="186" t="str">
+      <c r="F122" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D122)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D122)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D122)),_xll.qlSwapRateHelperSpread($D122))</f>
         <v>--</v>
       </c>
@@ -12029,19 +12037,19 @@
         <f>_xll.qlRateHelperLatestDate($D122)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I122" s="182" t="e">
+      <c r="I122" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D123" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E123" s="186" t="e">
+      <c r="D123" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E123" s="177" t="e">
         <f>_xll.qlRateHelperRate($D123)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F123" s="186" t="str">
+      <c r="F123" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D123)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D123)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D123)),_xll.qlSwapRateHelperSpread($D123))</f>
         <v>--</v>
       </c>
@@ -12053,19 +12061,19 @@
         <f>_xll.qlRateHelperLatestDate($D123)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I123" s="182" t="e">
+      <c r="I123" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D124" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E124" s="186" t="e">
+      <c r="D124" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E124" s="177" t="e">
         <f>_xll.qlRateHelperRate($D124)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F124" s="186" t="str">
+      <c r="F124" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D124)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D124)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D124)),_xll.qlSwapRateHelperSpread($D124))</f>
         <v>--</v>
       </c>
@@ -12077,19 +12085,19 @@
         <f>_xll.qlRateHelperLatestDate($D124)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I124" s="182" t="e">
+      <c r="I124" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D125" s="185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E125" s="186" t="e">
+      <c r="D125" s="176" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E125" s="177" t="e">
         <f>_xll.qlRateHelperRate($D125)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F125" s="186" t="str">
+      <c r="F125" s="177" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D125)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D125)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D125)),_xll.qlSwapRateHelperSpread($D125))</f>
         <v>--</v>
       </c>
@@ -12101,31 +12109,31 @@
         <f>_xll.qlRateHelperLatestDate($D125)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I125" s="182" t="e">
+      <c r="I125" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="4:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D126" s="195" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E126" s="196" t="e">
+      <c r="D126" s="184" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E126" s="185" t="e">
         <f>_xll.qlRateHelperRate($D126)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F126" s="196" t="str">
+      <c r="F126" s="185" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D126)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D126)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D126)),_xll.qlSwapRateHelperSpread($D126))</f>
         <v>--</v>
       </c>
-      <c r="G126" s="197" t="e">
+      <c r="G126" s="189" t="e">
         <f>_xll.qlRateHelperEarliestDate($D126)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H126" s="198" t="e">
+      <c r="H126" s="190" t="e">
         <f>_xll.qlRateHelperLatestDate($D126)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I126" s="182" t="e">
+      <c r="I126" s="173" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -12148,185 +12156,211 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="68" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="68" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="68" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="68" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="68"/>
+    <col min="3" max="3" width="11.7109375" style="68" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="68" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="68" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="68" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="86" t="s">
         <v>141</v>
       </c>
       <c r="B1" s="85"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="84" t="str">
-        <f>Currency&amp;"_YC"&amp;$C$1&amp;"RH"</f>
+      <c r="E1" s="84" t="str">
+        <f>Currency&amp;"_YC"&amp;$D$1&amp;"RH"</f>
         <v>USD_YC6MRH</v>
       </c>
-      <c r="E1" s="83"/>
       <c r="F1" s="83"/>
-      <c r="G1" s="72"/>
-    </row>
-    <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="83"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="78"/>
       <c r="B2" s="82" t="s">
         <v>145</v>
       </c>
       <c r="C2" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="81" t="str">
-        <f>$D$1&amp;"_Deposits.xml"</f>
+      <c r="E2" s="81" t="str">
+        <f>$E$1&amp;"_Deposits.xml"</f>
         <v>USD_YC6MRH_Deposits.xml</v>
       </c>
-      <c r="E2" s="80" t="str">
-        <f>IF(Serialize,_xll.ohObjectSave(E3:E7,SerializationPath&amp;D2,FileOverwrite,Serialize),"---")</f>
+      <c r="F2" s="80" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(F3:F7,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
-      <c r="F2" s="79" t="str">
-        <f>_xll.ohRangeRetrieveError(E2)</f>
+      <c r="G2" s="79" t="str">
+        <f>_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
-      <c r="G2" s="72"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="72"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="78"/>
       <c r="B3" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="76" t="str">
-        <f>Currency&amp;B3&amp;"D_SYNTH"&amp;$C$1&amp;QuoteSuffix</f>
+      <c r="C3" s="191" t="str">
+        <f>Currency&amp;FamilyName&amp;B3</f>
+        <v>USDLiborSW</v>
+      </c>
+      <c r="D3" s="76" t="str">
+        <f>Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
         <v>USDSWD_SYNTH6M_Quote</v>
       </c>
-      <c r="D3" s="75" t="str">
-        <f>$D$1&amp;"_"&amp;$B3&amp;"D"</f>
+      <c r="E3" s="75" t="str">
+        <f>$E$1&amp;"_"&amp;$B3&amp;"D"</f>
         <v>USD_YC6MRH_SWD</v>
       </c>
-      <c r="E3" s="74" t="str">
-        <f>_xll.qlDepositRateHelper(D3,C3,Currency&amp;FamilyName&amp;B3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_SWD#0007</v>
-      </c>
-      <c r="F3" s="73" t="str">
-        <f>_xll.ohRangeRetrieveError(E3)</f>
+      <c r="F3" s="74" t="str">
+        <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>USD_YC6MRH_SWD#0001</v>
+      </c>
+      <c r="G3" s="73" t="str">
+        <f>_xll.ohRangeRetrieveError(F3)</f>
         <v/>
       </c>
-      <c r="G3" s="72"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="72"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="78"/>
       <c r="B4" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="76" t="str">
-        <f>Currency&amp;B4&amp;"D_SYNTH"&amp;$C$1&amp;QuoteSuffix</f>
+      <c r="C4" s="191" t="str">
+        <f>Currency&amp;FamilyName&amp;B4</f>
+        <v>USDLibor1M</v>
+      </c>
+      <c r="D4" s="76" t="str">
+        <f>Currency&amp;B4&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
         <v>USD1MD_SYNTH6M_Quote</v>
       </c>
-      <c r="D4" s="75" t="str">
-        <f>$D$1&amp;"_"&amp;$B4&amp;"D"</f>
+      <c r="E4" s="75" t="str">
+        <f>$E$1&amp;"_"&amp;$B4&amp;"D"</f>
         <v>USD_YC6MRH_1MD</v>
       </c>
-      <c r="E4" s="74" t="str">
-        <f>_xll.qlDepositRateHelper(D4,C4,Currency&amp;FamilyName&amp;B4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_1MD#0007</v>
-      </c>
-      <c r="F4" s="73" t="str">
-        <f>_xll.ohRangeRetrieveError(E4)</f>
+      <c r="F4" s="74" t="str">
+        <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>USD_YC6MRH_1MD#0001</v>
+      </c>
+      <c r="G4" s="73" t="str">
+        <f>_xll.ohRangeRetrieveError(F4)</f>
         <v/>
       </c>
-      <c r="G4" s="72"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="72"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="78"/>
       <c r="B5" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="76" t="str">
-        <f>Currency&amp;B5&amp;"D_SYNTH"&amp;$C$1&amp;QuoteSuffix</f>
+      <c r="C5" s="191" t="str">
+        <f>Currency&amp;FamilyName&amp;B5</f>
+        <v>USDLibor2M</v>
+      </c>
+      <c r="D5" s="76" t="str">
+        <f>Currency&amp;B5&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
         <v>USD2MD_SYNTH6M_Quote</v>
       </c>
-      <c r="D5" s="75" t="str">
-        <f>$D$1&amp;"_"&amp;$B5&amp;"D"</f>
+      <c r="E5" s="75" t="str">
+        <f>$E$1&amp;"_"&amp;$B5&amp;"D"</f>
         <v>USD_YC6MRH_2MD</v>
       </c>
-      <c r="E5" s="74" t="str">
-        <f>_xll.qlDepositRateHelper(D5,C5,Currency&amp;FamilyName&amp;B5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_2MD#0007</v>
-      </c>
-      <c r="F5" s="73" t="str">
-        <f>_xll.ohRangeRetrieveError(E5)</f>
+      <c r="F5" s="74" t="str">
+        <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>USD_YC6MRH_2MD#0001</v>
+      </c>
+      <c r="G5" s="73" t="str">
+        <f>_xll.ohRangeRetrieveError(F5)</f>
         <v/>
       </c>
-      <c r="G5" s="72"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="72"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="78"/>
       <c r="B6" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="76" t="str">
-        <f>Currency&amp;B6&amp;"D_SYNTH"&amp;$C$1&amp;QuoteSuffix</f>
+      <c r="C6" s="191" t="str">
+        <f>Currency&amp;FamilyName&amp;B6</f>
+        <v>USDLibor3M</v>
+      </c>
+      <c r="D6" s="76" t="str">
+        <f>Currency&amp;B6&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
         <v>USD3MD_SYNTH6M_Quote</v>
       </c>
-      <c r="D6" s="75" t="str">
-        <f>$D$1&amp;"_"&amp;$B6&amp;"D"</f>
+      <c r="E6" s="75" t="str">
+        <f>$E$1&amp;"_"&amp;$B6&amp;"D"</f>
         <v>USD_YC6MRH_3MD</v>
       </c>
-      <c r="E6" s="74" t="str">
-        <f>_xll.qlDepositRateHelper(D6,C6,Currency&amp;FamilyName&amp;B6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_3MD#0007</v>
-      </c>
-      <c r="F6" s="73" t="str">
-        <f>_xll.ohRangeRetrieveError(E6)</f>
+      <c r="F6" s="74" t="str">
+        <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>USD_YC6MRH_3MD#0001</v>
+      </c>
+      <c r="G6" s="73" t="str">
+        <f>_xll.ohRangeRetrieveError(F6)</f>
         <v/>
       </c>
-      <c r="G6" s="72"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="72"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="78"/>
       <c r="B7" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="76" t="str">
-        <f>Currency&amp;B7&amp;"D_SYNTH"&amp;$C$1&amp;QuoteSuffix</f>
+      <c r="C7" s="191" t="str">
+        <f>Currency&amp;FamilyName&amp;B7</f>
+        <v>USDLibor6M</v>
+      </c>
+      <c r="D7" s="76" t="str">
+        <f>Currency&amp;B7&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
         <v>USD6MD_SYNTH6M_Quote</v>
       </c>
-      <c r="D7" s="75" t="str">
-        <f>$D$1&amp;"_"&amp;$B7&amp;"D"</f>
+      <c r="E7" s="75" t="str">
+        <f>$E$1&amp;"_"&amp;$B7&amp;"D"</f>
         <v>USD_YC6MRH_6MD</v>
       </c>
-      <c r="E7" s="74" t="str">
-        <f>_xll.qlDepositRateHelper(D7,C7,Currency&amp;FamilyName&amp;B7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_6MD#0007</v>
-      </c>
-      <c r="F7" s="73" t="str">
-        <f>_xll.ohRangeRetrieveError(E7)</f>
+      <c r="F7" s="74" t="str">
+        <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>USD_YC6MRH_6MD#0001</v>
+      </c>
+      <c r="G7" s="73" t="str">
+        <f>_xll.ohRangeRetrieveError(F7)</f>
         <v/>
       </c>
-      <c r="G7" s="72"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="72"/>
+    </row>
+    <row r="8" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="71"/>
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
       <c r="D8" s="70"/>
       <c r="E8" s="70"/>
       <c r="F8" s="70"/>
-      <c r="G8" s="69"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12439,7 +12473,7 @@
       </c>
       <c r="I3" s="114" t="str">
         <f>_xll.qlFraRateHelper(H3,G3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_1x7F#0005</v>
+        <v>USD_YC6MRH_1x7F#0001</v>
       </c>
       <c r="J3" s="113" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -12477,7 +12511,7 @@
       </c>
       <c r="I4" s="109" t="str">
         <f>_xll.qlFraRateHelper(H4,G4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_2x8F#0005</v>
+        <v>USD_YC6MRH_2x8F#0001</v>
       </c>
       <c r="J4" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -12515,7 +12549,7 @@
       </c>
       <c r="I5" s="109" t="str">
         <f>_xll.qlFraRateHelper(H5,G5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_3x9F#0005</v>
+        <v>USD_YC6MRH_3x9F#0001</v>
       </c>
       <c r="J5" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -12553,7 +12587,7 @@
       </c>
       <c r="I6" s="109" t="str">
         <f>_xll.qlFraRateHelper(H6,G6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_4x10F#0005</v>
+        <v>USD_YC6MRH_4x10F#0001</v>
       </c>
       <c r="J6" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -12591,7 +12625,7 @@
       </c>
       <c r="I7" s="109" t="str">
         <f>_xll.qlFraRateHelper(H7,G7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_5x11F#0005</v>
+        <v>USD_YC6MRH_5x11F#0001</v>
       </c>
       <c r="J7" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -12629,7 +12663,7 @@
       </c>
       <c r="I8" s="109" t="str">
         <f>_xll.qlFraRateHelper(H8,G8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_6x12F#0005</v>
+        <v>USD_YC6MRH_6x12F#0001</v>
       </c>
       <c r="J8" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -12667,7 +12701,7 @@
       </c>
       <c r="I9" s="109" t="str">
         <f>_xll.qlFraRateHelper(H9,G9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_12x18F#0005</v>
+        <v>USD_YC6MRH_12x18F#0001</v>
       </c>
       <c r="J9" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -12705,7 +12739,7 @@
       </c>
       <c r="I10" s="109" t="str">
         <f>_xll.qlFraRateHelper(H10,G10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_18x24F#0005</v>
+        <v>USD_YC6MRH_18x24F#0001</v>
       </c>
       <c r="J10" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -12869,7 +12903,7 @@
       </c>
       <c r="L4" s="151" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>USD_YC6MRH_AM6LBASIS_Libor6M#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS_Libor6M#0001</v>
       </c>
       <c r="M4" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -12933,7 +12967,7 @@
       </c>
       <c r="L6" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS1Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS1Y#0001</v>
       </c>
       <c r="M6" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -12982,7 +13016,7 @@
       </c>
       <c r="L7" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS2Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS2Y#0001</v>
       </c>
       <c r="M7" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -13031,7 +13065,7 @@
       </c>
       <c r="L8" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS3Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS3Y#0001</v>
       </c>
       <c r="M8" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -13080,7 +13114,7 @@
       </c>
       <c r="L9" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS4Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS4Y#0001</v>
       </c>
       <c r="M9" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -13129,7 +13163,7 @@
       </c>
       <c r="L10" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS5Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS5Y#0001</v>
       </c>
       <c r="M10" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -13187,7 +13221,7 @@
       </c>
       <c r="L11" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS6Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS6Y#0001</v>
       </c>
       <c r="M11" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -13245,7 +13279,7 @@
       </c>
       <c r="L12" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS7Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS7Y#0001</v>
       </c>
       <c r="M12" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -13303,7 +13337,7 @@
       </c>
       <c r="L13" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS8Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS8Y#0001</v>
       </c>
       <c r="M13" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -13361,7 +13395,7 @@
       </c>
       <c r="L14" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS9Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS9Y#0001</v>
       </c>
       <c r="M14" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -13419,7 +13453,7 @@
       </c>
       <c r="L15" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS10Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS10Y#0001</v>
       </c>
       <c r="M15" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -13471,7 +13505,7 @@
       </c>
       <c r="L16" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS11Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS11Y#0001</v>
       </c>
       <c r="M16" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -13520,7 +13554,7 @@
       </c>
       <c r="L17" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS12Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS12Y#0001</v>
       </c>
       <c r="M17" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -13569,7 +13603,7 @@
       </c>
       <c r="L18" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS13Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS13Y#0001</v>
       </c>
       <c r="M18" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -13618,7 +13652,7 @@
       </c>
       <c r="L19" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS14Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS14Y#0001</v>
       </c>
       <c r="M19" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -13667,7 +13701,7 @@
       </c>
       <c r="L20" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS15Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS15Y#0001</v>
       </c>
       <c r="M20" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -13716,7 +13750,7 @@
       </c>
       <c r="L21" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS16Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS16Y#0001</v>
       </c>
       <c r="M21" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -13765,7 +13799,7 @@
       </c>
       <c r="L22" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS17Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS17Y#0001</v>
       </c>
       <c r="M22" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -13814,7 +13848,7 @@
       </c>
       <c r="L23" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS18Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS18Y#0001</v>
       </c>
       <c r="M23" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -13863,7 +13897,7 @@
       </c>
       <c r="L24" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS19Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS19Y#0001</v>
       </c>
       <c r="M24" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -13912,7 +13946,7 @@
       </c>
       <c r="L25" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS20Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS20Y#0001</v>
       </c>
       <c r="M25" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -13961,7 +13995,7 @@
       </c>
       <c r="L26" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS21Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS21Y#0001</v>
       </c>
       <c r="M26" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -14010,7 +14044,7 @@
       </c>
       <c r="L27" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS22Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS22Y#0001</v>
       </c>
       <c r="M27" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -14059,7 +14093,7 @@
       </c>
       <c r="L28" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS23Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS23Y#0001</v>
       </c>
       <c r="M28" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -14108,7 +14142,7 @@
       </c>
       <c r="L29" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS24Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS24Y#0001</v>
       </c>
       <c r="M29" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -14157,7 +14191,7 @@
       </c>
       <c r="L30" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS25Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS25Y#0001</v>
       </c>
       <c r="M30" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -14206,7 +14240,7 @@
       </c>
       <c r="L31" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS26Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS26Y#0001</v>
       </c>
       <c r="M31" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -14255,7 +14289,7 @@
       </c>
       <c r="L32" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS27Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS27Y#0001</v>
       </c>
       <c r="M32" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -14304,7 +14338,7 @@
       </c>
       <c r="L33" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS28Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS28Y#0001</v>
       </c>
       <c r="M33" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -14353,7 +14387,7 @@
       </c>
       <c r="L34" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS29Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS29Y#0001</v>
       </c>
       <c r="M34" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -14402,7 +14436,7 @@
       </c>
       <c r="L35" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS30Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS30Y#0001</v>
       </c>
       <c r="M35" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -14451,7 +14485,7 @@
       </c>
       <c r="L36" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS35Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS35Y#0001</v>
       </c>
       <c r="M36" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -14500,7 +14534,7 @@
       </c>
       <c r="L37" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS40Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS40Y#0001</v>
       </c>
       <c r="M37" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -14549,7 +14583,7 @@
       </c>
       <c r="L38" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS50Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS50Y#0001</v>
       </c>
       <c r="M38" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -14598,7 +14632,7 @@
       </c>
       <c r="L39" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS60Y#0003</v>
+        <v>USD_YC6MRH_AM6LBASIS60Y#0001</v>
       </c>
       <c r="M39" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>

--- a/QuantLibXL/Data2/XLS/USD_YC6MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YC6MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15270" yWindow="-15" windowWidth="15315" windowHeight="8280" tabRatio="822"/>
+    <workbookView xWindow="15270" yWindow="-15" windowWidth="15315" windowHeight="8280" tabRatio="822" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -2151,7 +2151,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2393,7 +2393,7 @@
         <v>90</v>
       </c>
       <c r="D12" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="D14" s="22" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYC6M#0001</v>
+        <v>_USDYC6M#0002</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2637,7 +2637,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="4">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="D27" s="3">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2652,11 +2652,11 @@
       <c r="B28" s="1"/>
       <c r="C28" s="58">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>60044</v>
+        <v>60062</v>
       </c>
       <c r="D28" s="57">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.17107176783742037</v>
+        <v>0.16549227213301132</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="F4" s="83">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>3.8649999999999999E-3</v>
+        <v>3.4610000000000001E-3</v>
       </c>
       <c r="G4" s="83"/>
       <c r="H4" s="84" t="b">
@@ -2919,11 +2919,11 @@
       </c>
       <c r="K4" s="85">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L4" s="86">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41788</v>
+        <v>41806</v>
       </c>
       <c r="M4" s="59">
         <v>40</v>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="F5" s="83">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>3.6909999999999998E-3</v>
+        <v>3.388E-3</v>
       </c>
       <c r="G5" s="83"/>
       <c r="H5" s="84" t="b">
@@ -2958,11 +2958,11 @@
       </c>
       <c r="K5" s="85">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L5" s="86">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41813</v>
+        <v>41829</v>
       </c>
       <c r="M5" s="59">
         <v>70</v>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="F6" s="83">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>3.529E-3</v>
+        <v>3.3279999999999998E-3</v>
       </c>
       <c r="G6" s="83"/>
       <c r="H6" s="84" t="b">
@@ -2997,11 +2997,11 @@
       </c>
       <c r="K6" s="85">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L6" s="86">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41842</v>
+        <v>41862</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="F7" s="83">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>3.4099999999999998E-3</v>
+        <v>3.2820000000000002E-3</v>
       </c>
       <c r="G7" s="83"/>
       <c r="H7" s="84" t="b">
@@ -3030,11 +3030,11 @@
       </c>
       <c r="K7" s="85">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L7" s="86">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41873</v>
+        <v>41891</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="F8" s="83">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>3.326E-3</v>
+        <v>3.2560000000000002E-3</v>
       </c>
       <c r="G8" s="83"/>
       <c r="H8" s="84" t="b">
@@ -3063,11 +3063,11 @@
       </c>
       <c r="K8" s="85">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L8" s="86">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41904</v>
+        <v>41921</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="F9" s="83">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>3.2690000000000002E-3</v>
+        <v>3.2330000000000002E-3</v>
       </c>
       <c r="G9" s="83"/>
       <c r="H9" s="84" t="b">
@@ -3096,11 +3096,11 @@
       </c>
       <c r="K9" s="85">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L9" s="86">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41934</v>
+        <v>41953</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="F10" s="83">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>3.2529999999999998E-3</v>
+        <v>3.2290000000000001E-3</v>
       </c>
       <c r="G10" s="83"/>
       <c r="H10" s="84" t="b">
@@ -3129,11 +3129,11 @@
       </c>
       <c r="K10" s="85">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L10" s="86">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41967</v>
+        <v>41982</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="F14" s="83">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
-        <v>3.1900000000000001E-3</v>
+        <v>3.2300000000000002E-3</v>
       </c>
       <c r="G14" s="83"/>
       <c r="H14" s="84" t="b">
@@ -3276,11 +3276,11 @@
       </c>
       <c r="K14" s="85">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41813</v>
+        <v>41829</v>
       </c>
       <c r="L14" s="86">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>41996</v>
+        <v>42013</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="F15" s="83">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
-        <v>3.2599999999999994E-3</v>
+        <v>3.2699999999999995E-3</v>
       </c>
       <c r="G15" s="83"/>
       <c r="H15" s="84" t="b">
@@ -3314,11 +3314,11 @@
       </c>
       <c r="K15" s="85">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>41842</v>
+        <v>41862</v>
       </c>
       <c r="L15" s="86">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>42026</v>
+        <v>42046</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="F16" s="83">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>3.2799999999999995E-3</v>
+        <v>3.3299999999999996E-3</v>
       </c>
       <c r="G16" s="83"/>
       <c r="H16" s="84" t="b">
@@ -3352,11 +3352,11 @@
       </c>
       <c r="K16" s="85">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41873</v>
+        <v>41891</v>
       </c>
       <c r="L16" s="86">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>42058</v>
+        <v>42072</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="F17" s="83">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
-        <v>3.3599999999999997E-3</v>
+        <v>3.4199999999999999E-3</v>
       </c>
       <c r="G17" s="83"/>
       <c r="H17" s="84" t="b">
@@ -3390,11 +3390,11 @@
       </c>
       <c r="K17" s="85">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>41904</v>
+        <v>41921</v>
       </c>
       <c r="L17" s="86">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>42086</v>
+        <v>42103</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="F18" s="83">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
-        <v>3.4799999999999996E-3</v>
+        <v>3.5799999999999998E-3</v>
       </c>
       <c r="G18" s="83"/>
       <c r="H18" s="84" t="b">
@@ -3428,11 +3428,11 @@
       </c>
       <c r="K18" s="85">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>41934</v>
+        <v>41953</v>
       </c>
       <c r="L18" s="86">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>42116</v>
+        <v>42135</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="F19" s="83">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>3.65E-3</v>
+        <v>3.7799999999999999E-3</v>
       </c>
       <c r="G19" s="83"/>
       <c r="H19" s="84" t="b">
@@ -3466,11 +3466,11 @@
       </c>
       <c r="K19" s="85">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41967</v>
+        <v>41982</v>
       </c>
       <c r="L19" s="86">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42150</v>
+        <v>42164</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="F20" s="83">
         <f>_xll.qlRateHelperQuoteValue($E20,Trigger)</f>
-        <v>3.8349999999999999E-3</v>
+        <v>7.221E-3</v>
       </c>
       <c r="G20" s="83"/>
       <c r="H20" s="84" t="b">
@@ -3504,11 +3504,11 @@
       </c>
       <c r="K20" s="85">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>41995</v>
+        <v>42013</v>
       </c>
       <c r="L20" s="86">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>42177</v>
+        <v>42194</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="F21" s="83">
         <f>_xll.qlRateHelperQuoteValue($E21,Trigger)</f>
-        <v>4.1260000000000003E-3</v>
+        <v>7.6819999999999996E-3</v>
       </c>
       <c r="G21" s="83"/>
       <c r="H21" s="84" t="b">
@@ -3542,11 +3542,11 @@
       </c>
       <c r="K21" s="85">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>42026</v>
+        <v>42044</v>
       </c>
       <c r="L21" s="86">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>42207</v>
+        <v>42226</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="F22" s="83">
         <f>_xll.qlRateHelperQuoteValue($E22,Trigger)</f>
-        <v>4.5599999999999998E-3</v>
+        <v>4.8300000000000001E-3</v>
       </c>
       <c r="G22" s="83"/>
       <c r="H22" s="84" t="b">
@@ -3580,11 +3580,11 @@
       </c>
       <c r="K22" s="85">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>42058</v>
+        <v>42072</v>
       </c>
       <c r="L22" s="86">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>42240</v>
+        <v>42256</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="F23" s="83">
         <f>_xll.qlRateHelperQuoteValue($E23,Trigger)</f>
-        <v>4.9560000000000003E-3</v>
+        <v>8.7749999999999998E-3</v>
       </c>
       <c r="G23" s="83"/>
       <c r="H23" s="84" t="b">
@@ -3618,11 +3618,11 @@
       </c>
       <c r="K23" s="85">
         <f>_xll.qlRateHelperEarliestDate($E23,Trigger)</f>
-        <v>42086</v>
+        <v>42103</v>
       </c>
       <c r="L23" s="86">
         <f>_xll.qlRateHelperLatestDate($E23,Trigger)</f>
-        <v>42270</v>
+        <v>42286</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="F24" s="83">
         <f>_xll.qlRateHelperQuoteValue($E24,Trigger)</f>
-        <v>5.4599999999999996E-3</v>
+        <v>9.3749999999999997E-3</v>
       </c>
       <c r="G24" s="83"/>
       <c r="H24" s="84" t="b">
@@ -3656,11 +3656,11 @@
       </c>
       <c r="K24" s="85">
         <f>_xll.qlRateHelperEarliestDate($E24,Trigger)</f>
-        <v>42116</v>
+        <v>42135</v>
       </c>
       <c r="L24" s="86">
         <f>_xll.qlRateHelperLatestDate($E24,Trigger)</f>
-        <v>42299</v>
+        <v>42320</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="F25" s="83">
         <f>_xll.qlRateHelperQuoteValue($E25,Trigger)</f>
-        <v>6.0799999999999995E-3</v>
+        <v>6.5200000000000006E-3</v>
       </c>
       <c r="G25" s="83"/>
       <c r="H25" s="84" t="b">
@@ -3694,11 +3694,11 @@
       </c>
       <c r="K25" s="85">
         <f>_xll.qlRateHelperEarliestDate($E25,Trigger)</f>
-        <v>42146</v>
+        <v>42164</v>
       </c>
       <c r="L25" s="86">
         <f>_xll.qlRateHelperLatestDate($E25,Trigger)</f>
-        <v>42331</v>
+        <v>42347</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="F26" s="83">
         <f>_xll.qlRateHelperQuoteValue($E26,Trigger)</f>
-        <v>6.6779999999999999E-3</v>
+        <v>1.0761E-2</v>
       </c>
       <c r="G26" s="83"/>
       <c r="H26" s="84" t="b">
@@ -3732,11 +3732,11 @@
       </c>
       <c r="K26" s="85">
         <f>_xll.qlRateHelperEarliestDate($E26,Trigger)</f>
-        <v>42177</v>
+        <v>42194</v>
       </c>
       <c r="L26" s="86">
         <f>_xll.qlRateHelperLatestDate($E26,Trigger)</f>
-        <v>42360</v>
+        <v>42380</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="F27" s="83">
         <f>_xll.qlRateHelperQuoteValue($E27,Trigger)</f>
-        <v>7.3680000000000004E-3</v>
+        <v>1.1455E-2</v>
       </c>
       <c r="G27" s="83"/>
       <c r="H27" s="84" t="b">
@@ -3770,11 +3770,11 @@
       </c>
       <c r="K27" s="85">
         <f>_xll.qlRateHelperEarliestDate($E27,Trigger)</f>
-        <v>42207</v>
+        <v>42226</v>
       </c>
       <c r="L27" s="86">
         <f>_xll.qlRateHelperLatestDate($E27,Trigger)</f>
-        <v>42391</v>
+        <v>42410</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="F28" s="83">
         <f>_xll.qlRateHelperQuoteValue($E28,Trigger)</f>
-        <v>8.1130000000000004E-3</v>
+        <v>1.2232E-2</v>
       </c>
       <c r="G28" s="83"/>
       <c r="H28" s="84" t="b">
@@ -3808,11 +3808,11 @@
       </c>
       <c r="K28" s="85">
         <f>_xll.qlRateHelperEarliestDate($E28,Trigger)</f>
-        <v>42240</v>
+        <v>42256</v>
       </c>
       <c r="L28" s="86">
         <f>_xll.qlRateHelperLatestDate($E28,Trigger)</f>
-        <v>42424</v>
+        <v>42438</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="F29" s="83">
         <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
-        <v>8.8509999999999995E-3</v>
+        <v>1.3017000000000001E-2</v>
       </c>
       <c r="G29" s="83"/>
       <c r="H29" s="84" t="b">
@@ -3846,11 +3846,11 @@
       </c>
       <c r="K29" s="85">
         <f>_xll.qlRateHelperEarliestDate($E29,Trigger)</f>
-        <v>42269</v>
+        <v>42286</v>
       </c>
       <c r="L29" s="86">
         <f>_xll.qlRateHelperLatestDate($E29,Trigger)</f>
-        <v>42451</v>
+        <v>42471</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="F30" s="83">
         <f>_xll.qlRateHelperQuoteValue($E30,Trigger)</f>
-        <v>9.6039999999999997E-3</v>
+        <v>1.3809E-2</v>
       </c>
       <c r="G30" s="83"/>
       <c r="H30" s="84" t="b">
@@ -3884,11 +3884,11 @@
       </c>
       <c r="K30" s="85">
         <f>_xll.qlRateHelperEarliestDate($E30,Trigger)</f>
-        <v>42299</v>
+        <v>42317</v>
       </c>
       <c r="L30" s="86">
         <f>_xll.qlRateHelperLatestDate($E30,Trigger)</f>
-        <v>42482</v>
+        <v>42499</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="F31" s="83">
         <f>_xll.qlRateHelperQuoteValue($E31,Trigger)</f>
-        <v>1.0369999999999999E-2</v>
+        <v>1.099E-2</v>
       </c>
       <c r="G31" s="83"/>
       <c r="H31" s="84" t="b">
@@ -3922,11 +3922,11 @@
       </c>
       <c r="K31" s="85">
         <f>_xll.qlRateHelperEarliestDate($E31,Trigger)</f>
-        <v>42331</v>
+        <v>42347</v>
       </c>
       <c r="L31" s="86">
         <f>_xll.qlRateHelperLatestDate($E31,Trigger)</f>
-        <v>42513</v>
+        <v>42530</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="F32" s="83">
         <f>_xll.qlRateHelperQuoteValue($E32,Trigger)</f>
-        <v>1.1171E-2</v>
+        <v>1.5446E-2</v>
       </c>
       <c r="G32" s="83"/>
       <c r="H32" s="84" t="b">
@@ -3960,11 +3960,11 @@
       </c>
       <c r="K32" s="85">
         <f>_xll.qlRateHelperEarliestDate($E32,Trigger)</f>
-        <v>42360</v>
+        <v>42380</v>
       </c>
       <c r="L32" s="86">
         <f>_xll.qlRateHelperLatestDate($E32,Trigger)</f>
-        <v>42543</v>
+        <v>42562</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="F33" s="83">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
-        <v>1.1918E-2</v>
+        <v>1.6306000000000001E-2</v>
       </c>
       <c r="G33" s="83"/>
       <c r="H33" s="84" t="b">
@@ -3998,11 +3998,11 @@
       </c>
       <c r="K33" s="85">
         <f>_xll.qlRateHelperEarliestDate($E33,Trigger)</f>
-        <v>42391</v>
+        <v>42409</v>
       </c>
       <c r="L33" s="86">
         <f>_xll.qlRateHelperLatestDate($E33,Trigger)</f>
-        <v>42573</v>
+        <v>42591</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="F34" s="83">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
-        <v>1.2696000000000001E-2</v>
+        <v>1.7125999999999999E-2</v>
       </c>
       <c r="G34" s="83"/>
       <c r="H34" s="84" t="b">
@@ -4036,11 +4036,11 @@
       </c>
       <c r="K34" s="85">
         <f>_xll.qlRateHelperEarliestDate($E34,Trigger)</f>
-        <v>42422</v>
+        <v>42438</v>
       </c>
       <c r="L34" s="86">
         <f>_xll.qlRateHelperLatestDate($E34,Trigger)</f>
-        <v>42604</v>
+        <v>42622</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="F35" s="83">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>1.3414000000000001E-2</v>
+        <v>1.7867999999999998E-2</v>
       </c>
       <c r="G35" s="83"/>
       <c r="H35" s="84" t="b">
@@ -4074,11 +4074,11 @@
       </c>
       <c r="K35" s="85">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>42451</v>
+        <v>42471</v>
       </c>
       <c r="L35" s="86">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>42635</v>
+        <v>42654</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="F36" s="83">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
-        <v>1.4208999999999999E-2</v>
+        <v>1.8669000000000002E-2</v>
       </c>
       <c r="G36" s="83"/>
       <c r="H36" s="84" t="b">
@@ -4112,11 +4112,11 @@
       </c>
       <c r="K36" s="85">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>42482</v>
+        <v>42499</v>
       </c>
       <c r="L36" s="86">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>42667</v>
+        <v>42683</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="F37" s="83">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
-        <v>1.4964E-2</v>
+        <v>1.9484999999999999E-2</v>
       </c>
       <c r="G37" s="88"/>
       <c r="H37" s="89" t="b">
@@ -4150,11 +4150,11 @@
       </c>
       <c r="K37" s="90">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>42513</v>
+        <v>42530</v>
       </c>
       <c r="L37" s="91">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>42697</v>
+        <v>42713</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -4168,11 +4168,11 @@
       </c>
       <c r="D38" s="92" t="str">
         <f t="array" ref="D38:D79">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A38:$A79)</f>
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E38" s="92" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC6MRH_IMMFRA6MK4</v>
+        <v>USD_YC6MRH_IMMFRA6MM4</v>
       </c>
       <c r="F38" s="192" t="e">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4210,11 +4210,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D39" s="82" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E39" s="82" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC6MRH_IMMFRA6MM4</v>
+        <v>USD_YC6MRH_IMMFRA6MN4</v>
       </c>
       <c r="F39" s="97" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4252,11 +4252,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D40" s="82" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E40" s="82" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC6MRH_IMMFRA6MN4</v>
+        <v>USD_YC6MRH_IMMFRA6MQ4</v>
       </c>
       <c r="F40" s="97" t="e">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4294,11 +4294,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D41" s="82" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E41" s="82" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC6MRH_IMMFRA6MQ4</v>
+        <v>USD_YC6MRH_IMMFRA6MU4</v>
       </c>
       <c r="F41" s="97" t="e">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4336,11 +4336,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D42" s="82" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E42" s="82" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC6MRH_IMMFRA6MU4</v>
+        <v>USD_YC6MRH_IMMFRA6MV4</v>
       </c>
       <c r="F42" s="97" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4378,11 +4378,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D43" s="82" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E43" s="82" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC6MRH_IMMFRA6MV4</v>
+        <v>USD_YC6MRH_IMMFRA6MX4</v>
       </c>
       <c r="F43" s="97" t="e">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4420,11 +4420,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D44" s="82" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E44" s="82" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC6MRH_IMMFRA6MX4</v>
+        <v>USD_YC6MRH_IMMFRA6MZ4</v>
       </c>
       <c r="F44" s="97" t="e">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4462,11 +4462,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D45" s="82" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E45" s="82" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC6MRH_IMMFRA6MZ4</v>
+        <v>USD_YC6MRH_IMMFRA6MF5</v>
       </c>
       <c r="F45" s="97" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4504,11 +4504,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D46" s="82" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E46" s="82" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC6MRH_IMMFRA6MF5</v>
+        <v>USD_YC6MRH_IMMFRA6MG5</v>
       </c>
       <c r="F46" s="97" t="e">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4546,11 +4546,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D47" s="82" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E47" s="82" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC6MRH_IMMFRA6MG5</v>
+        <v>USD_YC6MRH_IMMFRA6MH5</v>
       </c>
       <c r="F47" s="97" t="e">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4588,11 +4588,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D48" s="82" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="E48" s="82" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC6MRH_IMMFRA6MH5</v>
+        <v>USD_YC6MRH_IMMFRA6MJ5</v>
       </c>
       <c r="F48" s="97" t="e">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -4630,11 +4630,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D49" s="82" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="E49" s="82" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC6MRH_IMMFRA6MJ5</v>
+        <v>USD_YC6MRH_IMMFRA6MK5</v>
       </c>
       <c r="F49" s="97" t="e">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="F135" s="83">
         <f>_xll.qlRateHelperQuoteValue($E135,Trigger)</f>
-        <v>3.8383356560912621E-3</v>
+        <v>3.5061806647495226E-3</v>
       </c>
       <c r="G135" s="83">
         <f>_xll.qlSwapRateHelperSpread($E135,Trigger)</f>
@@ -8235,11 +8235,11 @@
       </c>
       <c r="K135" s="85">
         <f>_xll.qlRateHelperEarliestDate($E135,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L135" s="86">
         <f>_xll.qlRateHelperLatestDate($E135,Trigger)</f>
-        <v>42146</v>
+        <v>42164</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.2">
@@ -8386,7 +8386,7 @@
       </c>
       <c r="F139" s="83">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
-        <v>6.0685558389976628E-3</v>
+        <v>6.1566711262975044E-3</v>
       </c>
       <c r="G139" s="83">
         <f>_xll.qlSwapRateHelperSpread($E139,Trigger)</f>
@@ -8403,11 +8403,11 @@
       </c>
       <c r="K139" s="85">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L139" s="86">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>42513</v>
+        <v>42530</v>
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.2">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="F140" s="83">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
-        <v>9.7529557176736052E-3</v>
+        <v>1.0193004281019413E-2</v>
       </c>
       <c r="G140" s="83">
         <f>_xll.qlSwapRateHelperSpread($E140,Trigger)</f>
@@ -8445,11 +8445,11 @@
       </c>
       <c r="K140" s="85">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L140" s="86">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>42877</v>
+        <v>42895</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.2">
@@ -8470,7 +8470,7 @@
       </c>
       <c r="F141" s="83">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
-        <v>1.3684283316713789E-2</v>
+        <v>1.4304299322731426E-2</v>
       </c>
       <c r="G141" s="83">
         <f>_xll.qlSwapRateHelperSpread($E141,Trigger)</f>
@@ -8487,11 +8487,11 @@
       </c>
       <c r="K141" s="85">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L141" s="86">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.2">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="F142" s="83">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
-        <v>1.7085400300891805E-2</v>
+        <v>1.7805386376286945E-2</v>
       </c>
       <c r="G142" s="83">
         <f>_xll.qlSwapRateHelperSpread($E142,Trigger)</f>
@@ -8529,11 +8529,11 @@
       </c>
       <c r="K142" s="85">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L142" s="86">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>43607</v>
+        <v>43626</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.2">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="F143" s="83">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
-        <v>1.9916328418403177E-2</v>
+        <v>2.0716415876999874E-2</v>
       </c>
       <c r="G143" s="83">
         <f>_xll.qlSwapRateHelperSpread($E143,Trigger)</f>
@@ -8571,11 +8571,11 @@
       </c>
       <c r="K143" s="85">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L143" s="86">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>43973</v>
+        <v>43991</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.2">
@@ -8596,7 +8596,7 @@
       </c>
       <c r="F144" s="83">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
-        <v>2.228725414758094E-2</v>
+        <v>2.3087307827136749E-2</v>
       </c>
       <c r="G144" s="83">
         <f>_xll.qlSwapRateHelperSpread($E144,Trigger)</f>
@@ -8613,11 +8613,11 @@
       </c>
       <c r="K144" s="85">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L144" s="86">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>44340</v>
+        <v>44356</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="F145" s="83">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
-        <v>2.4228041980697709E-2</v>
+        <v>2.4997991379020156E-2</v>
       </c>
       <c r="G145" s="83">
         <f>_xll.qlSwapRateHelperSpread($E145,Trigger)</f>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="K145" s="85">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L145" s="86">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>44704</v>
+        <v>44721</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="F146" s="83">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
-        <v>2.5838667292365315E-2</v>
+        <v>2.6588678525473104E-2</v>
       </c>
       <c r="G146" s="83">
         <f>_xll.qlSwapRateHelperSpread($E146,Trigger)</f>
@@ -8697,11 +8697,11 @@
       </c>
       <c r="K146" s="85">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L146" s="86">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>45068</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8722,7 +8722,7 @@
       </c>
       <c r="F147" s="83">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
-        <v>2.7179211544759677E-2</v>
+        <v>2.7909134324662303E-2</v>
       </c>
       <c r="G147" s="83">
         <f>_xll.qlSwapRateHelperSpread($E147,Trigger)</f>
@@ -8739,11 +8739,11 @@
       </c>
       <c r="K147" s="85">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L147" s="86">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>45434</v>
+        <v>45453</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="F148" s="83">
         <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
-        <v>2.8319388532237161E-2</v>
+        <v>2.9050326628021567E-2</v>
       </c>
       <c r="G148" s="83">
         <f>_xll.qlSwapRateHelperSpread($E148,Trigger)</f>
@@ -8781,11 +8781,11 @@
       </c>
       <c r="K148" s="85">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L148" s="86">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>45799</v>
+        <v>45817</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="F149" s="83">
         <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
-        <v>2.9290046337604788E-2</v>
+        <v>3.0040134034395566E-2</v>
       </c>
       <c r="G149" s="83">
         <f>_xll.qlSwapRateHelperSpread($E149,Trigger)</f>
@@ -8823,11 +8823,11 @@
       </c>
       <c r="K149" s="85">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L149" s="86">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>46164</v>
+        <v>46182</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="F150" s="83">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
-        <v>3.0112208281630054E-2</v>
+        <v>3.0869656460142159E-2</v>
       </c>
       <c r="G150" s="83">
         <f>_xll.qlSwapRateHelperSpread($E150,Trigger)</f>
@@ -8865,11 +8865,11 @@
       </c>
       <c r="K150" s="85">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L150" s="86">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>46531</v>
+        <v>46547</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -8890,7 +8890,7 @@
       </c>
       <c r="F151" s="83">
         <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
-        <v>3.0799909179446489E-2</v>
+        <v>3.1569382689633226E-2</v>
       </c>
       <c r="G151" s="83">
         <f>_xll.qlSwapRateHelperSpread($E151,Trigger)</f>
@@ -8907,11 +8907,11 @@
       </c>
       <c r="K151" s="85">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L151" s="86">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>46895</v>
+        <v>46913</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -8932,7 +8932,7 @@
       </c>
       <c r="F152" s="83">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
-        <v>3.1380979850401565E-2</v>
+        <v>3.216097451401656E-2</v>
       </c>
       <c r="G152" s="83">
         <f>_xll.qlSwapRateHelperSpread($E152,Trigger)</f>
@@ -8949,11 +8949,11 @@
       </c>
       <c r="K152" s="85">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L152" s="86">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>47260</v>
+        <v>47280</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="F153" s="83">
         <f>_xll.qlRateHelperQuoteValue($E153,Trigger)</f>
-        <v>3.1871156085985813E-2</v>
+        <v>3.2656614917311803E-2</v>
       </c>
       <c r="G153" s="83">
         <f>_xll.qlSwapRateHelperSpread($E153,Trigger)</f>
@@ -8991,11 +8991,11 @@
       </c>
       <c r="K153" s="85">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L153" s="86">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>47625</v>
+        <v>47644</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="F154" s="83">
         <f>_xll.qlRateHelperQuoteValue($E154,Trigger)</f>
-        <v>3.2288450298371574E-2</v>
+        <v>3.3077249365201254E-2</v>
       </c>
       <c r="G154" s="83">
         <f>_xll.qlSwapRateHelperSpread($E154,Trigger)</f>
@@ -9033,11 +9033,11 @@
       </c>
       <c r="K154" s="85">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L154" s="86">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>47990</v>
+        <v>48008</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9058,7 +9058,7 @@
       </c>
       <c r="F155" s="83">
         <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
-        <v>3.264776170463958E-2</v>
+        <v>3.3437030405743362E-2</v>
       </c>
       <c r="G155" s="83">
         <f>_xll.qlSwapRateHelperSpread($E155,Trigger)</f>
@@ -9075,11 +9075,11 @@
       </c>
       <c r="K155" s="85">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L155" s="86">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>48358</v>
+        <v>48374</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="F156" s="83">
         <f>_xll.qlRateHelperQuoteValue($E156,Trigger)</f>
-        <v>3.2951494717058473E-2</v>
+        <v>3.374220500124412E-2</v>
       </c>
       <c r="G156" s="83">
         <f>_xll.qlSwapRateHelperSpread($E156,Trigger)</f>
@@ -9117,11 +9117,11 @@
       </c>
       <c r="K156" s="85">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L156" s="86">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>48722</v>
+        <v>48739</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9142,7 +9142,7 @@
       </c>
       <c r="F157" s="83">
         <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
-        <v>3.3211645259304715E-2</v>
+        <v>3.400160584900451E-2</v>
       </c>
       <c r="G157" s="83">
         <f>_xll.qlSwapRateHelperSpread($E157,Trigger)</f>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="K157" s="85">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L157" s="86">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>49086</v>
+        <v>49104</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
@@ -9184,7 +9184,7 @@
       </c>
       <c r="F158" s="83">
         <f>_xll.qlRateHelperQuoteValue($E158,Trigger)</f>
-        <v>3.3434886313402114E-2</v>
+        <v>3.422258679177529E-2</v>
       </c>
       <c r="G158" s="83">
         <f>_xll.qlSwapRateHelperSpread($E158,Trigger)</f>
@@ -9201,11 +9201,11 @@
       </c>
       <c r="K158" s="85">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L158" s="86">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>49451</v>
+        <v>49471</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9226,7 +9226,7 @@
       </c>
       <c r="F159" s="83">
         <f>_xll.qlRateHelperQuoteValue($E159,Trigger)</f>
-        <v>3.3626917562919773E-2</v>
+        <v>3.4407857957572084E-2</v>
       </c>
       <c r="G159" s="83">
         <f>_xll.qlSwapRateHelperSpread($E159,Trigger)</f>
@@ -9243,11 +9243,11 @@
       </c>
       <c r="K159" s="85">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L159" s="86">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>49817</v>
+        <v>49835</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -9268,7 +9268,7 @@
       </c>
       <c r="F160" s="83">
         <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
-        <v>3.3792071502637723E-2</v>
+        <v>3.4565281142177912E-2</v>
       </c>
       <c r="G160" s="83">
         <f>_xll.qlSwapRateHelperSpread($E160,Trigger)</f>
@@ -9285,11 +9285,11 @@
       </c>
       <c r="K160" s="85">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L160" s="86">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>50182</v>
+        <v>50200</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9310,7 +9310,7 @@
       </c>
       <c r="F161" s="83">
         <f>_xll.qlRateHelperQuoteValue($E161,Trigger)</f>
-        <v>3.3936433578222847E-2</v>
+        <v>3.469867343839985E-2</v>
       </c>
       <c r="G161" s="83">
         <f>_xll.qlSwapRateHelperSpread($E161,Trigger)</f>
@@ -9327,11 +9327,11 @@
       </c>
       <c r="K161" s="85">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L161" s="86">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>50549</v>
+        <v>50565</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="F162" s="83">
         <f>_xll.qlRateHelperQuoteValue($E162,Trigger)</f>
-        <v>3.406182329806566E-2</v>
+        <v>3.4811760410225885E-2</v>
       </c>
       <c r="G162" s="83">
         <f>_xll.qlSwapRateHelperSpread($E162,Trigger)</f>
@@ -9369,11 +9369,11 @@
       </c>
       <c r="K162" s="85">
         <f>_xll.qlRateHelperEarliestDate($E162,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L162" s="86">
         <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
-        <v>50913</v>
+        <v>50930</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.2">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="F163" s="83">
         <f>_xll.qlRateHelperQuoteValue($E163,Trigger)</f>
-        <v>3.4172210894206703E-2</v>
+        <v>3.4908602959406863E-2</v>
       </c>
       <c r="G163" s="83">
         <f>_xll.qlSwapRateHelperSpread($E163,Trigger)</f>
@@ -9411,11 +9411,11 @@
       </c>
       <c r="K163" s="85">
         <f>_xll.qlRateHelperEarliestDate($E163,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L163" s="86">
         <f>_xll.qlRateHelperLatestDate($E163,Trigger)</f>
-        <v>51278</v>
+        <v>51298</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.2">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="F164" s="83">
         <f>_xll.qlRateHelperQuoteValue($E164,Trigger)</f>
-        <v>3.4268104401259734E-2</v>
+        <v>3.4989950140082465E-2</v>
       </c>
       <c r="G164" s="83">
         <f>_xll.qlSwapRateHelperSpread($E164,Trigger)</f>
@@ -9453,11 +9453,11 @@
       </c>
       <c r="K164" s="85">
         <f>_xll.qlRateHelperEarliestDate($E164,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L164" s="86">
         <f>_xll.qlRateHelperLatestDate($E164,Trigger)</f>
-        <v>51643</v>
+        <v>51662</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.2">
@@ -9478,7 +9478,7 @@
       </c>
       <c r="F165" s="83">
         <f>_xll.qlRateHelperQuoteValue($E165,Trigger)</f>
-        <v>3.435086816016264E-2</v>
+        <v>3.5059539338758605E-2</v>
       </c>
       <c r="G165" s="83">
         <f>_xll.qlSwapRateHelperSpread($E165,Trigger)</f>
@@ -9495,11 +9495,11 @@
       </c>
       <c r="K165" s="85">
         <f>_xll.qlRateHelperEarliestDate($E165,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L165" s="86">
         <f>_xll.qlRateHelperLatestDate($E165,Trigger)</f>
-        <v>52008</v>
+        <v>52026</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.2">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="F166" s="83">
         <f>_xll.qlRateHelperQuoteValue($E166,Trigger)</f>
-        <v>3.4421685396440159E-2</v>
+        <v>3.5119593696695268E-2</v>
       </c>
       <c r="G166" s="83">
         <f>_xll.qlSwapRateHelperSpread($E166,Trigger)</f>
@@ -9537,11 +9537,11 @@
       </c>
       <c r="K166" s="85">
         <f>_xll.qlRateHelperEarliestDate($E166,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L166" s="86">
         <f>_xll.qlRateHelperLatestDate($E166,Trigger)</f>
-        <v>52373</v>
+        <v>52391</v>
       </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.2">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="F167" s="83">
         <f>_xll.qlRateHelperQuoteValue($E167,Trigger)</f>
-        <v>3.4481950603024482E-2</v>
+        <v>3.5171769988979258E-2</v>
       </c>
       <c r="G167" s="83">
         <f>_xll.qlSwapRateHelperSpread($E167,Trigger)</f>
@@ -9579,11 +9579,11 @@
       </c>
       <c r="K167" s="85">
         <f>_xll.qlRateHelperEarliestDate($E167,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L167" s="86">
         <f>_xll.qlRateHelperLatestDate($E167,Trigger)</f>
-        <v>52740</v>
+        <v>52757</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.2">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="F168" s="83">
         <f>_xll.qlRateHelperQuoteValue($E168,Trigger)</f>
-        <v>3.4649702954808827E-2</v>
+        <v>3.5344449476215289E-2</v>
       </c>
       <c r="G168" s="83">
         <f>_xll.qlSwapRateHelperSpread($E168,Trigger)</f>
@@ -9621,11 +9621,11 @@
       </c>
       <c r="K168" s="85">
         <f>_xll.qlRateHelperEarliestDate($E168,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L168" s="86">
         <f>_xll.qlRateHelperLatestDate($E168,Trigger)</f>
-        <v>54567</v>
+        <v>54583</v>
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.2">
@@ -9646,7 +9646,7 @@
       </c>
       <c r="F169" s="83">
         <f>_xll.qlRateHelperQuoteValue($E169,Trigger)</f>
-        <v>3.4662007757697892E-2</v>
+        <v>3.5371809115506456E-2</v>
       </c>
       <c r="G169" s="83">
         <f>_xll.qlSwapRateHelperSpread($E169,Trigger)</f>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="K169" s="85">
         <f>_xll.qlRateHelperEarliestDate($E169,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L169" s="86">
         <f>_xll.qlRateHelperLatestDate($E169,Trigger)</f>
-        <v>56391</v>
+        <v>56409</v>
       </c>
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.2">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="F170" s="83">
         <f>_xll.qlRateHelperQuoteValue($E170,Trigger)</f>
-        <v>3.4481929803103335E-2</v>
+        <v>3.5171734376625803E-2</v>
       </c>
       <c r="G170" s="83">
         <f>_xll.qlSwapRateHelperSpread($E170,Trigger)</f>
@@ -9705,11 +9705,11 @@
       </c>
       <c r="K170" s="85">
         <f>_xll.qlRateHelperEarliestDate($E170,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L170" s="86">
         <f>_xll.qlRateHelperLatestDate($E170,Trigger)</f>
-        <v>60044</v>
+        <v>60062</v>
       </c>
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.2">
@@ -9730,7 +9730,7 @@
       </c>
       <c r="F171" s="88">
         <f>_xll.qlRateHelperQuoteValue($E171,Trigger)</f>
-        <v>3.4325065500104335E-2</v>
+        <v>3.4991481453227467E-2</v>
       </c>
       <c r="G171" s="88">
         <f>_xll.qlSwapRateHelperSpread($E171,Trigger)</f>
@@ -9747,11 +9747,11 @@
       </c>
       <c r="K171" s="90">
         <f>_xll.qlRateHelperEarliestDate($E171,Trigger)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="L171" s="91">
         <f>_xll.qlRateHelperLatestDate($E171,Trigger)</f>
-        <v>63696</v>
+        <v>63716</v>
       </c>
     </row>
   </sheetData>
@@ -9770,7 +9770,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -9824,7 +9824,7 @@
       </c>
       <c r="E2" s="67">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>3.8649999999999999E-3</v>
+        <v>3.4610000000000001E-3</v>
       </c>
       <c r="F2" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9832,14 +9832,14 @@
       </c>
       <c r="G2" s="77">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H2" s="78">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41788</v>
+        <v>41806</v>
       </c>
       <c r="I2" s="63">
-        <v>0.99992485286973753</v>
+        <v>0.99993270730638895</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -9854,7 +9854,7 @@
       </c>
       <c r="E3" s="67">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>3.6909999999999998E-3</v>
+        <v>3.388E-3</v>
       </c>
       <c r="F3" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9862,14 +9862,14 @@
       </c>
       <c r="G3" s="77">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H3" s="78">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41813</v>
+        <v>41829</v>
       </c>
       <c r="I3" s="63">
-        <v>0.9996720187181255</v>
+        <v>0.99971774635627875</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="E4" s="67">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>3.529E-3</v>
+        <v>3.3279999999999998E-3</v>
       </c>
       <c r="F4" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9892,14 +9892,14 @@
       </c>
       <c r="G4" s="77">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H4" s="78">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41842</v>
+        <v>41862</v>
       </c>
       <c r="I4" s="63">
-        <v>0.99940238790932534</v>
+        <v>0.99941793899233078</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -9914,7 +9914,7 @@
       </c>
       <c r="E5" s="67">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>3.4099999999999998E-3</v>
+        <v>3.2820000000000002E-3</v>
       </c>
       <c r="F5" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -9922,14 +9922,14 @@
       </c>
       <c r="G5" s="77">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H5" s="78">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41873</v>
+        <v>41891</v>
       </c>
       <c r="I5" s="63">
-        <v>0.99912931430976326</v>
+        <v>0.99916196955073888</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="E6" s="67">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>3.326E-3</v>
+        <v>3.2560000000000002E-3</v>
       </c>
       <c r="F6" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9953,20 +9953,20 @@
       </c>
       <c r="G6" s="77">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H6" s="78">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41904</v>
+        <v>41921</v>
       </c>
       <c r="I6" s="63">
-        <v>0.99886490656792459</v>
+        <v>0.99889779397639755</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_RateHelpersSelected#0001</v>
+        <v>USD_YC6MRH_RateHelpersSelected#0002</v>
       </c>
       <c r="B7" s="73" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9977,7 +9977,7 @@
       </c>
       <c r="E7" s="67">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>3.2690000000000002E-3</v>
+        <v>3.2330000000000002E-3</v>
       </c>
       <c r="F7" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9985,14 +9985,14 @@
       </c>
       <c r="G7" s="77">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H7" s="78">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41934</v>
+        <v>41953</v>
       </c>
       <c r="I7" s="63">
-        <v>0.99861260254596773</v>
+        <v>0.9986189045071836</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="E8" s="67">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>3.2529999999999998E-3</v>
+        <v>3.2290000000000001E-3</v>
       </c>
       <c r="F8" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -10009,14 +10009,14 @@
       </c>
       <c r="G8" s="77">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H8" s="78">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41967</v>
+        <v>41982</v>
       </c>
       <c r="I8" s="63">
-        <v>0.99832210340211025</v>
+        <v>0.99836128147282943</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -10025,7 +10025,7 @@
       </c>
       <c r="E9" s="67">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>3.1900000000000001E-3</v>
+        <v>3.2300000000000002E-3</v>
       </c>
       <c r="F9" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -10033,14 +10033,14 @@
       </c>
       <c r="G9" s="77">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41813</v>
+        <v>41829</v>
       </c>
       <c r="H9" s="78">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41996</v>
+        <v>42013</v>
       </c>
       <c r="I9" s="63">
-        <v>0.99805359164833829</v>
+        <v>0.99807004361094864</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="E10" s="67">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>3.2599999999999994E-3</v>
+        <v>3.2699999999999995E-3</v>
       </c>
       <c r="F10" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -10057,14 +10057,14 @@
       </c>
       <c r="G10" s="77">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41842</v>
+        <v>41862</v>
       </c>
       <c r="H10" s="78">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42026</v>
+        <v>42046</v>
       </c>
       <c r="I10" s="63">
-        <v>0.99773993146352236</v>
+        <v>0.99775036554804486</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -10073,7 +10073,7 @@
       </c>
       <c r="E11" s="67">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>3.2799999999999995E-3</v>
+        <v>3.3299999999999996E-3</v>
       </c>
       <c r="F11" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -10081,14 +10081,14 @@
       </c>
       <c r="G11" s="77">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41873</v>
+        <v>41891</v>
       </c>
       <c r="H11" s="78">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42058</v>
+        <v>42072</v>
       </c>
       <c r="I11" s="63">
-        <v>0.99744806019053101</v>
+        <v>0.99749191870584564</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -10097,7 +10097,7 @@
       </c>
       <c r="E12" s="67">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>3.3599999999999997E-3</v>
+        <v>3.4199999999999999E-3</v>
       </c>
       <c r="F12" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -10105,14 +10105,14 @@
       </c>
       <c r="G12" s="77">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41904</v>
+        <v>41921</v>
       </c>
       <c r="H12" s="78">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42086</v>
+        <v>42103</v>
       </c>
       <c r="I12" s="63">
-        <v>0.99717104535221968</v>
+        <v>0.99717368068249757</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -10121,7 +10121,7 @@
       </c>
       <c r="E13" s="67">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>3.4799999999999996E-3</v>
+        <v>3.5799999999999998E-3</v>
       </c>
       <c r="F13" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -10129,14 +10129,14 @@
       </c>
       <c r="G13" s="77">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41934</v>
+        <v>41953</v>
       </c>
       <c r="H13" s="78">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42116</v>
+        <v>42135</v>
       </c>
       <c r="I13" s="63">
-        <v>0.99685879563817492</v>
+        <v>0.9968147805116554</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="E14" s="67">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>3.65E-3</v>
+        <v>3.7799999999999999E-3</v>
       </c>
       <c r="F14" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -10153,14 +10153,14 @@
       </c>
       <c r="G14" s="77">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41967</v>
+        <v>41982</v>
       </c>
       <c r="H14" s="78">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42150</v>
+        <v>42164</v>
       </c>
       <c r="I14" s="63">
-        <v>0.9964732303626086</v>
+        <v>0.99645705204636892</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -10169,7 +10169,7 @@
       </c>
       <c r="E15" s="67">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>6.0685558389976628E-3</v>
+        <v>6.1566711262975044E-3</v>
       </c>
       <c r="F15" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -10177,14 +10177,14 @@
       </c>
       <c r="G15" s="77">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H15" s="78">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42513</v>
+        <v>42530</v>
       </c>
       <c r="I15" s="63">
-        <v>0.98775871829846873</v>
+        <v>0.98759646417493829</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -10193,7 +10193,7 @@
       </c>
       <c r="E16" s="67">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>9.7529557176736052E-3</v>
+        <v>1.0193004281019413E-2</v>
       </c>
       <c r="F16" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -10201,14 +10201,14 @@
       </c>
       <c r="G16" s="77">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H16" s="78">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42877</v>
+        <v>42895</v>
       </c>
       <c r="I16" s="63">
-        <v>0.97077305106380696</v>
+        <v>0.9694687979565767</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.2">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="E17" s="67">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.3684283316713789E-2</v>
+        <v>1.4304299322731426E-2</v>
       </c>
       <c r="F17" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -10225,14 +10225,14 @@
       </c>
       <c r="G17" s="77">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H17" s="78">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="I17" s="63">
-        <v>0.94590740206597113</v>
+        <v>0.94344051543347496</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.2">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="E18" s="67">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.7085400300891805E-2</v>
+        <v>1.7805386376286945E-2</v>
       </c>
       <c r="F18" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -10249,14 +10249,14 @@
       </c>
       <c r="G18" s="77">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H18" s="78">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>43607</v>
+        <v>43626</v>
       </c>
       <c r="I18" s="63">
-        <v>0.91664544856777808</v>
+        <v>0.91321834008585845</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.2">
@@ -10265,7 +10265,7 @@
       </c>
       <c r="E19" s="67">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.9916328418403177E-2</v>
+        <v>2.0716415876999874E-2</v>
       </c>
       <c r="F19" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -10273,14 +10273,14 @@
       </c>
       <c r="G19" s="77">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H19" s="78">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>43973</v>
+        <v>43991</v>
       </c>
       <c r="I19" s="63">
-        <v>0.88499371845204677</v>
+        <v>0.88061364009244703</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.2">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="E20" s="67">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>2.228725414758094E-2</v>
+        <v>2.3087307827136749E-2</v>
       </c>
       <c r="F20" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10297,14 +10297,14 @@
       </c>
       <c r="G20" s="77">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H20" s="78">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44340</v>
+        <v>44356</v>
       </c>
       <c r="I20" s="63">
-        <v>0.85203984960852741</v>
+        <v>0.84721487305823706</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.2">
@@ -10313,7 +10313,7 @@
       </c>
       <c r="E21" s="67">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>2.4228041980697709E-2</v>
+        <v>2.4997991379020156E-2</v>
       </c>
       <c r="F21" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10321,14 +10321,14 @@
       </c>
       <c r="G21" s="77">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H21" s="78">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>44704</v>
+        <v>44721</v>
       </c>
       <c r="I21" s="63">
-        <v>0.81919749908761397</v>
+        <v>0.81404471634993536</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.2">
@@ -10337,7 +10337,7 @@
       </c>
       <c r="E22" s="67">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>2.5838667292365315E-2</v>
+        <v>2.6588678525473104E-2</v>
       </c>
       <c r="F22" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10345,14 +10345,14 @@
       </c>
       <c r="G22" s="77">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H22" s="78">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>45068</v>
+        <v>45086</v>
       </c>
       <c r="I22" s="63">
-        <v>0.78674580500192715</v>
+        <v>0.78127043942822472</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.2">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="E23" s="67">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.7179211544759677E-2</v>
+        <v>2.7909134324662303E-2</v>
       </c>
       <c r="F23" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10369,14 +10369,14 @@
       </c>
       <c r="G23" s="77">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H23" s="78">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>45434</v>
+        <v>45453</v>
       </c>
       <c r="I23" s="63">
-        <v>0.75494954015161486</v>
+        <v>0.74921734051171129</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.2">
@@ -10385,7 +10385,7 @@
       </c>
       <c r="E24" s="67">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.9290046337604788E-2</v>
+        <v>3.0040134034395566E-2</v>
       </c>
       <c r="F24" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10393,14 +10393,14 @@
       </c>
       <c r="G24" s="77">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H24" s="78">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>46164</v>
+        <v>46182</v>
       </c>
       <c r="I24" s="63">
-        <v>0.6940849130003196</v>
+        <v>0.68759114050223036</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.2">
@@ -10409,7 +10409,7 @@
       </c>
       <c r="E25" s="67">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>3.1380979850401565E-2</v>
+        <v>3.216097451401656E-2</v>
       </c>
       <c r="F25" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10417,14 +10417,14 @@
       </c>
       <c r="G25" s="77">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H25" s="78">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>47260</v>
+        <v>47280</v>
       </c>
       <c r="I25" s="63">
-        <v>0.61167667003632109</v>
+        <v>0.60405722722588395</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.2">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="E26" s="67">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>3.3211645259304715E-2</v>
+        <v>3.400160584900451E-2</v>
       </c>
       <c r="F26" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10441,14 +10441,14 @@
       </c>
       <c r="G26" s="77">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H26" s="78">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>49086</v>
+        <v>49104</v>
       </c>
       <c r="I26" s="63">
-        <v>0.49838846609063953</v>
+        <v>0.49007928909045023</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.2">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="E27" s="67">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>3.406182329806566E-2</v>
+        <v>3.4811760410225885E-2</v>
       </c>
       <c r="F27" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10465,14 +10465,14 @@
       </c>
       <c r="G27" s="77">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H27" s="78">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>50913</v>
+        <v>50930</v>
       </c>
       <c r="I27" s="63">
-        <v>0.40932515609423337</v>
+        <v>0.4014778893059272</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.2">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="E28" s="67">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>3.4481950603024482E-2</v>
+        <v>3.5171769988979258E-2</v>
       </c>
       <c r="F28" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10489,14 +10489,14 @@
       </c>
       <c r="G28" s="77">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H28" s="78">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>52740</v>
+        <v>52757</v>
       </c>
       <c r="I28" s="63">
-        <v>0.33836884251768928</v>
+        <v>0.33156778619091049</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.2">
@@ -10505,7 +10505,7 @@
       </c>
       <c r="E29" s="67">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>3.4649702954808827E-2</v>
+        <v>3.5344449476215289E-2</v>
       </c>
       <c r="F29" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -10513,14 +10513,14 @@
       </c>
       <c r="G29" s="77">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H29" s="78">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>54567</v>
+        <v>54583</v>
       </c>
       <c r="I29" s="63">
-        <v>0.28192727634860187</v>
+        <v>0.27521278312023922</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.2">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="E30" s="67">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>3.4662007757697892E-2</v>
+        <v>3.5371809115506456E-2</v>
       </c>
       <c r="F30" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -10537,14 +10537,14 @@
       </c>
       <c r="G30" s="77">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H30" s="78">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>56391</v>
+        <v>56409</v>
       </c>
       <c r="I30" s="63">
-        <v>0.23701780147824295</v>
+        <v>0.23025919436402864</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.2">
@@ -10553,7 +10553,7 @@
       </c>
       <c r="E31" s="67">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>3.4481929803103335E-2</v>
+        <v>3.5171734376625803E-2</v>
       </c>
       <c r="F31" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -10561,14 +10561,14 @@
       </c>
       <c r="G31" s="77">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41781</v>
+        <v>41799</v>
       </c>
       <c r="H31" s="78">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>60044</v>
+        <v>60062</v>
       </c>
       <c r="I31" s="63">
-        <v>0.17107176783742037</v>
+        <v>0.16549227213301132</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.2">
@@ -12938,7 +12938,7 @@
       </c>
       <c r="C3" s="133" t="str">
         <f>_xll.qlLibor(,"USD",B3,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0054c#0001</v>
+        <v>obj_0056f#0002</v>
       </c>
       <c r="D3" s="134" t="str">
         <f t="shared" ref="D3:D9" si="0">Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
@@ -12950,7 +12950,7 @@
       </c>
       <c r="F3" s="136" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_SWD#0001</v>
+        <v>USD_YC6MRH_SWD#0002</v>
       </c>
       <c r="G3" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="C4" s="133" t="str">
         <f>_xll.qlLibor(,"USD",B4,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0054b#0001</v>
+        <v>obj_00571#0002</v>
       </c>
       <c r="D4" s="134" t="str">
         <f t="shared" si="0"/>
@@ -12977,7 +12977,7 @@
       </c>
       <c r="F4" s="136" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_1MD#0001</v>
+        <v>USD_YC6MRH_1MD#0002</v>
       </c>
       <c r="G4" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -12992,7 +12992,7 @@
       </c>
       <c r="C5" s="133" t="str">
         <f>_xll.qlLibor(,"USD",B5,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00547#0001</v>
+        <v>obj_0056c#0002</v>
       </c>
       <c r="D5" s="134" t="str">
         <f t="shared" si="0"/>
@@ -13004,7 +13004,7 @@
       </c>
       <c r="F5" s="136" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_2MD#0001</v>
+        <v>USD_YC6MRH_2MD#0002</v>
       </c>
       <c r="G5" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13019,7 +13019,7 @@
       </c>
       <c r="C6" s="133" t="str">
         <f>_xll.qlLibor(,"USD",B6,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00549#0001</v>
+        <v>obj_0056d#0002</v>
       </c>
       <c r="D6" s="134" t="str">
         <f t="shared" si="0"/>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="F6" s="136" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_3MD#0001</v>
+        <v>USD_YC6MRH_3MD#0002</v>
       </c>
       <c r="G6" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13046,7 +13046,7 @@
       </c>
       <c r="C7" s="133" t="str">
         <f>_xll.qlLibor(,"USD",B7,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00548#0001</v>
+        <v>obj_00570#0002</v>
       </c>
       <c r="D7" s="134" t="str">
         <f t="shared" si="0"/>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="F7" s="136" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_4MD#0001</v>
+        <v>USD_YC6MRH_4MD#0002</v>
       </c>
       <c r="G7" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13073,7 +13073,7 @@
       </c>
       <c r="C8" s="133" t="str">
         <f>_xll.qlLibor(,"USD",B8,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0054a#0001</v>
+        <v>obj_0056e#0002</v>
       </c>
       <c r="D8" s="134" t="str">
         <f t="shared" si="0"/>
@@ -13085,7 +13085,7 @@
       </c>
       <c r="F8" s="136" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_5MD#0001</v>
+        <v>USD_YC6MRH_5MD#0002</v>
       </c>
       <c r="G8" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13100,7 +13100,7 @@
       </c>
       <c r="C9" s="133" t="str">
         <f>_xll.qlLibor(,"USD",B9,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0054d#0001</v>
+        <v>obj_00572#0002</v>
       </c>
       <c r="D9" s="134" t="str">
         <f t="shared" si="0"/>
@@ -13112,7 +13112,7 @@
       </c>
       <c r="F9" s="136" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_6MD#0001</v>
+        <v>USD_YC6MRH_6MD#0002</v>
       </c>
       <c r="G9" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13239,7 +13239,7 @@
       </c>
       <c r="I3" s="155" t="str">
         <f>_xll.qlFraRateHelper(H3,G3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_1x7F#0001</v>
+        <v>USD_YC6MRH_1x7F#0002</v>
       </c>
       <c r="J3" s="190" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -13277,7 +13277,7 @@
       </c>
       <c r="I4" s="159" t="str">
         <f>_xll.qlFraRateHelper(H4,G4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_2x8F#0001</v>
+        <v>USD_YC6MRH_2x8F#0002</v>
       </c>
       <c r="J4" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="I5" s="159" t="str">
         <f>_xll.qlFraRateHelper(H5,G5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_3x9F#0001</v>
+        <v>USD_YC6MRH_3x9F#0002</v>
       </c>
       <c r="J5" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13353,7 +13353,7 @@
       </c>
       <c r="I6" s="159" t="str">
         <f>_xll.qlFraRateHelper(H6,G6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_4x10F#0001</v>
+        <v>USD_YC6MRH_4x10F#0002</v>
       </c>
       <c r="J6" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="I7" s="159" t="str">
         <f>_xll.qlFraRateHelper(H7,G7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_5x11F#0001</v>
+        <v>USD_YC6MRH_5x11F#0002</v>
       </c>
       <c r="J7" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -13429,7 +13429,7 @@
       </c>
       <c r="I8" s="159" t="str">
         <f>_xll.qlFraRateHelper(H8,G8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_6x12F#0001</v>
+        <v>USD_YC6MRH_6x12F#0002</v>
       </c>
       <c r="J8" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -13466,7 +13466,7 @@
       </c>
       <c r="I9" s="159" t="str">
         <f>_xll.qlFraRateHelper(H9,G9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_7x13F#0001</v>
+        <v>USD_YC6MRH_7x13F#0002</v>
       </c>
       <c r="J9" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -13503,7 +13503,7 @@
       </c>
       <c r="I10" s="159" t="str">
         <f>_xll.qlFraRateHelper(H10,G10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_8x14F#0001</v>
+        <v>USD_YC6MRH_8x14F#0002</v>
       </c>
       <c r="J10" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="I12" s="159" t="str">
         <f>_xll.qlFraRateHelper(H12,G12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_10x16F#0001</v>
+        <v>USD_YC6MRH_10x16F#0002</v>
       </c>
       <c r="J12" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -13614,7 +13614,7 @@
       </c>
       <c r="I13" s="159" t="str">
         <f>_xll.qlFraRateHelper(H13,G13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_11x17F#0001</v>
+        <v>USD_YC6MRH_11x17F#0002</v>
       </c>
       <c r="J13" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -13689,7 +13689,7 @@
       </c>
       <c r="I15" s="159" t="str">
         <f>_xll.qlFraRateHelper(H15,G15,B15,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_13x19F#0001</v>
+        <v>USD_YC6MRH_13x19F#0002</v>
       </c>
       <c r="J15" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -13726,7 +13726,7 @@
       </c>
       <c r="I16" s="159" t="str">
         <f>_xll.qlFraRateHelper(H16,G16,B16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_14x20F#0001</v>
+        <v>USD_YC6MRH_14x20F#0002</v>
       </c>
       <c r="J16" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -13763,7 +13763,7 @@
       </c>
       <c r="I17" s="159" t="str">
         <f>_xll.qlFraRateHelper(H17,G17,B17,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_15x21F#0001</v>
+        <v>USD_YC6MRH_15x21F#0002</v>
       </c>
       <c r="J17" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -13800,7 +13800,7 @@
       </c>
       <c r="I18" s="159" t="str">
         <f>_xll.qlFraRateHelper(H18,G18,B18,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_16x22F#0001</v>
+        <v>USD_YC6MRH_16x22F#0002</v>
       </c>
       <c r="J18" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="I19" s="159" t="str">
         <f>_xll.qlFraRateHelper(H19,G19,B19,E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_17x23F#0001</v>
+        <v>USD_YC6MRH_17x23F#0002</v>
       </c>
       <c r="J19" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -13912,7 +13912,7 @@
       </c>
       <c r="I21" s="159" t="str">
         <f>_xll.qlFraRateHelper(H21,G21,B21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_19x25F#0001</v>
+        <v>USD_YC6MRH_19x25F#0002</v>
       </c>
       <c r="J21" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -13949,7 +13949,7 @@
       </c>
       <c r="I22" s="159" t="str">
         <f>_xll.qlFraRateHelper(H22,G22,B22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_20x26F#0001</v>
+        <v>USD_YC6MRH_20x26F#0002</v>
       </c>
       <c r="J22" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -13986,7 +13986,7 @@
       </c>
       <c r="I23" s="159" t="str">
         <f>_xll.qlFraRateHelper(H23,G23,B23,E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_21x27F#0001</v>
+        <v>USD_YC6MRH_21x27F#0002</v>
       </c>
       <c r="J23" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -14023,7 +14023,7 @@
       </c>
       <c r="I24" s="159" t="str">
         <f>_xll.qlFraRateHelper(H24,G24,B24,E24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_22x28F#0001</v>
+        <v>USD_YC6MRH_22x28F#0002</v>
       </c>
       <c r="J24" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -14060,7 +14060,7 @@
       </c>
       <c r="I25" s="159" t="str">
         <f>_xll.qlFraRateHelper(H25,G25,B25,E25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_23x29F#0001</v>
+        <v>USD_YC6MRH_23x29F#0002</v>
       </c>
       <c r="J25" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="I26" s="159" t="str">
         <f>_xll.qlFraRateHelper(H26,G26,B26,E26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_24x30F#0001</v>
+        <v>USD_YC6MRH_24x30F#0002</v>
       </c>
       <c r="J26" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -14258,7 +14258,7 @@
       </c>
       <c r="L4" s="175" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>USD_YC6MRH_AM6LBASIS_Libor6M#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS_Libor6M#0002</v>
       </c>
       <c r="M4" s="176" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -14322,7 +14322,7 @@
       </c>
       <c r="L6" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS1Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS1Y#0002</v>
       </c>
       <c r="M6" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -14371,7 +14371,7 @@
       </c>
       <c r="L7" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS2Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS2Y#0002</v>
       </c>
       <c r="M7" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -14420,7 +14420,7 @@
       </c>
       <c r="L8" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS3Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS3Y#0002</v>
       </c>
       <c r="M8" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -14469,7 +14469,7 @@
       </c>
       <c r="L9" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS4Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS4Y#0002</v>
       </c>
       <c r="M9" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -14518,7 +14518,7 @@
       </c>
       <c r="L10" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS5Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS5Y#0002</v>
       </c>
       <c r="M10" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -14576,7 +14576,7 @@
       </c>
       <c r="L11" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS6Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS6Y#0002</v>
       </c>
       <c r="M11" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -14634,7 +14634,7 @@
       </c>
       <c r="L12" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS7Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS7Y#0002</v>
       </c>
       <c r="M12" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -14692,7 +14692,7 @@
       </c>
       <c r="L13" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS8Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS8Y#0002</v>
       </c>
       <c r="M13" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="L14" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS9Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS9Y#0002</v>
       </c>
       <c r="M14" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -14808,7 +14808,7 @@
       </c>
       <c r="L15" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS10Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS10Y#0002</v>
       </c>
       <c r="M15" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -14860,7 +14860,7 @@
       </c>
       <c r="L16" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS11Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS11Y#0002</v>
       </c>
       <c r="M16" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -14909,7 +14909,7 @@
       </c>
       <c r="L17" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS12Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS12Y#0002</v>
       </c>
       <c r="M17" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -14958,7 +14958,7 @@
       </c>
       <c r="L18" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS13Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS13Y#0002</v>
       </c>
       <c r="M18" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -15007,7 +15007,7 @@
       </c>
       <c r="L19" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS14Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS14Y#0002</v>
       </c>
       <c r="M19" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="L20" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS15Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS15Y#0002</v>
       </c>
       <c r="M20" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -15105,7 +15105,7 @@
       </c>
       <c r="L21" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS16Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS16Y#0002</v>
       </c>
       <c r="M21" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -15154,7 +15154,7 @@
       </c>
       <c r="L22" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS17Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS17Y#0002</v>
       </c>
       <c r="M22" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -15203,7 +15203,7 @@
       </c>
       <c r="L23" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS18Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS18Y#0002</v>
       </c>
       <c r="M23" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -15252,7 +15252,7 @@
       </c>
       <c r="L24" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS19Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS19Y#0002</v>
       </c>
       <c r="M24" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -15301,7 +15301,7 @@
       </c>
       <c r="L25" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS20Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS20Y#0002</v>
       </c>
       <c r="M25" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -15350,7 +15350,7 @@
       </c>
       <c r="L26" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS21Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS21Y#0002</v>
       </c>
       <c r="M26" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -15399,7 +15399,7 @@
       </c>
       <c r="L27" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS22Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS22Y#0002</v>
       </c>
       <c r="M27" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -15448,7 +15448,7 @@
       </c>
       <c r="L28" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS23Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS23Y#0002</v>
       </c>
       <c r="M28" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -15497,7 +15497,7 @@
       </c>
       <c r="L29" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS24Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS24Y#0002</v>
       </c>
       <c r="M29" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -15546,7 +15546,7 @@
       </c>
       <c r="L30" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS25Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS25Y#0002</v>
       </c>
       <c r="M30" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -15595,7 +15595,7 @@
       </c>
       <c r="L31" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS26Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS26Y#0002</v>
       </c>
       <c r="M31" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -15644,7 +15644,7 @@
       </c>
       <c r="L32" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS27Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS27Y#0002</v>
       </c>
       <c r="M32" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -15693,7 +15693,7 @@
       </c>
       <c r="L33" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS28Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS28Y#0002</v>
       </c>
       <c r="M33" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -15742,7 +15742,7 @@
       </c>
       <c r="L34" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS29Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS29Y#0002</v>
       </c>
       <c r="M34" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -15791,7 +15791,7 @@
       </c>
       <c r="L35" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS30Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS30Y#0002</v>
       </c>
       <c r="M35" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -15840,7 +15840,7 @@
       </c>
       <c r="L36" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS35Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS35Y#0002</v>
       </c>
       <c r="M36" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -15889,7 +15889,7 @@
       </c>
       <c r="L37" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS40Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS40Y#0002</v>
       </c>
       <c r="M37" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -15938,7 +15938,7 @@
       </c>
       <c r="L38" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS50Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS50Y#0002</v>
       </c>
       <c r="M38" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -15987,7 +15987,7 @@
       </c>
       <c r="L39" s="168" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC6MRH_AM6LBASIS60Y#0001</v>
+        <v>USD_YC6MRH_AM6LBASIS60Y#0002</v>
       </c>
       <c r="M39" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
